--- a/src/ontology/Ontorat input files/SOC-detailedOccupationsV010.xlsx
+++ b/src/ontology/Ontorat input files/SOC-detailedOccupationsV010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samal\Documents\GitHub\OccO\src\ontology\Ontorat input files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06544FFE-6FF4-4EAF-B774-49798444C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFED91-E0D7-432B-B11E-3AE11F771BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2115" windowWidth="23880" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="1455" windowWidth="23880" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="O-NET-SOC 2019_DetailLabels" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7555" uniqueCount="6694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7555" uniqueCount="6696">
   <si>
     <t>Parent ID</t>
   </si>
@@ -15677,9 +15677,6 @@
     <t>Nannies</t>
   </si>
   <si>
-    <t>nannie</t>
-  </si>
-  <si>
     <t>Care for children in private households and provide support and expertise to parents in satisfying children's physical, emotional, intellectual, and social needs. Duties may include meal planning and preparation, laundry and clothing care, organization of play activities and outings, discipline, intellectual stimulation, language activities, and transportation.</t>
   </si>
   <si>
@@ -20118,6 +20115,15 @@
   </si>
   <si>
     <t>O*NET-SOC Title</t>
+  </si>
+  <si>
+    <t>actuary</t>
+  </si>
+  <si>
+    <t>orderly</t>
+  </si>
+  <si>
+    <t>nanny</t>
   </si>
 </sst>
 </file>
@@ -20578,8 +20584,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D628" sqref="D628"/>
+      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D614" sqref="D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20595,22 +20601,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>6685</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>6686</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>6687</v>
-      </c>
       <c r="C1" s="11" t="s">
+        <v>6689</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>6690</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>6691</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>6693</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>6692</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -23640,7 +23646,7 @@
         <v>3559</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1327</v>
+        <v>6693</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>3560</v>
@@ -31846,7 +31852,7 @@
         <v>4857</v>
       </c>
       <c r="D512" s="7" t="s">
-        <v>1153</v>
+        <v>6694</v>
       </c>
       <c r="E512" s="6" t="s">
         <v>4858</v>
@@ -34090,13 +34096,13 @@
         <v>5211</v>
       </c>
       <c r="D614" s="7" t="s">
-        <v>5213</v>
+        <v>6695</v>
       </c>
       <c r="E614" s="6" t="s">
         <v>5212</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>5214</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34109,16 +34115,16 @@
         <v>OccO_399030</v>
       </c>
       <c r="C615" s="5" t="s">
+        <v>5214</v>
+      </c>
+      <c r="D615" s="7" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E615" s="6" t="s">
         <v>5215</v>
       </c>
-      <c r="D615" s="7" t="s">
+      <c r="F615" s="6" t="s">
         <v>5217</v>
-      </c>
-      <c r="E615" s="6" t="s">
-        <v>5216</v>
-      </c>
-      <c r="F615" s="6" t="s">
-        <v>5218</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34131,16 +34137,16 @@
         <v>OccO_399030</v>
       </c>
       <c r="C616" s="5" t="s">
-        <v>5219</v>
+        <v>5218</v>
       </c>
       <c r="D616" s="7" t="s">
         <v>1090</v>
       </c>
       <c r="E616" s="6" t="s">
+        <v>5219</v>
+      </c>
+      <c r="F616" s="6" t="s">
         <v>5220</v>
-      </c>
-      <c r="F616" s="6" t="s">
-        <v>5221</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34153,16 +34159,16 @@
         <v>OccO_399040</v>
       </c>
       <c r="C617" s="5" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="D617" s="7" t="s">
         <v>1089</v>
       </c>
       <c r="E617" s="6" t="s">
+        <v>5222</v>
+      </c>
+      <c r="F617" s="6" t="s">
         <v>5223</v>
-      </c>
-      <c r="F617" s="6" t="s">
-        <v>5224</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -34175,16 +34181,16 @@
         <v>OccO_399090</v>
       </c>
       <c r="C618" s="5" t="s">
+        <v>5224</v>
+      </c>
+      <c r="D618" s="7" t="s">
+        <v>5226</v>
+      </c>
+      <c r="E618" s="6" t="s">
         <v>5225</v>
       </c>
-      <c r="D618" s="7" t="s">
+      <c r="F618" s="6" t="s">
         <v>5227</v>
-      </c>
-      <c r="E618" s="6" t="s">
-        <v>5226</v>
-      </c>
-      <c r="F618" s="6" t="s">
-        <v>5228</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34197,16 +34203,16 @@
         <v>OccO_411010</v>
       </c>
       <c r="C619" s="5" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="D619" s="7" t="s">
         <v>1438</v>
       </c>
       <c r="E619" s="6" t="s">
+        <v>5229</v>
+      </c>
+      <c r="F619" s="6" t="s">
         <v>5230</v>
-      </c>
-      <c r="F619" s="6" t="s">
-        <v>5231</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34219,16 +34225,16 @@
         <v>OccO_411010</v>
       </c>
       <c r="C620" s="5" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="D620" s="7" t="s">
         <v>1437</v>
       </c>
       <c r="E620" s="6" t="s">
+        <v>5232</v>
+      </c>
+      <c r="F620" s="6" t="s">
         <v>5233</v>
-      </c>
-      <c r="F620" s="6" t="s">
-        <v>5234</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34241,16 +34247,16 @@
         <v>OccO_412010</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="D621" s="7" t="s">
         <v>1088</v>
       </c>
       <c r="E621" s="6" t="s">
+        <v>5235</v>
+      </c>
+      <c r="F621" s="6" t="s">
         <v>5236</v>
-      </c>
-      <c r="F621" s="6" t="s">
-        <v>5237</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34263,16 +34269,16 @@
         <v>OccO_412010</v>
       </c>
       <c r="C622" s="5" t="s">
+        <v>5237</v>
+      </c>
+      <c r="D622" s="7" t="s">
+        <v>5239</v>
+      </c>
+      <c r="E622" s="6" t="s">
         <v>5238</v>
       </c>
-      <c r="D622" s="7" t="s">
+      <c r="F622" s="6" t="s">
         <v>5240</v>
-      </c>
-      <c r="E622" s="6" t="s">
-        <v>5239</v>
-      </c>
-      <c r="F622" s="6" t="s">
-        <v>5241</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34285,16 +34291,16 @@
         <v>OccO_412020</v>
       </c>
       <c r="C623" s="5" t="s">
+        <v>5241</v>
+      </c>
+      <c r="D623" s="7" t="s">
+        <v>5243</v>
+      </c>
+      <c r="E623" s="6" t="s">
         <v>5242</v>
       </c>
-      <c r="D623" s="7" t="s">
+      <c r="F623" s="6" t="s">
         <v>5244</v>
-      </c>
-      <c r="E623" s="6" t="s">
-        <v>5243</v>
-      </c>
-      <c r="F623" s="6" t="s">
-        <v>5245</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -34307,16 +34313,16 @@
         <v>OccO_412020</v>
       </c>
       <c r="C624" s="5" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
       <c r="D624" s="7" t="s">
         <v>1085</v>
       </c>
       <c r="E624" s="6" t="s">
+        <v>5246</v>
+      </c>
+      <c r="F624" s="6" t="s">
         <v>5247</v>
-      </c>
-      <c r="F624" s="6" t="s">
-        <v>5248</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -34329,16 +34335,16 @@
         <v>OccO_412030</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="D625" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="E625" s="6" t="s">
+        <v>5249</v>
+      </c>
+      <c r="F625" s="6" t="s">
         <v>5250</v>
-      </c>
-      <c r="F625" s="6" t="s">
-        <v>5251</v>
       </c>
     </row>
     <row r="626" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34351,16 +34357,16 @@
         <v>OccO_413010</v>
       </c>
       <c r="C626" s="5" t="s">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="D626" s="7" t="s">
         <v>1083</v>
       </c>
       <c r="E626" s="6" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F626" s="6" t="s">
         <v>5253</v>
-      </c>
-      <c r="F626" s="6" t="s">
-        <v>5254</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34373,16 +34379,16 @@
         <v>OccO_413020</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="D627" s="7" t="s">
         <v>1082</v>
       </c>
       <c r="E627" s="6" t="s">
+        <v>5255</v>
+      </c>
+      <c r="F627" s="6" t="s">
         <v>5256</v>
-      </c>
-      <c r="F627" s="6" t="s">
-        <v>5257</v>
       </c>
     </row>
     <row r="628" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34395,16 +34401,16 @@
         <v>OccO_413030</v>
       </c>
       <c r="C628" s="5" t="s">
+        <v>5257</v>
+      </c>
+      <c r="D628" s="7" t="s">
+        <v>5259</v>
+      </c>
+      <c r="E628" s="6" t="s">
         <v>5258</v>
       </c>
-      <c r="D628" s="7" t="s">
+      <c r="F628" s="6" t="s">
         <v>5260</v>
-      </c>
-      <c r="E628" s="6" t="s">
-        <v>5259</v>
-      </c>
-      <c r="F628" s="6" t="s">
-        <v>5261</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34417,16 +34423,16 @@
         <v>OccO_413040</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>5262</v>
+        <v>5261</v>
       </c>
       <c r="D629" s="7" t="s">
         <v>1080</v>
       </c>
       <c r="E629" s="6" t="s">
+        <v>5262</v>
+      </c>
+      <c r="F629" s="6" t="s">
         <v>5263</v>
-      </c>
-      <c r="F629" s="6" t="s">
-        <v>5264</v>
       </c>
     </row>
     <row r="630" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34439,16 +34445,16 @@
         <v>OccO_413090</v>
       </c>
       <c r="C630" s="5" t="s">
+        <v>5264</v>
+      </c>
+      <c r="D630" s="7" t="s">
+        <v>5266</v>
+      </c>
+      <c r="E630" s="6" t="s">
         <v>5265</v>
       </c>
-      <c r="D630" s="7" t="s">
+      <c r="F630" s="6" t="s">
         <v>5267</v>
-      </c>
-      <c r="E630" s="6" t="s">
-        <v>5266</v>
-      </c>
-      <c r="F630" s="6" t="s">
-        <v>5268</v>
       </c>
     </row>
     <row r="631" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34461,16 +34467,16 @@
         <v>OccO_414010</v>
       </c>
       <c r="C631" s="5" t="s">
+        <v>5268</v>
+      </c>
+      <c r="D631" s="7" t="s">
+        <v>5270</v>
+      </c>
+      <c r="E631" s="6" t="s">
         <v>5269</v>
       </c>
-      <c r="D631" s="7" t="s">
+      <c r="F631" s="6" t="s">
         <v>5271</v>
-      </c>
-      <c r="E631" s="6" t="s">
-        <v>5270</v>
-      </c>
-      <c r="F631" s="6" t="s">
-        <v>5272</v>
       </c>
     </row>
     <row r="632" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34483,16 +34489,16 @@
         <v>OccO_414010</v>
       </c>
       <c r="C632" s="5" t="s">
+        <v>5272</v>
+      </c>
+      <c r="D632" s="7" t="s">
+        <v>5274</v>
+      </c>
+      <c r="E632" s="6" t="s">
         <v>5273</v>
       </c>
-      <c r="D632" s="7" t="s">
+      <c r="F632" s="6" t="s">
         <v>5275</v>
-      </c>
-      <c r="E632" s="6" t="s">
-        <v>5274</v>
-      </c>
-      <c r="F632" s="6" t="s">
-        <v>5276</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34505,16 +34511,16 @@
         <v>OccO_414010</v>
       </c>
       <c r="C633" s="5" t="s">
+        <v>5276</v>
+      </c>
+      <c r="D633" s="7" t="s">
+        <v>5278</v>
+      </c>
+      <c r="E633" s="6" t="s">
         <v>5277</v>
       </c>
-      <c r="D633" s="7" t="s">
+      <c r="F633" s="6" t="s">
         <v>5279</v>
-      </c>
-      <c r="E633" s="6" t="s">
-        <v>5278</v>
-      </c>
-      <c r="F633" s="6" t="s">
-        <v>5280</v>
       </c>
     </row>
     <row r="634" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34527,16 +34533,16 @@
         <v>OccO_419010</v>
       </c>
       <c r="C634" s="5" t="s">
+        <v>5280</v>
+      </c>
+      <c r="D634" s="7" t="s">
+        <v>5282</v>
+      </c>
+      <c r="E634" s="6" t="s">
         <v>5281</v>
       </c>
-      <c r="D634" s="7" t="s">
+      <c r="F634" s="6" t="s">
         <v>5283</v>
-      </c>
-      <c r="E634" s="6" t="s">
-        <v>5282</v>
-      </c>
-      <c r="F634" s="6" t="s">
-        <v>5284</v>
       </c>
     </row>
     <row r="635" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34549,16 +34555,16 @@
         <v>OccO_419010</v>
       </c>
       <c r="C635" s="5" t="s">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="D635" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="E635" s="6" t="s">
+        <v>5285</v>
+      </c>
+      <c r="F635" s="6" t="s">
         <v>5286</v>
-      </c>
-      <c r="F635" s="6" t="s">
-        <v>5287</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34571,16 +34577,16 @@
         <v>OccO_419020</v>
       </c>
       <c r="C636" s="5" t="s">
-        <v>5288</v>
+        <v>5287</v>
       </c>
       <c r="D636" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="E636" s="6" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F636" s="6" t="s">
         <v>5289</v>
-      </c>
-      <c r="F636" s="6" t="s">
-        <v>5290</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34593,16 +34599,16 @@
         <v>OccO_419020</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>5291</v>
+        <v>5290</v>
       </c>
       <c r="D637" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="E637" s="6" t="s">
+        <v>5291</v>
+      </c>
+      <c r="F637" s="6" t="s">
         <v>5292</v>
-      </c>
-      <c r="F637" s="6" t="s">
-        <v>5293</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34615,16 +34621,16 @@
         <v>OccO_419030</v>
       </c>
       <c r="C638" s="5" t="s">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="D638" s="7" t="s">
         <v>1075</v>
       </c>
       <c r="E638" s="6" t="s">
+        <v>5294</v>
+      </c>
+      <c r="F638" s="6" t="s">
         <v>5295</v>
-      </c>
-      <c r="F638" s="6" t="s">
-        <v>5296</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -34637,16 +34643,16 @@
         <v>OccO_419040</v>
       </c>
       <c r="C639" s="5" t="s">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="D639" s="7" t="s">
         <v>1074</v>
       </c>
       <c r="E639" s="6" t="s">
+        <v>5297</v>
+      </c>
+      <c r="F639" s="6" t="s">
         <v>5298</v>
-      </c>
-      <c r="F639" s="6" t="s">
-        <v>5299</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34659,16 +34665,16 @@
         <v>OccO_419090</v>
       </c>
       <c r="C640" s="5" t="s">
+        <v>5299</v>
+      </c>
+      <c r="D640" s="7" t="s">
+        <v>5301</v>
+      </c>
+      <c r="E640" s="6" t="s">
         <v>5300</v>
       </c>
-      <c r="D640" s="7" t="s">
+      <c r="F640" s="6" t="s">
         <v>5302</v>
-      </c>
-      <c r="E640" s="6" t="s">
-        <v>5301</v>
-      </c>
-      <c r="F640" s="6" t="s">
-        <v>5303</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -34681,16 +34687,16 @@
         <v>OccO_419090</v>
       </c>
       <c r="C641" s="5" t="s">
+        <v>5303</v>
+      </c>
+      <c r="D641" s="7" t="s">
+        <v>5305</v>
+      </c>
+      <c r="E641" s="6" t="s">
         <v>5304</v>
       </c>
-      <c r="D641" s="7" t="s">
+      <c r="F641" s="6" t="s">
         <v>5306</v>
-      </c>
-      <c r="E641" s="6" t="s">
-        <v>5305</v>
-      </c>
-      <c r="F641" s="6" t="s">
-        <v>5307</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34703,16 +34709,16 @@
         <v>OccO_431010</v>
       </c>
       <c r="C642" s="5" t="s">
+        <v>5307</v>
+      </c>
+      <c r="D642" s="7" t="s">
+        <v>5309</v>
+      </c>
+      <c r="E642" s="6" t="s">
         <v>5308</v>
       </c>
-      <c r="D642" s="7" t="s">
+      <c r="F642" s="6" t="s">
         <v>5310</v>
-      </c>
-      <c r="E642" s="6" t="s">
-        <v>5309</v>
-      </c>
-      <c r="F642" s="6" t="s">
-        <v>5311</v>
       </c>
     </row>
     <row r="643" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34725,16 +34731,16 @@
         <v>OccO_432010</v>
       </c>
       <c r="C643" s="5" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="D643" s="7" t="s">
         <v>1422</v>
       </c>
       <c r="E643" s="6" t="s">
+        <v>5312</v>
+      </c>
+      <c r="F643" s="6" t="s">
         <v>5313</v>
-      </c>
-      <c r="F643" s="6" t="s">
-        <v>5314</v>
       </c>
     </row>
     <row r="644" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34747,16 +34753,16 @@
         <v>OccO_432020</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="D644" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="E644" s="6" t="s">
+        <v>5315</v>
+      </c>
+      <c r="F644" s="6" t="s">
         <v>5316</v>
-      </c>
-      <c r="F644" s="6" t="s">
-        <v>5317</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -34769,16 +34775,16 @@
         <v>OccO_432090</v>
       </c>
       <c r="C645" s="5" t="s">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="D645" s="7" t="s">
         <v>1421</v>
       </c>
       <c r="E645" s="6" t="s">
+        <v>5318</v>
+      </c>
+      <c r="F645" s="6" t="s">
         <v>5319</v>
-      </c>
-      <c r="F645" s="6" t="s">
-        <v>5320</v>
       </c>
     </row>
     <row r="646" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34791,16 +34797,16 @@
         <v>OccO_433010</v>
       </c>
       <c r="C646" s="5" t="s">
+        <v>5320</v>
+      </c>
+      <c r="D646" s="7" t="s">
+        <v>5322</v>
+      </c>
+      <c r="E646" s="6" t="s">
         <v>5321</v>
       </c>
-      <c r="D646" s="7" t="s">
+      <c r="F646" s="6" t="s">
         <v>5323</v>
-      </c>
-      <c r="E646" s="6" t="s">
-        <v>5322</v>
-      </c>
-      <c r="F646" s="6" t="s">
-        <v>5324</v>
       </c>
     </row>
     <row r="647" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34813,16 +34819,16 @@
         <v>OccO_433020</v>
       </c>
       <c r="C647" s="5" t="s">
+        <v>5324</v>
+      </c>
+      <c r="D647" s="7" t="s">
+        <v>5326</v>
+      </c>
+      <c r="E647" s="6" t="s">
         <v>5325</v>
       </c>
-      <c r="D647" s="7" t="s">
+      <c r="F647" s="6" t="s">
         <v>5327</v>
-      </c>
-      <c r="E647" s="6" t="s">
-        <v>5326</v>
-      </c>
-      <c r="F647" s="6" t="s">
-        <v>5328</v>
       </c>
     </row>
     <row r="648" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34835,16 +34841,16 @@
         <v>OccO_433030</v>
       </c>
       <c r="C648" s="5" t="s">
+        <v>5328</v>
+      </c>
+      <c r="D648" s="7" t="s">
+        <v>5330</v>
+      </c>
+      <c r="E648" s="6" t="s">
         <v>5329</v>
       </c>
-      <c r="D648" s="7" t="s">
+      <c r="F648" s="6" t="s">
         <v>5331</v>
-      </c>
-      <c r="E648" s="6" t="s">
-        <v>5330</v>
-      </c>
-      <c r="F648" s="6" t="s">
-        <v>5332</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -34857,16 +34863,16 @@
         <v>OccO_433040</v>
       </c>
       <c r="C649" s="5" t="s">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="D649" s="7" t="s">
         <v>1069</v>
       </c>
       <c r="E649" s="6" t="s">
+        <v>5333</v>
+      </c>
+      <c r="F649" s="6" t="s">
         <v>5334</v>
-      </c>
-      <c r="F649" s="6" t="s">
-        <v>5335</v>
       </c>
     </row>
     <row r="650" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34879,16 +34885,16 @@
         <v>OccO_433050</v>
       </c>
       <c r="C650" s="5" t="s">
+        <v>5335</v>
+      </c>
+      <c r="D650" s="7" t="s">
+        <v>5337</v>
+      </c>
+      <c r="E650" s="6" t="s">
         <v>5336</v>
       </c>
-      <c r="D650" s="7" t="s">
+      <c r="F650" s="6" t="s">
         <v>5338</v>
-      </c>
-      <c r="E650" s="6" t="s">
-        <v>5337</v>
-      </c>
-      <c r="F650" s="6" t="s">
-        <v>5339</v>
       </c>
     </row>
     <row r="651" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34901,16 +34907,16 @@
         <v>OccO_433060</v>
       </c>
       <c r="C651" s="5" t="s">
-        <v>5340</v>
+        <v>5339</v>
       </c>
       <c r="D651" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="E651" s="6" t="s">
+        <v>5340</v>
+      </c>
+      <c r="F651" s="6" t="s">
         <v>5341</v>
-      </c>
-      <c r="F651" s="6" t="s">
-        <v>5342</v>
       </c>
     </row>
     <row r="652" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -34923,16 +34929,16 @@
         <v>OccO_433070</v>
       </c>
       <c r="C652" s="5" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="D652" s="7" t="s">
         <v>1066</v>
       </c>
       <c r="E652" s="6" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F652" s="6" t="s">
         <v>5344</v>
-      </c>
-      <c r="F652" s="6" t="s">
-        <v>5345</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -34945,16 +34951,16 @@
         <v>OccO_433090</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="D653" s="7" t="s">
         <v>1545</v>
       </c>
       <c r="E653" s="6" t="s">
+        <v>5346</v>
+      </c>
+      <c r="F653" s="6" t="s">
         <v>5347</v>
-      </c>
-      <c r="F653" s="6" t="s">
-        <v>5348</v>
       </c>
     </row>
     <row r="654" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -34967,16 +34973,16 @@
         <v>OccO_434010</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>5349</v>
+        <v>5348</v>
       </c>
       <c r="D654" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="E654" s="6" t="s">
+        <v>5349</v>
+      </c>
+      <c r="F654" s="6" t="s">
         <v>5350</v>
-      </c>
-      <c r="F654" s="6" t="s">
-        <v>5351</v>
       </c>
     </row>
     <row r="655" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -34989,16 +34995,16 @@
         <v>OccO_434020</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="D655" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="E655" s="6" t="s">
+        <v>5352</v>
+      </c>
+      <c r="F655" s="6" t="s">
         <v>5353</v>
-      </c>
-      <c r="F655" s="6" t="s">
-        <v>5354</v>
       </c>
     </row>
     <row r="656" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -35011,16 +35017,16 @@
         <v>OccO_434030</v>
       </c>
       <c r="C656" s="5" t="s">
+        <v>5354</v>
+      </c>
+      <c r="D656" s="7" t="s">
+        <v>5356</v>
+      </c>
+      <c r="E656" s="6" t="s">
         <v>5355</v>
       </c>
-      <c r="D656" s="7" t="s">
+      <c r="F656" s="6" t="s">
         <v>5357</v>
-      </c>
-      <c r="E656" s="6" t="s">
-        <v>5356</v>
-      </c>
-      <c r="F656" s="6" t="s">
-        <v>5358</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35033,16 +35039,16 @@
         <v>OccO_434040</v>
       </c>
       <c r="C657" s="5" t="s">
+        <v>5358</v>
+      </c>
+      <c r="D657" s="7" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E657" s="6" t="s">
         <v>5359</v>
       </c>
-      <c r="D657" s="7" t="s">
+      <c r="F657" s="6" t="s">
         <v>5361</v>
-      </c>
-      <c r="E657" s="6" t="s">
-        <v>5360</v>
-      </c>
-      <c r="F657" s="6" t="s">
-        <v>5362</v>
       </c>
     </row>
     <row r="658" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35055,16 +35061,16 @@
         <v>OccO_434050</v>
       </c>
       <c r="C658" s="5" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="D658" s="7" t="s">
         <v>1062</v>
       </c>
       <c r="E658" s="6" t="s">
+        <v>5363</v>
+      </c>
+      <c r="F658" s="6" t="s">
         <v>5364</v>
-      </c>
-      <c r="F658" s="6" t="s">
-        <v>5365</v>
       </c>
     </row>
     <row r="659" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35077,16 +35083,16 @@
         <v>OccO_434060</v>
       </c>
       <c r="C659" s="5" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="D659" s="7" t="s">
         <v>1543</v>
       </c>
       <c r="E659" s="6" t="s">
+        <v>5366</v>
+      </c>
+      <c r="F659" s="6" t="s">
         <v>5367</v>
-      </c>
-      <c r="F659" s="6" t="s">
-        <v>5368</v>
       </c>
     </row>
     <row r="660" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35099,16 +35105,16 @@
         <v>OccO_434070</v>
       </c>
       <c r="C660" s="5" t="s">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="D660" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="E660" s="6" t="s">
+        <v>5369</v>
+      </c>
+      <c r="F660" s="6" t="s">
         <v>5370</v>
-      </c>
-      <c r="F660" s="6" t="s">
-        <v>5371</v>
       </c>
     </row>
     <row r="661" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35121,16 +35127,16 @@
         <v>OccO_434080</v>
       </c>
       <c r="C661" s="5" t="s">
+        <v>5371</v>
+      </c>
+      <c r="D661" s="7" t="s">
+        <v>5373</v>
+      </c>
+      <c r="E661" s="6" t="s">
         <v>5372</v>
       </c>
-      <c r="D661" s="7" t="s">
+      <c r="F661" s="6" t="s">
         <v>5374</v>
-      </c>
-      <c r="E661" s="6" t="s">
-        <v>5373</v>
-      </c>
-      <c r="F661" s="6" t="s">
-        <v>5375</v>
       </c>
     </row>
     <row r="662" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35143,16 +35149,16 @@
         <v>OccO_434110</v>
       </c>
       <c r="C662" s="5" t="s">
+        <v>5375</v>
+      </c>
+      <c r="D662" s="7" t="s">
+        <v>5377</v>
+      </c>
+      <c r="E662" s="6" t="s">
         <v>5376</v>
       </c>
-      <c r="D662" s="7" t="s">
+      <c r="F662" s="6" t="s">
         <v>5378</v>
-      </c>
-      <c r="E662" s="6" t="s">
-        <v>5377</v>
-      </c>
-      <c r="F662" s="6" t="s">
-        <v>5379</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35165,16 +35171,16 @@
         <v>OccO_434120</v>
       </c>
       <c r="C663" s="5" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="D663" s="7" t="s">
         <v>1541</v>
       </c>
       <c r="E663" s="6" t="s">
+        <v>5380</v>
+      </c>
+      <c r="F663" s="6" t="s">
         <v>5381</v>
-      </c>
-      <c r="F663" s="6" t="s">
-        <v>5382</v>
       </c>
     </row>
     <row r="664" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35187,16 +35193,16 @@
         <v>OccO_434130</v>
       </c>
       <c r="C664" s="5" t="s">
+        <v>5382</v>
+      </c>
+      <c r="D664" s="7" t="s">
+        <v>5384</v>
+      </c>
+      <c r="E664" s="6" t="s">
         <v>5383</v>
       </c>
-      <c r="D664" s="7" t="s">
+      <c r="F664" s="6" t="s">
         <v>5385</v>
-      </c>
-      <c r="E664" s="6" t="s">
-        <v>5384</v>
-      </c>
-      <c r="F664" s="6" t="s">
-        <v>5386</v>
       </c>
     </row>
     <row r="665" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35209,16 +35215,16 @@
         <v>OccO_434140</v>
       </c>
       <c r="C665" s="5" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="D665" s="7" t="s">
         <v>1058</v>
       </c>
       <c r="E665" s="6" t="s">
+        <v>5387</v>
+      </c>
+      <c r="F665" s="6" t="s">
         <v>5388</v>
-      </c>
-      <c r="F665" s="6" t="s">
-        <v>5389</v>
       </c>
     </row>
     <row r="666" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35231,16 +35237,16 @@
         <v>OccO_434150</v>
       </c>
       <c r="C666" s="5" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="D666" s="7" t="s">
         <v>1057</v>
       </c>
       <c r="E666" s="6" t="s">
+        <v>5390</v>
+      </c>
+      <c r="F666" s="6" t="s">
         <v>5391</v>
-      </c>
-      <c r="F666" s="6" t="s">
-        <v>5392</v>
       </c>
     </row>
     <row r="667" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35253,16 +35259,16 @@
         <v>OccO_434160</v>
       </c>
       <c r="C667" s="5" t="s">
+        <v>5392</v>
+      </c>
+      <c r="D667" s="7" t="s">
+        <v>5394</v>
+      </c>
+      <c r="E667" s="6" t="s">
         <v>5393</v>
       </c>
-      <c r="D667" s="7" t="s">
+      <c r="F667" s="6" t="s">
         <v>5395</v>
-      </c>
-      <c r="E667" s="6" t="s">
-        <v>5394</v>
-      </c>
-      <c r="F667" s="6" t="s">
-        <v>5396</v>
       </c>
     </row>
     <row r="668" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35275,16 +35281,16 @@
         <v>OccO_434170</v>
       </c>
       <c r="C668" s="5" t="s">
+        <v>5396</v>
+      </c>
+      <c r="D668" s="7" t="s">
+        <v>5398</v>
+      </c>
+      <c r="E668" s="6" t="s">
         <v>5397</v>
       </c>
-      <c r="D668" s="7" t="s">
+      <c r="F668" s="6" t="s">
         <v>5399</v>
-      </c>
-      <c r="E668" s="6" t="s">
-        <v>5398</v>
-      </c>
-      <c r="F668" s="6" t="s">
-        <v>5400</v>
       </c>
     </row>
     <row r="669" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35297,16 +35303,16 @@
         <v>OccO_434180</v>
       </c>
       <c r="C669" s="5" t="s">
+        <v>5400</v>
+      </c>
+      <c r="D669" s="7" t="s">
+        <v>5402</v>
+      </c>
+      <c r="E669" s="6" t="s">
         <v>5401</v>
       </c>
-      <c r="D669" s="7" t="s">
+      <c r="F669" s="6" t="s">
         <v>5403</v>
-      </c>
-      <c r="E669" s="6" t="s">
-        <v>5402</v>
-      </c>
-      <c r="F669" s="6" t="s">
-        <v>5404</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -35319,16 +35325,16 @@
         <v>OccO_434190</v>
       </c>
       <c r="C670" s="5" t="s">
+        <v>5404</v>
+      </c>
+      <c r="D670" s="7" t="s">
+        <v>5406</v>
+      </c>
+      <c r="E670" s="6" t="s">
         <v>5405</v>
       </c>
-      <c r="D670" s="7" t="s">
+      <c r="F670" s="6" t="s">
         <v>5407</v>
-      </c>
-      <c r="E670" s="6" t="s">
-        <v>5406</v>
-      </c>
-      <c r="F670" s="6" t="s">
-        <v>5408</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35341,16 +35347,16 @@
         <v>OccO_435010</v>
       </c>
       <c r="C671" s="5" t="s">
+        <v>5408</v>
+      </c>
+      <c r="D671" s="7" t="s">
+        <v>5410</v>
+      </c>
+      <c r="E671" s="6" t="s">
         <v>5409</v>
       </c>
-      <c r="D671" s="7" t="s">
+      <c r="F671" s="6" t="s">
         <v>5411</v>
-      </c>
-      <c r="E671" s="6" t="s">
-        <v>5410</v>
-      </c>
-      <c r="F671" s="6" t="s">
-        <v>5412</v>
       </c>
     </row>
     <row r="672" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35363,16 +35369,16 @@
         <v>OccO_435010</v>
       </c>
       <c r="C672" s="5" t="s">
+        <v>5412</v>
+      </c>
+      <c r="D672" s="7" t="s">
+        <v>5414</v>
+      </c>
+      <c r="E672" s="6" t="s">
         <v>5413</v>
       </c>
-      <c r="D672" s="7" t="s">
+      <c r="F672" s="6" t="s">
         <v>5415</v>
-      </c>
-      <c r="E672" s="6" t="s">
-        <v>5414</v>
-      </c>
-      <c r="F672" s="6" t="s">
-        <v>5416</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35385,16 +35391,16 @@
         <v>OccO_435020</v>
       </c>
       <c r="C673" s="5" t="s">
+        <v>5416</v>
+      </c>
+      <c r="D673" s="7" t="s">
+        <v>5418</v>
+      </c>
+      <c r="E673" s="6" t="s">
         <v>5417</v>
       </c>
-      <c r="D673" s="7" t="s">
+      <c r="F673" s="6" t="s">
         <v>5419</v>
-      </c>
-      <c r="E673" s="6" t="s">
-        <v>5418</v>
-      </c>
-      <c r="F673" s="6" t="s">
-        <v>5420</v>
       </c>
     </row>
     <row r="674" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -35407,16 +35413,16 @@
         <v>OccO_435030</v>
       </c>
       <c r="C674" s="5" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="D674" s="7" t="s">
         <v>1052</v>
       </c>
       <c r="E674" s="6" t="s">
+        <v>5421</v>
+      </c>
+      <c r="F674" s="6" t="s">
         <v>5422</v>
-      </c>
-      <c r="F674" s="6" t="s">
-        <v>5423</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35429,16 +35435,16 @@
         <v>OccO_435030</v>
       </c>
       <c r="C675" s="5" t="s">
+        <v>5423</v>
+      </c>
+      <c r="D675" s="7" t="s">
+        <v>5425</v>
+      </c>
+      <c r="E675" s="6" t="s">
         <v>5424</v>
       </c>
-      <c r="D675" s="7" t="s">
+      <c r="F675" s="6" t="s">
         <v>5426</v>
-      </c>
-      <c r="E675" s="6" t="s">
-        <v>5425</v>
-      </c>
-      <c r="F675" s="6" t="s">
-        <v>5427</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -35451,16 +35457,16 @@
         <v>OccO_435040</v>
       </c>
       <c r="C676" s="5" t="s">
+        <v>5427</v>
+      </c>
+      <c r="D676" s="7" t="s">
+        <v>5429</v>
+      </c>
+      <c r="E676" s="6" t="s">
         <v>5428</v>
       </c>
-      <c r="D676" s="7" t="s">
+      <c r="F676" s="6" t="s">
         <v>5430</v>
-      </c>
-      <c r="E676" s="6" t="s">
-        <v>5429</v>
-      </c>
-      <c r="F676" s="6" t="s">
-        <v>5431</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35473,16 +35479,16 @@
         <v>OccO_435050</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>5432</v>
+        <v>5431</v>
       </c>
       <c r="D677" s="7" t="s">
         <v>1051</v>
       </c>
       <c r="E677" s="6" t="s">
+        <v>5432</v>
+      </c>
+      <c r="F677" s="6" t="s">
         <v>5433</v>
-      </c>
-      <c r="F677" s="6" t="s">
-        <v>5434</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35495,16 +35501,16 @@
         <v>OccO_435050</v>
       </c>
       <c r="C678" s="5" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
       <c r="D678" s="7" t="s">
         <v>1050</v>
       </c>
       <c r="E678" s="6" t="s">
+        <v>5435</v>
+      </c>
+      <c r="F678" s="6" t="s">
         <v>5436</v>
-      </c>
-      <c r="F678" s="6" t="s">
-        <v>5437</v>
       </c>
     </row>
     <row r="679" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -35517,16 +35523,16 @@
         <v>OccO_435050</v>
       </c>
       <c r="C679" s="5" t="s">
+        <v>5437</v>
+      </c>
+      <c r="D679" s="7" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E679" s="6" t="s">
         <v>5438</v>
       </c>
-      <c r="D679" s="7" t="s">
+      <c r="F679" s="6" t="s">
         <v>5440</v>
-      </c>
-      <c r="E679" s="6" t="s">
-        <v>5439</v>
-      </c>
-      <c r="F679" s="6" t="s">
-        <v>5441</v>
       </c>
     </row>
     <row r="680" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -35539,16 +35545,16 @@
         <v>OccO_435060</v>
       </c>
       <c r="C680" s="5" t="s">
+        <v>5441</v>
+      </c>
+      <c r="D680" s="7" t="s">
+        <v>5443</v>
+      </c>
+      <c r="E680" s="6" t="s">
         <v>5442</v>
       </c>
-      <c r="D680" s="7" t="s">
+      <c r="F680" s="6" t="s">
         <v>5444</v>
-      </c>
-      <c r="E680" s="6" t="s">
-        <v>5443</v>
-      </c>
-      <c r="F680" s="6" t="s">
-        <v>5445</v>
       </c>
     </row>
     <row r="681" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35561,16 +35567,16 @@
         <v>OccO_435070</v>
       </c>
       <c r="C681" s="5" t="s">
+        <v>5445</v>
+      </c>
+      <c r="D681" s="7" t="s">
+        <v>5447</v>
+      </c>
+      <c r="E681" s="6" t="s">
         <v>5446</v>
       </c>
-      <c r="D681" s="7" t="s">
+      <c r="F681" s="6" t="s">
         <v>5448</v>
-      </c>
-      <c r="E681" s="6" t="s">
-        <v>5447</v>
-      </c>
-      <c r="F681" s="6" t="s">
-        <v>5449</v>
       </c>
     </row>
     <row r="682" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35583,16 +35589,16 @@
         <v>OccO_435110</v>
       </c>
       <c r="C682" s="5" t="s">
+        <v>5449</v>
+      </c>
+      <c r="D682" s="7" t="s">
+        <v>5451</v>
+      </c>
+      <c r="E682" s="6" t="s">
         <v>5450</v>
       </c>
-      <c r="D682" s="7" t="s">
+      <c r="F682" s="6" t="s">
         <v>5452</v>
-      </c>
-      <c r="E682" s="6" t="s">
-        <v>5451</v>
-      </c>
-      <c r="F682" s="6" t="s">
-        <v>5453</v>
       </c>
     </row>
     <row r="683" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -35605,16 +35611,16 @@
         <v>OccO_436010</v>
       </c>
       <c r="C683" s="5" t="s">
+        <v>5453</v>
+      </c>
+      <c r="D683" s="7" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E683" s="6" t="s">
         <v>5454</v>
       </c>
-      <c r="D683" s="7" t="s">
+      <c r="F683" s="6" t="s">
         <v>5456</v>
-      </c>
-      <c r="E683" s="6" t="s">
-        <v>5455</v>
-      </c>
-      <c r="F683" s="6" t="s">
-        <v>5457</v>
       </c>
     </row>
     <row r="684" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35627,16 +35633,16 @@
         <v>OccO_436010</v>
       </c>
       <c r="C684" s="5" t="s">
+        <v>5457</v>
+      </c>
+      <c r="D684" s="7" t="s">
+        <v>5459</v>
+      </c>
+      <c r="E684" s="6" t="s">
         <v>5458</v>
       </c>
-      <c r="D684" s="7" t="s">
+      <c r="F684" s="6" t="s">
         <v>5460</v>
-      </c>
-      <c r="E684" s="6" t="s">
-        <v>5459</v>
-      </c>
-      <c r="F684" s="6" t="s">
-        <v>5461</v>
       </c>
     </row>
     <row r="685" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35649,16 +35655,16 @@
         <v>OccO_436010</v>
       </c>
       <c r="C685" s="5" t="s">
+        <v>5461</v>
+      </c>
+      <c r="D685" s="7" t="s">
+        <v>5463</v>
+      </c>
+      <c r="E685" s="6" t="s">
         <v>5462</v>
       </c>
-      <c r="D685" s="7" t="s">
+      <c r="F685" s="6" t="s">
         <v>5464</v>
-      </c>
-      <c r="E685" s="6" t="s">
-        <v>5463</v>
-      </c>
-      <c r="F685" s="6" t="s">
-        <v>5465</v>
       </c>
     </row>
     <row r="686" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35671,16 +35677,16 @@
         <v>OccO_436010</v>
       </c>
       <c r="C686" s="5" t="s">
+        <v>5465</v>
+      </c>
+      <c r="D686" s="7" t="s">
+        <v>5467</v>
+      </c>
+      <c r="E686" s="6" t="s">
         <v>5466</v>
       </c>
-      <c r="D686" s="7" t="s">
+      <c r="F686" s="6" t="s">
         <v>5468</v>
-      </c>
-      <c r="E686" s="6" t="s">
-        <v>5467</v>
-      </c>
-      <c r="F686" s="6" t="s">
-        <v>5469</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35693,16 +35699,16 @@
         <v>OccO_439020</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
       <c r="D687" s="7" t="s">
         <v>1044</v>
       </c>
       <c r="E687" s="6" t="s">
+        <v>5470</v>
+      </c>
+      <c r="F687" s="6" t="s">
         <v>5471</v>
-      </c>
-      <c r="F687" s="6" t="s">
-        <v>5472</v>
       </c>
     </row>
     <row r="688" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35715,16 +35721,16 @@
         <v>OccO_439020</v>
       </c>
       <c r="C688" s="5" t="s">
+        <v>5472</v>
+      </c>
+      <c r="D688" s="7" t="s">
+        <v>5474</v>
+      </c>
+      <c r="E688" s="6" t="s">
         <v>5473</v>
       </c>
-      <c r="D688" s="7" t="s">
+      <c r="F688" s="6" t="s">
         <v>5475</v>
-      </c>
-      <c r="E688" s="6" t="s">
-        <v>5474</v>
-      </c>
-      <c r="F688" s="6" t="s">
-        <v>5476</v>
       </c>
     </row>
     <row r="689" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35737,16 +35743,16 @@
         <v>OccO_439030</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="D689" s="7" t="s">
         <v>1042</v>
       </c>
       <c r="E689" s="6" t="s">
+        <v>5477</v>
+      </c>
+      <c r="F689" s="6" t="s">
         <v>5478</v>
-      </c>
-      <c r="F689" s="6" t="s">
-        <v>5479</v>
       </c>
     </row>
     <row r="690" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -35759,16 +35765,16 @@
         <v>OccO_439040</v>
       </c>
       <c r="C690" s="5" t="s">
+        <v>5479</v>
+      </c>
+      <c r="D690" s="7" t="s">
+        <v>5481</v>
+      </c>
+      <c r="E690" s="6" t="s">
         <v>5480</v>
       </c>
-      <c r="D690" s="7" t="s">
+      <c r="F690" s="6" t="s">
         <v>5482</v>
-      </c>
-      <c r="E690" s="6" t="s">
-        <v>5481</v>
-      </c>
-      <c r="F690" s="6" t="s">
-        <v>5483</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35781,16 +35787,16 @@
         <v>OccO_439050</v>
       </c>
       <c r="C691" s="5" t="s">
+        <v>5483</v>
+      </c>
+      <c r="D691" s="7" t="s">
+        <v>5485</v>
+      </c>
+      <c r="E691" s="6" t="s">
         <v>5484</v>
       </c>
-      <c r="D691" s="7" t="s">
+      <c r="F691" s="6" t="s">
         <v>5486</v>
-      </c>
-      <c r="E691" s="6" t="s">
-        <v>5485</v>
-      </c>
-      <c r="F691" s="6" t="s">
-        <v>5487</v>
       </c>
     </row>
     <row r="692" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -35803,16 +35809,16 @@
         <v>OccO_439060</v>
       </c>
       <c r="C692" s="5" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="D692" s="7" t="s">
         <v>1533</v>
       </c>
       <c r="E692" s="6" t="s">
+        <v>5488</v>
+      </c>
+      <c r="F692" s="6" t="s">
         <v>5489</v>
-      </c>
-      <c r="F692" s="6" t="s">
-        <v>5490</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35825,16 +35831,16 @@
         <v>OccO_439070</v>
       </c>
       <c r="C693" s="5" t="s">
-        <v>5491</v>
+        <v>5490</v>
       </c>
       <c r="D693" s="7" t="s">
         <v>1419</v>
       </c>
       <c r="E693" s="6" t="s">
+        <v>5491</v>
+      </c>
+      <c r="F693" s="6" t="s">
         <v>5492</v>
-      </c>
-      <c r="F693" s="6" t="s">
-        <v>5493</v>
       </c>
     </row>
     <row r="694" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35847,16 +35853,16 @@
         <v>OccO_439080</v>
       </c>
       <c r="C694" s="5" t="s">
+        <v>5493</v>
+      </c>
+      <c r="D694" s="7" t="s">
+        <v>5495</v>
+      </c>
+      <c r="E694" s="6" t="s">
         <v>5494</v>
       </c>
-      <c r="D694" s="7" t="s">
+      <c r="F694" s="6" t="s">
         <v>5496</v>
-      </c>
-      <c r="E694" s="6" t="s">
-        <v>5495</v>
-      </c>
-      <c r="F694" s="6" t="s">
-        <v>5497</v>
       </c>
     </row>
     <row r="695" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35869,16 +35875,16 @@
         <v>OccO_439110</v>
       </c>
       <c r="C695" s="5" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="D695" s="7" t="s">
         <v>1039</v>
       </c>
       <c r="E695" s="6" t="s">
+        <v>5498</v>
+      </c>
+      <c r="F695" s="6" t="s">
         <v>5499</v>
-      </c>
-      <c r="F695" s="6" t="s">
-        <v>5500</v>
       </c>
     </row>
     <row r="696" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35891,16 +35897,16 @@
         <v>OccO_439190</v>
       </c>
       <c r="C696" s="5" t="s">
+        <v>5500</v>
+      </c>
+      <c r="D696" s="7" t="s">
+        <v>5502</v>
+      </c>
+      <c r="E696" s="6" t="s">
         <v>5501</v>
       </c>
-      <c r="D696" s="7" t="s">
+      <c r="F696" s="6" t="s">
         <v>5503</v>
-      </c>
-      <c r="E696" s="6" t="s">
-        <v>5502</v>
-      </c>
-      <c r="F696" s="6" t="s">
-        <v>5504</v>
       </c>
     </row>
     <row r="697" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35913,16 +35919,16 @@
         <v>OccO_451010</v>
       </c>
       <c r="C697" s="5" t="s">
+        <v>5504</v>
+      </c>
+      <c r="D697" s="7" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E697" s="6" t="s">
         <v>5505</v>
       </c>
-      <c r="D697" s="7" t="s">
+      <c r="F697" s="6" t="s">
         <v>5507</v>
-      </c>
-      <c r="E697" s="6" t="s">
-        <v>5506</v>
-      </c>
-      <c r="F697" s="6" t="s">
-        <v>5508</v>
       </c>
     </row>
     <row r="698" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35935,16 +35941,16 @@
         <v>OccO_452010</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="D698" s="7" t="s">
         <v>1038</v>
       </c>
       <c r="E698" s="6" t="s">
+        <v>5509</v>
+      </c>
+      <c r="F698" s="6" t="s">
         <v>5510</v>
-      </c>
-      <c r="F698" s="6" t="s">
-        <v>5511</v>
       </c>
     </row>
     <row r="699" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -35957,16 +35963,16 @@
         <v>OccO_452020</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
       <c r="D699" s="7" t="s">
         <v>1037</v>
       </c>
       <c r="E699" s="6" t="s">
+        <v>5512</v>
+      </c>
+      <c r="F699" s="6" t="s">
         <v>5513</v>
-      </c>
-      <c r="F699" s="6" t="s">
-        <v>5514</v>
       </c>
     </row>
     <row r="700" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -35979,16 +35985,16 @@
         <v>OccO_452040</v>
       </c>
       <c r="C700" s="5" t="s">
+        <v>5514</v>
+      </c>
+      <c r="D700" s="7" t="s">
+        <v>5516</v>
+      </c>
+      <c r="E700" s="6" t="s">
         <v>5515</v>
       </c>
-      <c r="D700" s="7" t="s">
+      <c r="F700" s="6" t="s">
         <v>5517</v>
-      </c>
-      <c r="E700" s="6" t="s">
-        <v>5516</v>
-      </c>
-      <c r="F700" s="6" t="s">
-        <v>5518</v>
       </c>
     </row>
     <row r="701" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -36001,16 +36007,16 @@
         <v>OccO_452090</v>
       </c>
       <c r="C701" s="5" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="D701" s="7" t="s">
         <v>1036</v>
       </c>
       <c r="E701" s="6" t="s">
+        <v>5519</v>
+      </c>
+      <c r="F701" s="6" t="s">
         <v>5520</v>
-      </c>
-      <c r="F701" s="6" t="s">
-        <v>5521</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -36023,16 +36029,16 @@
         <v>OccO_452090</v>
       </c>
       <c r="C702" s="5" t="s">
+        <v>5521</v>
+      </c>
+      <c r="D702" s="7" t="s">
+        <v>5523</v>
+      </c>
+      <c r="E702" s="6" t="s">
         <v>5522</v>
       </c>
-      <c r="D702" s="7" t="s">
+      <c r="F702" s="6" t="s">
         <v>5524</v>
-      </c>
-      <c r="E702" s="6" t="s">
-        <v>5523</v>
-      </c>
-      <c r="F702" s="6" t="s">
-        <v>5525</v>
       </c>
     </row>
     <row r="703" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -36045,16 +36051,16 @@
         <v>OccO_452090</v>
       </c>
       <c r="C703" s="5" t="s">
+        <v>5525</v>
+      </c>
+      <c r="D703" s="7" t="s">
+        <v>5527</v>
+      </c>
+      <c r="E703" s="6" t="s">
         <v>5526</v>
       </c>
-      <c r="D703" s="7" t="s">
+      <c r="F703" s="6" t="s">
         <v>5528</v>
-      </c>
-      <c r="E703" s="6" t="s">
-        <v>5527</v>
-      </c>
-      <c r="F703" s="6" t="s">
-        <v>5529</v>
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
@@ -36067,16 +36073,16 @@
         <v>OccO_452090</v>
       </c>
       <c r="C704" s="5" t="s">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="D704" s="7" t="s">
         <v>1473</v>
       </c>
       <c r="E704" s="6" t="s">
+        <v>5530</v>
+      </c>
+      <c r="F704" s="6" t="s">
         <v>5531</v>
-      </c>
-      <c r="F704" s="6" t="s">
-        <v>5532</v>
       </c>
     </row>
     <row r="705" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36089,16 +36095,16 @@
         <v>OccO_453030</v>
       </c>
       <c r="C705" s="5" t="s">
+        <v>5532</v>
+      </c>
+      <c r="D705" s="7" t="s">
+        <v>5534</v>
+      </c>
+      <c r="E705" s="6" t="s">
         <v>5533</v>
       </c>
-      <c r="D705" s="7" t="s">
+      <c r="F705" s="6" t="s">
         <v>5535</v>
-      </c>
-      <c r="E705" s="6" t="s">
-        <v>5534</v>
-      </c>
-      <c r="F705" s="6" t="s">
-        <v>5536</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -36111,16 +36117,16 @@
         <v>OccO_454010</v>
       </c>
       <c r="C706" s="5" t="s">
+        <v>5536</v>
+      </c>
+      <c r="D706" s="7" t="s">
+        <v>5538</v>
+      </c>
+      <c r="E706" s="6" t="s">
         <v>5537</v>
       </c>
-      <c r="D706" s="7" t="s">
+      <c r="F706" s="6" t="s">
         <v>5539</v>
-      </c>
-      <c r="E706" s="6" t="s">
-        <v>5538</v>
-      </c>
-      <c r="F706" s="6" t="s">
-        <v>5540</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36133,16 +36139,16 @@
         <v>OccO_454020</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="D707" s="7" t="s">
         <v>1033</v>
       </c>
       <c r="E707" s="6" t="s">
+        <v>5541</v>
+      </c>
+      <c r="F707" s="6" t="s">
         <v>5542</v>
-      </c>
-      <c r="F707" s="6" t="s">
-        <v>5543</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -36155,16 +36161,16 @@
         <v>OccO_454020</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="D708" s="7" t="s">
         <v>1032</v>
       </c>
       <c r="E708" s="6" t="s">
+        <v>5544</v>
+      </c>
+      <c r="F708" s="6" t="s">
         <v>5545</v>
-      </c>
-      <c r="F708" s="6" t="s">
-        <v>5546</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36177,16 +36183,16 @@
         <v>OccO_454020</v>
       </c>
       <c r="C709" s="5" t="s">
+        <v>5546</v>
+      </c>
+      <c r="D709" s="7" t="s">
+        <v>5548</v>
+      </c>
+      <c r="E709" s="6" t="s">
         <v>5547</v>
       </c>
-      <c r="D709" s="7" t="s">
+      <c r="F709" s="6" t="s">
         <v>5549</v>
-      </c>
-      <c r="E709" s="6" t="s">
-        <v>5548</v>
-      </c>
-      <c r="F709" s="6" t="s">
-        <v>5550</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
@@ -36199,16 +36205,16 @@
         <v>OccO_454020</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="D710" s="7" t="s">
         <v>1472</v>
       </c>
       <c r="E710" s="6" t="s">
+        <v>5551</v>
+      </c>
+      <c r="F710" s="6" t="s">
         <v>5552</v>
-      </c>
-      <c r="F710" s="6" t="s">
-        <v>5553</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36221,16 +36227,16 @@
         <v>OccO_471010</v>
       </c>
       <c r="C711" s="5" t="s">
+        <v>5553</v>
+      </c>
+      <c r="D711" s="7" t="s">
+        <v>5555</v>
+      </c>
+      <c r="E711" s="6" t="s">
         <v>5554</v>
       </c>
-      <c r="D711" s="7" t="s">
+      <c r="F711" s="6" t="s">
         <v>5556</v>
-      </c>
-      <c r="E711" s="6" t="s">
-        <v>5555</v>
-      </c>
-      <c r="F711" s="6" t="s">
-        <v>5557</v>
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
@@ -36243,16 +36249,16 @@
         <v>OccO_471010</v>
       </c>
       <c r="C712" s="5" t="s">
+        <v>5557</v>
+      </c>
+      <c r="D712" s="7" t="s">
+        <v>5559</v>
+      </c>
+      <c r="E712" s="6" t="s">
         <v>5558</v>
       </c>
-      <c r="D712" s="7" t="s">
+      <c r="F712" s="6" t="s">
         <v>5560</v>
-      </c>
-      <c r="E712" s="6" t="s">
-        <v>5559</v>
-      </c>
-      <c r="F712" s="6" t="s">
-        <v>5561</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -36265,16 +36271,16 @@
         <v>OccO_472010</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="D713" s="7" t="s">
         <v>1031</v>
       </c>
       <c r="E713" s="6" t="s">
+        <v>5562</v>
+      </c>
+      <c r="F713" s="6" t="s">
         <v>5563</v>
-      </c>
-      <c r="F713" s="6" t="s">
-        <v>5564</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36287,16 +36293,16 @@
         <v>OccO_472020</v>
       </c>
       <c r="C714" s="5" t="s">
+        <v>5564</v>
+      </c>
+      <c r="D714" s="7" t="s">
+        <v>5566</v>
+      </c>
+      <c r="E714" s="6" t="s">
         <v>5565</v>
       </c>
-      <c r="D714" s="7" t="s">
+      <c r="F714" s="6" t="s">
         <v>5567</v>
-      </c>
-      <c r="E714" s="6" t="s">
-        <v>5566</v>
-      </c>
-      <c r="F714" s="6" t="s">
-        <v>5568</v>
       </c>
     </row>
     <row r="715" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36309,16 +36315,16 @@
         <v>OccO_472020</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>5569</v>
+        <v>5568</v>
       </c>
       <c r="D715" s="7" t="s">
         <v>1029</v>
       </c>
       <c r="E715" s="6" t="s">
+        <v>5569</v>
+      </c>
+      <c r="F715" s="6" t="s">
         <v>5570</v>
-      </c>
-      <c r="F715" s="6" t="s">
-        <v>5571</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -36331,16 +36337,16 @@
         <v>OccO_472030</v>
       </c>
       <c r="C716" s="5" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="D716" s="7" t="s">
         <v>1028</v>
       </c>
       <c r="E716" s="6" t="s">
+        <v>5572</v>
+      </c>
+      <c r="F716" s="6" t="s">
         <v>5573</v>
-      </c>
-      <c r="F716" s="6" t="s">
-        <v>5574</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
@@ -36353,16 +36359,16 @@
         <v>OccO_472040</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="D717" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="E717" s="6" t="s">
+        <v>5575</v>
+      </c>
+      <c r="F717" s="6" t="s">
         <v>5576</v>
-      </c>
-      <c r="F717" s="6" t="s">
-        <v>5577</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36375,16 +36381,16 @@
         <v>OccO_472040</v>
       </c>
       <c r="C718" s="5" t="s">
+        <v>5577</v>
+      </c>
+      <c r="D718" s="7" t="s">
+        <v>5579</v>
+      </c>
+      <c r="E718" s="6" t="s">
         <v>5578</v>
       </c>
-      <c r="D718" s="7" t="s">
+      <c r="F718" s="6" t="s">
         <v>5580</v>
-      </c>
-      <c r="E718" s="6" t="s">
-        <v>5579</v>
-      </c>
-      <c r="F718" s="6" t="s">
-        <v>5581</v>
       </c>
     </row>
     <row r="719" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36397,16 +36403,16 @@
         <v>OccO_472040</v>
       </c>
       <c r="C719" s="5" t="s">
+        <v>5581</v>
+      </c>
+      <c r="D719" s="7" t="s">
+        <v>5583</v>
+      </c>
+      <c r="E719" s="6" t="s">
         <v>5582</v>
       </c>
-      <c r="D719" s="7" t="s">
+      <c r="F719" s="6" t="s">
         <v>5584</v>
-      </c>
-      <c r="E719" s="6" t="s">
-        <v>5583</v>
-      </c>
-      <c r="F719" s="6" t="s">
-        <v>5585</v>
       </c>
     </row>
     <row r="720" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36419,16 +36425,16 @@
         <v>OccO_472040</v>
       </c>
       <c r="C720" s="5" t="s">
+        <v>5585</v>
+      </c>
+      <c r="D720" s="7" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E720" s="6" t="s">
         <v>5586</v>
       </c>
-      <c r="D720" s="7" t="s">
+      <c r="F720" s="6" t="s">
         <v>5588</v>
-      </c>
-      <c r="E720" s="6" t="s">
-        <v>5587</v>
-      </c>
-      <c r="F720" s="6" t="s">
-        <v>5589</v>
       </c>
     </row>
     <row r="721" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36441,16 +36447,16 @@
         <v>OccO_472050</v>
       </c>
       <c r="C721" s="5" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D721" s="7" t="s">
+        <v>5591</v>
+      </c>
+      <c r="E721" s="6" t="s">
         <v>5590</v>
       </c>
-      <c r="D721" s="7" t="s">
+      <c r="F721" s="6" t="s">
         <v>5592</v>
-      </c>
-      <c r="E721" s="6" t="s">
-        <v>5591</v>
-      </c>
-      <c r="F721" s="6" t="s">
-        <v>5593</v>
       </c>
     </row>
     <row r="722" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36463,16 +36469,16 @@
         <v>OccO_472050</v>
       </c>
       <c r="C722" s="5" t="s">
+        <v>5593</v>
+      </c>
+      <c r="D722" s="7" t="s">
+        <v>5595</v>
+      </c>
+      <c r="E722" s="6" t="s">
         <v>5594</v>
       </c>
-      <c r="D722" s="7" t="s">
+      <c r="F722" s="6" t="s">
         <v>5596</v>
-      </c>
-      <c r="E722" s="6" t="s">
-        <v>5595</v>
-      </c>
-      <c r="F722" s="6" t="s">
-        <v>5597</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -36485,16 +36491,16 @@
         <v>OccO_472060</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="D723" s="7" t="s">
         <v>1023</v>
       </c>
       <c r="E723" s="6" t="s">
+        <v>5598</v>
+      </c>
+      <c r="F723" s="6" t="s">
         <v>5599</v>
-      </c>
-      <c r="F723" s="6" t="s">
-        <v>5600</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -36507,16 +36513,16 @@
         <v>OccO_472070</v>
       </c>
       <c r="C724" s="5" t="s">
+        <v>5600</v>
+      </c>
+      <c r="D724" s="7" t="s">
+        <v>5602</v>
+      </c>
+      <c r="E724" s="6" t="s">
         <v>5601</v>
       </c>
-      <c r="D724" s="7" t="s">
+      <c r="F724" s="6" t="s">
         <v>5603</v>
-      </c>
-      <c r="E724" s="6" t="s">
-        <v>5602</v>
-      </c>
-      <c r="F724" s="6" t="s">
-        <v>5604</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36529,16 +36535,16 @@
         <v>OccO_472070</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="D725" s="7" t="s">
         <v>1021</v>
       </c>
       <c r="E725" s="6" t="s">
+        <v>5605</v>
+      </c>
+      <c r="F725" s="6" t="s">
         <v>5606</v>
-      </c>
-      <c r="F725" s="6" t="s">
-        <v>5607</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -36551,16 +36557,16 @@
         <v>OccO_472070</v>
       </c>
       <c r="C726" s="5" t="s">
+        <v>5607</v>
+      </c>
+      <c r="D726" s="7" t="s">
+        <v>5609</v>
+      </c>
+      <c r="E726" s="6" t="s">
         <v>5608</v>
       </c>
-      <c r="D726" s="7" t="s">
+      <c r="F726" s="6" t="s">
         <v>5610</v>
-      </c>
-      <c r="E726" s="6" t="s">
-        <v>5609</v>
-      </c>
-      <c r="F726" s="6" t="s">
-        <v>5611</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -36573,16 +36579,16 @@
         <v>OccO_472080</v>
       </c>
       <c r="C727" s="5" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D727" s="7" t="s">
+        <v>5613</v>
+      </c>
+      <c r="E727" s="6" t="s">
         <v>5612</v>
       </c>
-      <c r="D727" s="7" t="s">
+      <c r="F727" s="6" t="s">
         <v>5614</v>
-      </c>
-      <c r="E727" s="6" t="s">
-        <v>5613</v>
-      </c>
-      <c r="F727" s="6" t="s">
-        <v>5615</v>
       </c>
     </row>
     <row r="728" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36595,16 +36601,16 @@
         <v>OccO_472080</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="D728" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="E728" s="6" t="s">
+        <v>5616</v>
+      </c>
+      <c r="F728" s="6" t="s">
         <v>5617</v>
-      </c>
-      <c r="F728" s="6" t="s">
-        <v>5618</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36617,16 +36623,16 @@
         <v>OccO_472110</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="D729" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="E729" s="6" t="s">
+        <v>5619</v>
+      </c>
+      <c r="F729" s="6" t="s">
         <v>5620</v>
-      </c>
-      <c r="F729" s="6" t="s">
-        <v>5621</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36639,16 +36645,16 @@
         <v>OccO_472120</v>
       </c>
       <c r="C730" s="5" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="D730" s="7" t="s">
         <v>1016</v>
       </c>
       <c r="E730" s="6" t="s">
+        <v>5622</v>
+      </c>
+      <c r="F730" s="6" t="s">
         <v>5623</v>
-      </c>
-      <c r="F730" s="6" t="s">
-        <v>5624</v>
       </c>
     </row>
     <row r="731" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36661,16 +36667,16 @@
         <v>OccO_472130</v>
       </c>
       <c r="C731" s="5" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D731" s="7" t="s">
+        <v>5626</v>
+      </c>
+      <c r="E731" s="6" t="s">
         <v>5625</v>
       </c>
-      <c r="D731" s="7" t="s">
+      <c r="F731" s="6" t="s">
         <v>5627</v>
-      </c>
-      <c r="E731" s="6" t="s">
-        <v>5626</v>
-      </c>
-      <c r="F731" s="6" t="s">
-        <v>5628</v>
       </c>
     </row>
     <row r="732" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36683,16 +36689,16 @@
         <v>OccO_472130</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="D732" s="7" t="s">
         <v>1469</v>
       </c>
       <c r="E732" s="6" t="s">
+        <v>5629</v>
+      </c>
+      <c r="F732" s="6" t="s">
         <v>5630</v>
-      </c>
-      <c r="F732" s="6" t="s">
-        <v>5631</v>
       </c>
     </row>
     <row r="733" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36705,16 +36711,16 @@
         <v>OccO_472140</v>
       </c>
       <c r="C733" s="5" t="s">
+        <v>5631</v>
+      </c>
+      <c r="D733" s="7" t="s">
+        <v>5633</v>
+      </c>
+      <c r="E733" s="6" t="s">
         <v>5632</v>
       </c>
-      <c r="D733" s="7" t="s">
+      <c r="F733" s="6" t="s">
         <v>5634</v>
-      </c>
-      <c r="E733" s="6" t="s">
-        <v>5633</v>
-      </c>
-      <c r="F733" s="6" t="s">
-        <v>5635</v>
       </c>
     </row>
     <row r="734" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36727,16 +36733,16 @@
         <v>OccO_472140</v>
       </c>
       <c r="C734" s="5" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="D734" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="E734" s="6" t="s">
+        <v>5636</v>
+      </c>
+      <c r="F734" s="6" t="s">
         <v>5637</v>
-      </c>
-      <c r="F734" s="6" t="s">
-        <v>5638</v>
       </c>
     </row>
     <row r="735" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36749,16 +36755,16 @@
         <v>OccO_472150</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="D735" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="E735" s="6" t="s">
+        <v>5639</v>
+      </c>
+      <c r="F735" s="6" t="s">
         <v>5640</v>
-      </c>
-      <c r="F735" s="6" t="s">
-        <v>5641</v>
       </c>
     </row>
     <row r="736" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36771,16 +36777,16 @@
         <v>OccO_472150</v>
       </c>
       <c r="C736" s="5" t="s">
+        <v>5641</v>
+      </c>
+      <c r="D736" s="7" t="s">
+        <v>5643</v>
+      </c>
+      <c r="E736" s="6" t="s">
         <v>5642</v>
       </c>
-      <c r="D736" s="7" t="s">
+      <c r="F736" s="6" t="s">
         <v>5644</v>
-      </c>
-      <c r="E736" s="6" t="s">
-        <v>5643</v>
-      </c>
-      <c r="F736" s="6" t="s">
-        <v>5645</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36793,16 +36799,16 @@
         <v>OccO_472150</v>
       </c>
       <c r="C737" s="5" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D737" s="7" t="s">
+        <v>5647</v>
+      </c>
+      <c r="E737" s="6" t="s">
         <v>5646</v>
       </c>
-      <c r="D737" s="7" t="s">
+      <c r="F737" s="6" t="s">
         <v>5648</v>
-      </c>
-      <c r="E737" s="6" t="s">
-        <v>5647</v>
-      </c>
-      <c r="F737" s="6" t="s">
-        <v>5649</v>
       </c>
     </row>
     <row r="738" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36815,16 +36821,16 @@
         <v>OccO_472160</v>
       </c>
       <c r="C738" s="5" t="s">
+        <v>5649</v>
+      </c>
+      <c r="D738" s="7" t="s">
+        <v>5651</v>
+      </c>
+      <c r="E738" s="6" t="s">
         <v>5650</v>
       </c>
-      <c r="D738" s="7" t="s">
+      <c r="F738" s="6" t="s">
         <v>5652</v>
-      </c>
-      <c r="E738" s="6" t="s">
-        <v>5651</v>
-      </c>
-      <c r="F738" s="6" t="s">
-        <v>5653</v>
       </c>
     </row>
     <row r="739" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36837,16 +36843,16 @@
         <v>OccO_472170</v>
       </c>
       <c r="C739" s="5" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D739" s="7" t="s">
+        <v>5655</v>
+      </c>
+      <c r="E739" s="6" t="s">
         <v>5654</v>
       </c>
-      <c r="D739" s="7" t="s">
+      <c r="F739" s="6" t="s">
         <v>5656</v>
-      </c>
-      <c r="E739" s="6" t="s">
-        <v>5655</v>
-      </c>
-      <c r="F739" s="6" t="s">
-        <v>5657</v>
       </c>
     </row>
     <row r="740" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36859,16 +36865,16 @@
         <v>OccO_472180</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
       <c r="D740" s="7" t="s">
         <v>1011</v>
       </c>
       <c r="E740" s="6" t="s">
+        <v>5658</v>
+      </c>
+      <c r="F740" s="6" t="s">
         <v>5659</v>
-      </c>
-      <c r="F740" s="6" t="s">
-        <v>5660</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -36881,16 +36887,16 @@
         <v>OccO_472210</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
       <c r="D741" s="7" t="s">
         <v>1010</v>
       </c>
       <c r="E741" s="6" t="s">
+        <v>5661</v>
+      </c>
+      <c r="F741" s="6" t="s">
         <v>5662</v>
-      </c>
-      <c r="F741" s="6" t="s">
-        <v>5663</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36903,16 +36909,16 @@
         <v>OccO_472220</v>
       </c>
       <c r="C742" s="5" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D742" s="7" t="s">
+        <v>5665</v>
+      </c>
+      <c r="E742" s="6" t="s">
         <v>5664</v>
       </c>
-      <c r="D742" s="7" t="s">
+      <c r="F742" s="6" t="s">
         <v>5666</v>
-      </c>
-      <c r="E742" s="6" t="s">
-        <v>5665</v>
-      </c>
-      <c r="F742" s="6" t="s">
-        <v>5667</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -36925,16 +36931,16 @@
         <v>OccO_472230</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="D743" s="7" t="s">
         <v>1008</v>
       </c>
       <c r="E743" s="6" t="s">
+        <v>5668</v>
+      </c>
+      <c r="F743" s="6" t="s">
         <v>5669</v>
-      </c>
-      <c r="F743" s="6" t="s">
-        <v>5670</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -36947,16 +36953,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C744" s="5" t="s">
+        <v>5670</v>
+      </c>
+      <c r="D744" s="7" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E744" s="6" t="s">
         <v>5671</v>
       </c>
-      <c r="D744" s="7" t="s">
+      <c r="F744" s="6" t="s">
         <v>5673</v>
-      </c>
-      <c r="E744" s="6" t="s">
-        <v>5672</v>
-      </c>
-      <c r="F744" s="6" t="s">
-        <v>5674</v>
       </c>
     </row>
     <row r="745" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36969,16 +36975,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
       <c r="D745" s="7" t="s">
         <v>1007</v>
       </c>
       <c r="E745" s="6" t="s">
+        <v>5675</v>
+      </c>
+      <c r="F745" s="6" t="s">
         <v>5676</v>
-      </c>
-      <c r="F745" s="6" t="s">
-        <v>5677</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -36991,16 +36997,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
       <c r="D746" s="7" t="s">
         <v>1006</v>
       </c>
       <c r="E746" s="6" t="s">
+        <v>5678</v>
+      </c>
+      <c r="F746" s="6" t="s">
         <v>5679</v>
-      </c>
-      <c r="F746" s="6" t="s">
-        <v>5680</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37013,16 +37019,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C747" s="5" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D747" s="7" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E747" s="6" t="s">
         <v>5681</v>
       </c>
-      <c r="D747" s="7" t="s">
+      <c r="F747" s="6" t="s">
         <v>5683</v>
-      </c>
-      <c r="E747" s="6" t="s">
-        <v>5682</v>
-      </c>
-      <c r="F747" s="6" t="s">
-        <v>5684</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37035,16 +37041,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C748" s="5" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D748" s="7" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E748" s="6" t="s">
         <v>5685</v>
       </c>
-      <c r="D748" s="7" t="s">
+      <c r="F748" s="6" t="s">
         <v>5687</v>
-      </c>
-      <c r="E748" s="6" t="s">
-        <v>5686</v>
-      </c>
-      <c r="F748" s="6" t="s">
-        <v>5688</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37057,16 +37063,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C749" s="5" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
       <c r="D749" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="E749" s="6" t="s">
+        <v>5689</v>
+      </c>
+      <c r="F749" s="6" t="s">
         <v>5690</v>
-      </c>
-      <c r="F749" s="6" t="s">
-        <v>5691</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
@@ -37079,16 +37085,16 @@
         <v>OccO_473010</v>
       </c>
       <c r="C750" s="5" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D750" s="7" t="s">
+        <v>5693</v>
+      </c>
+      <c r="E750" s="6" t="s">
         <v>5692</v>
       </c>
-      <c r="D750" s="7" t="s">
+      <c r="F750" s="6" t="s">
         <v>5694</v>
-      </c>
-      <c r="E750" s="6" t="s">
-        <v>5693</v>
-      </c>
-      <c r="F750" s="6" t="s">
-        <v>5695</v>
       </c>
     </row>
     <row r="751" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37101,16 +37107,16 @@
         <v>OccO_474010</v>
       </c>
       <c r="C751" s="5" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D751" s="7" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E751" s="6" t="s">
         <v>5696</v>
       </c>
-      <c r="D751" s="7" t="s">
+      <c r="F751" s="6" t="s">
         <v>5698</v>
-      </c>
-      <c r="E751" s="6" t="s">
-        <v>5697</v>
-      </c>
-      <c r="F751" s="6" t="s">
-        <v>5699</v>
       </c>
     </row>
     <row r="752" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37123,16 +37129,16 @@
         <v>OccO_474010</v>
       </c>
       <c r="C752" s="5" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D752" s="7" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E752" s="6" t="s">
         <v>5700</v>
       </c>
-      <c r="D752" s="7" t="s">
+      <c r="F752" s="6" t="s">
         <v>5702</v>
-      </c>
-      <c r="E752" s="6" t="s">
-        <v>5701</v>
-      </c>
-      <c r="F752" s="6" t="s">
-        <v>5703</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37145,16 +37151,16 @@
         <v>OccO_474020</v>
       </c>
       <c r="C753" s="5" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D753" s="7" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E753" s="6" t="s">
         <v>5704</v>
       </c>
-      <c r="D753" s="7" t="s">
+      <c r="F753" s="6" t="s">
         <v>5706</v>
-      </c>
-      <c r="E753" s="6" t="s">
-        <v>5705</v>
-      </c>
-      <c r="F753" s="6" t="s">
-        <v>5707</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
@@ -37167,16 +37173,16 @@
         <v>OccO_474030</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="D754" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="E754" s="6" t="s">
+        <v>5708</v>
+      </c>
+      <c r="F754" s="6" t="s">
         <v>5709</v>
-      </c>
-      <c r="F754" s="6" t="s">
-        <v>5710</v>
       </c>
     </row>
     <row r="755" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -37189,16 +37195,16 @@
         <v>OccO_474040</v>
       </c>
       <c r="C755" s="5" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="D755" s="7" t="s">
         <v>1001</v>
       </c>
       <c r="E755" s="6" t="s">
+        <v>5711</v>
+      </c>
+      <c r="F755" s="6" t="s">
         <v>5712</v>
-      </c>
-      <c r="F755" s="6" t="s">
-        <v>5713</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37211,16 +37217,16 @@
         <v>OccO_474050</v>
       </c>
       <c r="C756" s="5" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="D756" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="E756" s="6" t="s">
+        <v>5714</v>
+      </c>
+      <c r="F756" s="6" t="s">
         <v>5715</v>
-      </c>
-      <c r="F756" s="6" t="s">
-        <v>5716</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37233,16 +37239,16 @@
         <v>OccO_474060</v>
       </c>
       <c r="C757" s="5" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D757" s="7" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E757" s="6" t="s">
         <v>5717</v>
       </c>
-      <c r="D757" s="7" t="s">
+      <c r="F757" s="6" t="s">
         <v>5719</v>
-      </c>
-      <c r="E757" s="6" t="s">
-        <v>5718</v>
-      </c>
-      <c r="F757" s="6" t="s">
-        <v>5720</v>
       </c>
     </row>
     <row r="758" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37255,16 +37261,16 @@
         <v>OccO_474070</v>
       </c>
       <c r="C758" s="5" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D758" s="7" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E758" s="6" t="s">
         <v>5721</v>
       </c>
-      <c r="D758" s="7" t="s">
+      <c r="F758" s="6" t="s">
         <v>5723</v>
-      </c>
-      <c r="E758" s="6" t="s">
-        <v>5722</v>
-      </c>
-      <c r="F758" s="6" t="s">
-        <v>5724</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37277,16 +37283,16 @@
         <v>OccO_474090</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="D759" s="7" t="s">
         <v>997</v>
       </c>
       <c r="E759" s="6" t="s">
+        <v>5725</v>
+      </c>
+      <c r="F759" s="6" t="s">
         <v>5726</v>
-      </c>
-      <c r="F759" s="6" t="s">
-        <v>5727</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
@@ -37299,16 +37305,16 @@
         <v>OccO_474090</v>
       </c>
       <c r="C760" s="5" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D760" s="7" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E760" s="6" t="s">
         <v>5728</v>
       </c>
-      <c r="D760" s="7" t="s">
+      <c r="F760" s="6" t="s">
         <v>5730</v>
-      </c>
-      <c r="E760" s="6" t="s">
-        <v>5729</v>
-      </c>
-      <c r="F760" s="6" t="s">
-        <v>5731</v>
       </c>
     </row>
     <row r="761" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -37321,16 +37327,16 @@
         <v>OccO_474090</v>
       </c>
       <c r="C761" s="5" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D761" s="7" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E761" s="6" t="s">
         <v>5732</v>
       </c>
-      <c r="D761" s="7" t="s">
+      <c r="F761" s="6" t="s">
         <v>5734</v>
-      </c>
-      <c r="E761" s="6" t="s">
-        <v>5733</v>
-      </c>
-      <c r="F761" s="6" t="s">
-        <v>5735</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
@@ -37343,16 +37349,16 @@
         <v>OccO_475010</v>
       </c>
       <c r="C762" s="5" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D762" s="7" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E762" s="6" t="s">
         <v>5736</v>
       </c>
-      <c r="D762" s="7" t="s">
+      <c r="F762" s="6" t="s">
         <v>5738</v>
-      </c>
-      <c r="E762" s="6" t="s">
-        <v>5737</v>
-      </c>
-      <c r="F762" s="6" t="s">
-        <v>5739</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37365,16 +37371,16 @@
         <v>OccO_475010</v>
       </c>
       <c r="C763" s="5" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D763" s="7" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E763" s="6" t="s">
         <v>5740</v>
       </c>
-      <c r="D763" s="7" t="s">
+      <c r="F763" s="6" t="s">
         <v>5742</v>
-      </c>
-      <c r="E763" s="6" t="s">
-        <v>5741</v>
-      </c>
-      <c r="F763" s="6" t="s">
-        <v>5743</v>
       </c>
     </row>
     <row r="764" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37387,16 +37393,16 @@
         <v>OccO_475010</v>
       </c>
       <c r="C764" s="5" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D764" s="7" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E764" s="6" t="s">
         <v>5744</v>
       </c>
-      <c r="D764" s="7" t="s">
+      <c r="F764" s="6" t="s">
         <v>5746</v>
-      </c>
-      <c r="E764" s="6" t="s">
-        <v>5745</v>
-      </c>
-      <c r="F764" s="6" t="s">
-        <v>5747</v>
       </c>
     </row>
     <row r="765" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37409,16 +37415,16 @@
         <v>OccO_475020</v>
       </c>
       <c r="C765" s="5" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D765" s="7" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E765" s="6" t="s">
         <v>5748</v>
       </c>
-      <c r="D765" s="7" t="s">
+      <c r="F765" s="6" t="s">
         <v>5750</v>
-      </c>
-      <c r="E765" s="6" t="s">
-        <v>5749</v>
-      </c>
-      <c r="F765" s="6" t="s">
-        <v>5751</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -37431,16 +37437,16 @@
         <v>OccO_475020</v>
       </c>
       <c r="C766" s="5" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D766" s="7" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E766" s="6" t="s">
         <v>5752</v>
       </c>
-      <c r="D766" s="7" t="s">
+      <c r="F766" s="6" t="s">
         <v>5754</v>
-      </c>
-      <c r="E766" s="6" t="s">
-        <v>5753</v>
-      </c>
-      <c r="F766" s="6" t="s">
-        <v>5755</v>
       </c>
     </row>
     <row r="767" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37453,16 +37459,16 @@
         <v>OccO_475030</v>
       </c>
       <c r="C767" s="5" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D767" s="7" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E767" s="6" t="s">
         <v>5756</v>
       </c>
-      <c r="D767" s="7" t="s">
+      <c r="F767" s="6" t="s">
         <v>5758</v>
-      </c>
-      <c r="E767" s="6" t="s">
-        <v>5757</v>
-      </c>
-      <c r="F767" s="6" t="s">
-        <v>5759</v>
       </c>
     </row>
     <row r="768" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37475,16 +37481,16 @@
         <v>OccO_475040</v>
       </c>
       <c r="C768" s="5" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="D768" s="7" t="s">
         <v>996</v>
       </c>
       <c r="E768" s="6" t="s">
+        <v>5760</v>
+      </c>
+      <c r="F768" s="6" t="s">
         <v>5761</v>
-      </c>
-      <c r="F768" s="6" t="s">
-        <v>5762</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
@@ -37497,16 +37503,16 @@
         <v>OccO_475040</v>
       </c>
       <c r="C769" s="5" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="D769" s="7" t="s">
         <v>1522</v>
       </c>
       <c r="E769" s="6" t="s">
+        <v>5763</v>
+      </c>
+      <c r="F769" s="6" t="s">
         <v>5764</v>
-      </c>
-      <c r="F769" s="6" t="s">
-        <v>5765</v>
       </c>
     </row>
     <row r="770" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37519,16 +37525,16 @@
         <v>OccO_475040</v>
       </c>
       <c r="C770" s="5" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D770" s="7" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E770" s="6" t="s">
         <v>5766</v>
       </c>
-      <c r="D770" s="7" t="s">
+      <c r="F770" s="6" t="s">
         <v>5768</v>
-      </c>
-      <c r="E770" s="6" t="s">
-        <v>5767</v>
-      </c>
-      <c r="F770" s="6" t="s">
-        <v>5769</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -37541,16 +37547,16 @@
         <v>OccO_475040</v>
       </c>
       <c r="C771" s="5" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="D771" s="7" t="s">
         <v>1413</v>
       </c>
       <c r="E771" s="6" t="s">
+        <v>5770</v>
+      </c>
+      <c r="F771" s="6" t="s">
         <v>5771</v>
-      </c>
-      <c r="F771" s="6" t="s">
-        <v>5772</v>
       </c>
     </row>
     <row r="772" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37563,16 +37569,16 @@
         <v>OccO_475050</v>
       </c>
       <c r="C772" s="5" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="D772" s="7" t="s">
         <v>1521</v>
       </c>
       <c r="E772" s="6" t="s">
+        <v>5773</v>
+      </c>
+      <c r="F772" s="6" t="s">
         <v>5774</v>
-      </c>
-      <c r="F772" s="6" t="s">
-        <v>5775</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37585,16 +37591,16 @@
         <v>OccO_475070</v>
       </c>
       <c r="C773" s="5" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D773" s="7" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E773" s="6" t="s">
         <v>5776</v>
       </c>
-      <c r="D773" s="7" t="s">
+      <c r="F773" s="6" t="s">
         <v>5778</v>
-      </c>
-      <c r="E773" s="6" t="s">
-        <v>5777</v>
-      </c>
-      <c r="F773" s="6" t="s">
-        <v>5779</v>
       </c>
     </row>
     <row r="774" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37607,16 +37613,16 @@
         <v>OccO_475080</v>
       </c>
       <c r="C774" s="5" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
       <c r="D774" s="7" t="s">
         <v>995</v>
       </c>
       <c r="E774" s="6" t="s">
+        <v>5780</v>
+      </c>
+      <c r="F774" s="6" t="s">
         <v>5781</v>
-      </c>
-      <c r="F774" s="6" t="s">
-        <v>5782</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -37629,16 +37635,16 @@
         <v>OccO_475090</v>
       </c>
       <c r="C775" s="5" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="D775" s="7" t="s">
         <v>1467</v>
       </c>
       <c r="E775" s="6" t="s">
+        <v>5783</v>
+      </c>
+      <c r="F775" s="6" t="s">
         <v>5784</v>
-      </c>
-      <c r="F775" s="6" t="s">
-        <v>5785</v>
       </c>
     </row>
     <row r="776" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37651,16 +37657,16 @@
         <v>OccO_491010</v>
       </c>
       <c r="C776" s="5" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D776" s="7" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E776" s="6" t="s">
         <v>5786</v>
       </c>
-      <c r="D776" s="7" t="s">
+      <c r="F776" s="6" t="s">
         <v>5788</v>
-      </c>
-      <c r="E776" s="6" t="s">
-        <v>5787</v>
-      </c>
-      <c r="F776" s="6" t="s">
-        <v>5789</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37673,16 +37679,16 @@
         <v>OccO_492010</v>
       </c>
       <c r="C777" s="5" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D777" s="7" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E777" s="6" t="s">
         <v>5790</v>
       </c>
-      <c r="D777" s="7" t="s">
+      <c r="F777" s="6" t="s">
         <v>5792</v>
-      </c>
-      <c r="E777" s="6" t="s">
-        <v>5791</v>
-      </c>
-      <c r="F777" s="6" t="s">
-        <v>5793</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -37695,16 +37701,16 @@
         <v>OccO_492020</v>
       </c>
       <c r="C778" s="5" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D778" s="7" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E778" s="6" t="s">
         <v>5794</v>
       </c>
-      <c r="D778" s="7" t="s">
+      <c r="F778" s="6" t="s">
         <v>5796</v>
-      </c>
-      <c r="E778" s="6" t="s">
-        <v>5795</v>
-      </c>
-      <c r="F778" s="6" t="s">
-        <v>5797</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -37717,16 +37723,16 @@
         <v>OccO_492020</v>
       </c>
       <c r="C779" s="5" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D779" s="7" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E779" s="6" t="s">
         <v>5798</v>
       </c>
-      <c r="D779" s="7" t="s">
+      <c r="F779" s="6" t="s">
         <v>5800</v>
-      </c>
-      <c r="E779" s="6" t="s">
-        <v>5799</v>
-      </c>
-      <c r="F779" s="6" t="s">
-        <v>5801</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37739,16 +37745,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C780" s="5" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="D780" s="7" t="s">
         <v>992</v>
       </c>
       <c r="E780" s="6" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F780" s="6" t="s">
         <v>5803</v>
-      </c>
-      <c r="F780" s="6" t="s">
-        <v>5804</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
@@ -37761,16 +37767,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C781" s="5" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D781" s="7" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E781" s="6" t="s">
         <v>5805</v>
       </c>
-      <c r="D781" s="7" t="s">
+      <c r="F781" s="6" t="s">
         <v>5807</v>
-      </c>
-      <c r="E781" s="6" t="s">
-        <v>5806</v>
-      </c>
-      <c r="F781" s="6" t="s">
-        <v>5808</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37783,16 +37789,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C782" s="5" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D782" s="7" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E782" s="6" t="s">
         <v>5809</v>
       </c>
-      <c r="D782" s="7" t="s">
+      <c r="F782" s="6" t="s">
         <v>5811</v>
-      </c>
-      <c r="E782" s="6" t="s">
-        <v>5810</v>
-      </c>
-      <c r="F782" s="6" t="s">
-        <v>5812</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37805,16 +37811,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C783" s="5" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D783" s="7" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E783" s="6" t="s">
         <v>5813</v>
       </c>
-      <c r="D783" s="7" t="s">
+      <c r="F783" s="6" t="s">
         <v>5815</v>
-      </c>
-      <c r="E783" s="6" t="s">
-        <v>5814</v>
-      </c>
-      <c r="F783" s="6" t="s">
-        <v>5816</v>
       </c>
     </row>
     <row r="784" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37827,16 +37833,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C784" s="5" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D784" s="7" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E784" s="6" t="s">
         <v>5817</v>
       </c>
-      <c r="D784" s="7" t="s">
+      <c r="F784" s="6" t="s">
         <v>5819</v>
-      </c>
-      <c r="E784" s="6" t="s">
-        <v>5818</v>
-      </c>
-      <c r="F784" s="6" t="s">
-        <v>5820</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37849,16 +37855,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C785" s="5" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D785" s="7" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E785" s="6" t="s">
         <v>5821</v>
       </c>
-      <c r="D785" s="7" t="s">
+      <c r="F785" s="6" t="s">
         <v>5823</v>
-      </c>
-      <c r="E785" s="6" t="s">
-        <v>5822</v>
-      </c>
-      <c r="F785" s="6" t="s">
-        <v>5824</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -37871,16 +37877,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C786" s="5" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D786" s="7" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E786" s="6" t="s">
         <v>5825</v>
       </c>
-      <c r="D786" s="7" t="s">
+      <c r="F786" s="6" t="s">
         <v>5827</v>
-      </c>
-      <c r="E786" s="6" t="s">
-        <v>5826</v>
-      </c>
-      <c r="F786" s="6" t="s">
-        <v>5828</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37893,16 +37899,16 @@
         <v>OccO_492090</v>
       </c>
       <c r="C787" s="5" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D787" s="7" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E787" s="6" t="s">
         <v>5829</v>
       </c>
-      <c r="D787" s="7" t="s">
+      <c r="F787" s="6" t="s">
         <v>5831</v>
-      </c>
-      <c r="E787" s="6" t="s">
-        <v>5830</v>
-      </c>
-      <c r="F787" s="6" t="s">
-        <v>5832</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -37915,16 +37921,16 @@
         <v>OccO_493010</v>
       </c>
       <c r="C788" s="5" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D788" s="7" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E788" s="6" t="s">
         <v>5833</v>
       </c>
-      <c r="D788" s="7" t="s">
+      <c r="F788" s="6" t="s">
         <v>5835</v>
-      </c>
-      <c r="E788" s="6" t="s">
-        <v>5834</v>
-      </c>
-      <c r="F788" s="6" t="s">
-        <v>5836</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
@@ -37937,16 +37943,16 @@
         <v>OccO_493020</v>
       </c>
       <c r="C789" s="5" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D789" s="7" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E789" s="6" t="s">
         <v>5837</v>
       </c>
-      <c r="D789" s="7" t="s">
+      <c r="F789" s="6" t="s">
         <v>5839</v>
-      </c>
-      <c r="E789" s="6" t="s">
-        <v>5838</v>
-      </c>
-      <c r="F789" s="6" t="s">
-        <v>5840</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
@@ -37959,16 +37965,16 @@
         <v>OccO_493020</v>
       </c>
       <c r="C790" s="5" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D790" s="7" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E790" s="6" t="s">
         <v>5841</v>
       </c>
-      <c r="D790" s="7" t="s">
+      <c r="F790" s="6" t="s">
         <v>5843</v>
-      </c>
-      <c r="E790" s="6" t="s">
-        <v>5842</v>
-      </c>
-      <c r="F790" s="6" t="s">
-        <v>5844</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
@@ -37981,16 +37987,16 @@
         <v>OccO_493020</v>
       </c>
       <c r="C791" s="5" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D791" s="7" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E791" s="6" t="s">
         <v>5845</v>
       </c>
-      <c r="D791" s="7" t="s">
+      <c r="F791" s="6" t="s">
         <v>5847</v>
-      </c>
-      <c r="E791" s="6" t="s">
-        <v>5846</v>
-      </c>
-      <c r="F791" s="6" t="s">
-        <v>5848</v>
       </c>
     </row>
     <row r="792" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38003,16 +38009,16 @@
         <v>OccO_493030</v>
       </c>
       <c r="C792" s="5" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D792" s="7" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E792" s="6" t="s">
         <v>5849</v>
       </c>
-      <c r="D792" s="7" t="s">
+      <c r="F792" s="6" t="s">
         <v>5851</v>
-      </c>
-      <c r="E792" s="6" t="s">
-        <v>5850</v>
-      </c>
-      <c r="F792" s="6" t="s">
-        <v>5852</v>
       </c>
     </row>
     <row r="793" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38025,16 +38031,16 @@
         <v>OccO_493040</v>
       </c>
       <c r="C793" s="5" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D793" s="7" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E793" s="6" t="s">
         <v>5853</v>
       </c>
-      <c r="D793" s="7" t="s">
+      <c r="F793" s="6" t="s">
         <v>5855</v>
-      </c>
-      <c r="E793" s="6" t="s">
-        <v>5854</v>
-      </c>
-      <c r="F793" s="6" t="s">
-        <v>5856</v>
       </c>
     </row>
     <row r="794" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38047,16 +38053,16 @@
         <v>OccO_493040</v>
       </c>
       <c r="C794" s="5" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D794" s="7" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E794" s="6" t="s">
         <v>5857</v>
       </c>
-      <c r="D794" s="7" t="s">
+      <c r="F794" s="6" t="s">
         <v>5859</v>
-      </c>
-      <c r="E794" s="6" t="s">
-        <v>5858</v>
-      </c>
-      <c r="F794" s="6" t="s">
-        <v>5860</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
@@ -38069,16 +38075,16 @@
         <v>OccO_493040</v>
       </c>
       <c r="C795" s="5" t="s">
-        <v>5861</v>
+        <v>5860</v>
       </c>
       <c r="D795" s="7" t="s">
         <v>981</v>
       </c>
       <c r="E795" s="6" t="s">
+        <v>5861</v>
+      </c>
+      <c r="F795" s="6" t="s">
         <v>5862</v>
-      </c>
-      <c r="F795" s="6" t="s">
-        <v>5863</v>
       </c>
     </row>
     <row r="796" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38091,16 +38097,16 @@
         <v>OccO_493050</v>
       </c>
       <c r="C796" s="5" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D796" s="7" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E796" s="6" t="s">
         <v>5864</v>
       </c>
-      <c r="D796" s="7" t="s">
+      <c r="F796" s="6" t="s">
         <v>5866</v>
-      </c>
-      <c r="E796" s="6" t="s">
-        <v>5865</v>
-      </c>
-      <c r="F796" s="6" t="s">
-        <v>5867</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38113,16 +38119,16 @@
         <v>OccO_493050</v>
       </c>
       <c r="C797" s="5" t="s">
-        <v>5868</v>
+        <v>5867</v>
       </c>
       <c r="D797" s="7" t="s">
         <v>979</v>
       </c>
       <c r="E797" s="6" t="s">
+        <v>5868</v>
+      </c>
+      <c r="F797" s="6" t="s">
         <v>5869</v>
-      </c>
-      <c r="F797" s="6" t="s">
-        <v>5870</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38135,16 +38141,16 @@
         <v>OccO_493050</v>
       </c>
       <c r="C798" s="5" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D798" s="7" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E798" s="6" t="s">
         <v>5871</v>
       </c>
-      <c r="D798" s="7" t="s">
+      <c r="F798" s="6" t="s">
         <v>5873</v>
-      </c>
-      <c r="E798" s="6" t="s">
-        <v>5872</v>
-      </c>
-      <c r="F798" s="6" t="s">
-        <v>5874</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -38157,16 +38163,16 @@
         <v>OccO_493090</v>
       </c>
       <c r="C799" s="5" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
       <c r="D799" s="7" t="s">
         <v>977</v>
       </c>
       <c r="E799" s="6" t="s">
+        <v>5875</v>
+      </c>
+      <c r="F799" s="6" t="s">
         <v>5876</v>
-      </c>
-      <c r="F799" s="6" t="s">
-        <v>5877</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -38179,16 +38185,16 @@
         <v>OccO_493090</v>
       </c>
       <c r="C800" s="5" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="D800" s="7" t="s">
         <v>976</v>
       </c>
       <c r="E800" s="6" t="s">
+        <v>5878</v>
+      </c>
+      <c r="F800" s="6" t="s">
         <v>5879</v>
-      </c>
-      <c r="F800" s="6" t="s">
-        <v>5880</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
@@ -38201,16 +38207,16 @@
         <v>OccO_493090</v>
       </c>
       <c r="C801" s="5" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D801" s="7" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E801" s="6" t="s">
         <v>5881</v>
       </c>
-      <c r="D801" s="7" t="s">
+      <c r="F801" s="6" t="s">
         <v>5883</v>
-      </c>
-      <c r="E801" s="6" t="s">
-        <v>5882</v>
-      </c>
-      <c r="F801" s="6" t="s">
-        <v>5884</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38223,16 +38229,16 @@
         <v>OccO_499010</v>
       </c>
       <c r="C802" s="5" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="D802" s="7" t="s">
         <v>975</v>
       </c>
       <c r="E802" s="6" t="s">
+        <v>5885</v>
+      </c>
+      <c r="F802" s="6" t="s">
         <v>5886</v>
-      </c>
-      <c r="F802" s="6" t="s">
-        <v>5887</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38245,16 +38251,16 @@
         <v>OccO_499010</v>
       </c>
       <c r="C803" s="5" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D803" s="7" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E803" s="6" t="s">
         <v>5888</v>
       </c>
-      <c r="D803" s="7" t="s">
+      <c r="F803" s="6" t="s">
         <v>5890</v>
-      </c>
-      <c r="E803" s="6" t="s">
-        <v>5889</v>
-      </c>
-      <c r="F803" s="6" t="s">
-        <v>5891</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38267,16 +38273,16 @@
         <v>OccO_499020</v>
       </c>
       <c r="C804" s="5" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D804" s="7" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E804" s="6" t="s">
         <v>5892</v>
       </c>
-      <c r="D804" s="7" t="s">
+      <c r="F804" s="6" t="s">
         <v>5894</v>
-      </c>
-      <c r="E804" s="6" t="s">
-        <v>5893</v>
-      </c>
-      <c r="F804" s="6" t="s">
-        <v>5895</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38289,16 +38295,16 @@
         <v>OccO_499030</v>
       </c>
       <c r="C805" s="5" t="s">
-        <v>5896</v>
+        <v>5895</v>
       </c>
       <c r="D805" s="7" t="s">
         <v>973</v>
       </c>
       <c r="E805" s="6" t="s">
+        <v>5896</v>
+      </c>
+      <c r="F805" s="6" t="s">
         <v>5897</v>
-      </c>
-      <c r="F805" s="6" t="s">
-        <v>5898</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -38311,16 +38317,16 @@
         <v>OccO_499040</v>
       </c>
       <c r="C806" s="5" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="D806" s="7" t="s">
         <v>972</v>
       </c>
       <c r="E806" s="6" t="s">
+        <v>5899</v>
+      </c>
+      <c r="F806" s="6" t="s">
         <v>5900</v>
-      </c>
-      <c r="F806" s="6" t="s">
-        <v>5901</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
@@ -38333,16 +38339,16 @@
         <v>OccO_499040</v>
       </c>
       <c r="C807" s="5" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="D807" s="7" t="s">
         <v>1466</v>
       </c>
       <c r="E807" s="6" t="s">
+        <v>5902</v>
+      </c>
+      <c r="F807" s="6" t="s">
         <v>5903</v>
-      </c>
-      <c r="F807" s="6" t="s">
-        <v>5904</v>
       </c>
     </row>
     <row r="808" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38355,16 +38361,16 @@
         <v>OccO_499040</v>
       </c>
       <c r="C808" s="5" t="s">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="D808" s="7" t="s">
         <v>971</v>
       </c>
       <c r="E808" s="6" t="s">
+        <v>5905</v>
+      </c>
+      <c r="F808" s="6" t="s">
         <v>5906</v>
-      </c>
-      <c r="F808" s="6" t="s">
-        <v>5907</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38377,16 +38383,16 @@
         <v>OccO_499040</v>
       </c>
       <c r="C809" s="5" t="s">
-        <v>5908</v>
+        <v>5907</v>
       </c>
       <c r="D809" s="7" t="s">
         <v>1512</v>
       </c>
       <c r="E809" s="6" t="s">
+        <v>5908</v>
+      </c>
+      <c r="F809" s="6" t="s">
         <v>5909</v>
-      </c>
-      <c r="F809" s="6" t="s">
-        <v>5910</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38399,16 +38405,16 @@
         <v>OccO_499050</v>
       </c>
       <c r="C810" s="5" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D810" s="7" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E810" s="6" t="s">
         <v>5911</v>
       </c>
-      <c r="D810" s="7" t="s">
+      <c r="F810" s="6" t="s">
         <v>5913</v>
-      </c>
-      <c r="E810" s="6" t="s">
-        <v>5912</v>
-      </c>
-      <c r="F810" s="6" t="s">
-        <v>5914</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
@@ -38421,16 +38427,16 @@
         <v>OccO_499050</v>
       </c>
       <c r="C811" s="5" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D811" s="7" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E811" s="6" t="s">
         <v>5915</v>
       </c>
-      <c r="D811" s="7" t="s">
+      <c r="F811" s="6" t="s">
         <v>5917</v>
-      </c>
-      <c r="E811" s="6" t="s">
-        <v>5916</v>
-      </c>
-      <c r="F811" s="6" t="s">
-        <v>5918</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38443,16 +38449,16 @@
         <v>OccO_499060</v>
       </c>
       <c r="C812" s="5" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D812" s="7" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E812" s="6" t="s">
         <v>5919</v>
       </c>
-      <c r="D812" s="7" t="s">
+      <c r="F812" s="6" t="s">
         <v>5921</v>
-      </c>
-      <c r="E812" s="6" t="s">
-        <v>5920</v>
-      </c>
-      <c r="F812" s="6" t="s">
-        <v>5922</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
@@ -38465,16 +38471,16 @@
         <v>OccO_499060</v>
       </c>
       <c r="C813" s="5" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="D813" s="7" t="s">
         <v>968</v>
       </c>
       <c r="E813" s="6" t="s">
+        <v>5923</v>
+      </c>
+      <c r="F813" s="6" t="s">
         <v>5924</v>
-      </c>
-      <c r="F813" s="6" t="s">
-        <v>5925</v>
       </c>
     </row>
     <row r="814" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38487,16 +38493,16 @@
         <v>OccO_499060</v>
       </c>
       <c r="C814" s="5" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D814" s="7" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E814" s="6" t="s">
         <v>5926</v>
       </c>
-      <c r="D814" s="7" t="s">
+      <c r="F814" s="6" t="s">
         <v>5928</v>
-      </c>
-      <c r="E814" s="6" t="s">
-        <v>5927</v>
-      </c>
-      <c r="F814" s="6" t="s">
-        <v>5929</v>
       </c>
     </row>
     <row r="815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38509,16 +38515,16 @@
         <v>OccO_499060</v>
       </c>
       <c r="C815" s="5" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D815" s="7" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E815" s="6" t="s">
         <v>5930</v>
       </c>
-      <c r="D815" s="7" t="s">
+      <c r="F815" s="6" t="s">
         <v>5932</v>
-      </c>
-      <c r="E815" s="6" t="s">
-        <v>5931</v>
-      </c>
-      <c r="F815" s="6" t="s">
-        <v>5933</v>
       </c>
     </row>
     <row r="816" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38531,16 +38537,16 @@
         <v>OccO_499060</v>
       </c>
       <c r="C816" s="5" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D816" s="7" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E816" s="6" t="s">
         <v>5934</v>
       </c>
-      <c r="D816" s="7" t="s">
+      <c r="F816" s="6" t="s">
         <v>5936</v>
-      </c>
-      <c r="E816" s="6" t="s">
-        <v>5935</v>
-      </c>
-      <c r="F816" s="6" t="s">
-        <v>5937</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -38553,16 +38559,16 @@
         <v>OccO_499070</v>
       </c>
       <c r="C817" s="5" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D817" s="7" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E817" s="6" t="s">
         <v>5938</v>
       </c>
-      <c r="D817" s="7" t="s">
+      <c r="F817" s="6" t="s">
         <v>5940</v>
-      </c>
-      <c r="E817" s="6" t="s">
-        <v>5939</v>
-      </c>
-      <c r="F817" s="6" t="s">
-        <v>5941</v>
       </c>
     </row>
     <row r="818" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38575,16 +38581,16 @@
         <v>OccO_499080</v>
       </c>
       <c r="C818" s="5" t="s">
-        <v>5942</v>
+        <v>5941</v>
       </c>
       <c r="D818" s="7" t="s">
         <v>965</v>
       </c>
       <c r="E818" s="6" t="s">
+        <v>5942</v>
+      </c>
+      <c r="F818" s="6" t="s">
         <v>5943</v>
-      </c>
-      <c r="F818" s="6" t="s">
-        <v>5944</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38597,16 +38603,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C819" s="5" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D819" s="7" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E819" s="6" t="s">
         <v>5945</v>
       </c>
-      <c r="D819" s="7" t="s">
+      <c r="F819" s="6" t="s">
         <v>5947</v>
-      </c>
-      <c r="E819" s="6" t="s">
-        <v>5946</v>
-      </c>
-      <c r="F819" s="6" t="s">
-        <v>5948</v>
       </c>
     </row>
     <row r="820" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -38619,16 +38625,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C820" s="5" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
       <c r="D820" s="7" t="s">
         <v>963</v>
       </c>
       <c r="E820" s="6" t="s">
+        <v>5949</v>
+      </c>
+      <c r="F820" s="6" t="s">
         <v>5950</v>
-      </c>
-      <c r="F820" s="6" t="s">
-        <v>5951</v>
       </c>
     </row>
     <row r="821" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38641,16 +38647,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C821" s="5" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D821" s="7" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E821" s="6" t="s">
         <v>5952</v>
       </c>
-      <c r="D821" s="7" t="s">
+      <c r="F821" s="6" t="s">
         <v>5954</v>
-      </c>
-      <c r="E821" s="6" t="s">
-        <v>5953</v>
-      </c>
-      <c r="F821" s="6" t="s">
-        <v>5955</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
@@ -38663,16 +38669,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C822" s="5" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D822" s="7" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E822" s="6" t="s">
         <v>5956</v>
       </c>
-      <c r="D822" s="7" t="s">
+      <c r="F822" s="6" t="s">
         <v>5958</v>
-      </c>
-      <c r="E822" s="6" t="s">
-        <v>5957</v>
-      </c>
-      <c r="F822" s="6" t="s">
-        <v>5959</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38685,16 +38691,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C823" s="5" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
       <c r="D823" s="7" t="s">
         <v>960</v>
       </c>
       <c r="E823" s="6" t="s">
+        <v>5960</v>
+      </c>
+      <c r="F823" s="6" t="s">
         <v>5961</v>
-      </c>
-      <c r="F823" s="6" t="s">
-        <v>5962</v>
       </c>
     </row>
     <row r="824" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38707,16 +38713,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C824" s="5" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D824" s="7" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E824" s="6" t="s">
         <v>5963</v>
       </c>
-      <c r="D824" s="7" t="s">
+      <c r="F824" s="6" t="s">
         <v>5965</v>
-      </c>
-      <c r="E824" s="6" t="s">
-        <v>5964</v>
-      </c>
-      <c r="F824" s="6" t="s">
-        <v>5966</v>
       </c>
     </row>
     <row r="825" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -38729,16 +38735,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C825" s="5" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D825" s="7" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E825" s="6" t="s">
         <v>5967</v>
       </c>
-      <c r="D825" s="7" t="s">
+      <c r="F825" s="6" t="s">
         <v>5969</v>
-      </c>
-      <c r="E825" s="6" t="s">
-        <v>5968</v>
-      </c>
-      <c r="F825" s="6" t="s">
-        <v>5970</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38751,16 +38757,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C826" s="5" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D826" s="7" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E826" s="6" t="s">
         <v>5971</v>
       </c>
-      <c r="D826" s="7" t="s">
+      <c r="F826" s="6" t="s">
         <v>5973</v>
-      </c>
-      <c r="E826" s="6" t="s">
-        <v>5972</v>
-      </c>
-      <c r="F826" s="6" t="s">
-        <v>5974</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -38773,16 +38779,16 @@
         <v>OccO_499090</v>
       </c>
       <c r="C827" s="5" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D827" s="7" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E827" s="6" t="s">
         <v>5975</v>
       </c>
-      <c r="D827" s="7" t="s">
+      <c r="F827" s="6" t="s">
         <v>5977</v>
-      </c>
-      <c r="E827" s="6" t="s">
-        <v>5976</v>
-      </c>
-      <c r="F827" s="6" t="s">
-        <v>5978</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -38795,16 +38801,16 @@
         <v>OccO_511010</v>
       </c>
       <c r="C828" s="5" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D828" s="7" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E828" s="6" t="s">
         <v>5979</v>
       </c>
-      <c r="D828" s="7" t="s">
+      <c r="F828" s="6" t="s">
         <v>5981</v>
-      </c>
-      <c r="E828" s="6" t="s">
-        <v>5980</v>
-      </c>
-      <c r="F828" s="6" t="s">
-        <v>5982</v>
       </c>
     </row>
     <row r="829" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -38817,16 +38823,16 @@
         <v>OccO_512010</v>
       </c>
       <c r="C829" s="5" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D829" s="7" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E829" s="6" t="s">
         <v>5983</v>
       </c>
-      <c r="D829" s="7" t="s">
+      <c r="F829" s="6" t="s">
         <v>5985</v>
-      </c>
-      <c r="E829" s="6" t="s">
-        <v>5984</v>
-      </c>
-      <c r="F829" s="6" t="s">
-        <v>5986</v>
       </c>
     </row>
     <row r="830" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -38839,16 +38845,16 @@
         <v>OccO_512020</v>
       </c>
       <c r="C830" s="5" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D830" s="7" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E830" s="6" t="s">
         <v>5987</v>
       </c>
-      <c r="D830" s="7" t="s">
+      <c r="F830" s="6" t="s">
         <v>5989</v>
-      </c>
-      <c r="E830" s="6" t="s">
-        <v>5988</v>
-      </c>
-      <c r="F830" s="6" t="s">
-        <v>5990</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38861,16 +38867,16 @@
         <v>OccO_512020</v>
       </c>
       <c r="C831" s="5" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D831" s="7" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E831" s="6" t="s">
         <v>5991</v>
       </c>
-      <c r="D831" s="7" t="s">
+      <c r="F831" s="6" t="s">
         <v>5993</v>
-      </c>
-      <c r="E831" s="6" t="s">
-        <v>5992</v>
-      </c>
-      <c r="F831" s="6" t="s">
-        <v>5994</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38883,16 +38889,16 @@
         <v>OccO_512020</v>
       </c>
       <c r="C832" s="5" t="s">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="D832" s="7" t="s">
         <v>956</v>
       </c>
       <c r="E832" s="6" t="s">
+        <v>5995</v>
+      </c>
+      <c r="F832" s="6" t="s">
         <v>5996</v>
-      </c>
-      <c r="F832" s="6" t="s">
-        <v>5997</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38905,16 +38911,16 @@
         <v>OccO_512030</v>
       </c>
       <c r="C833" s="5" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D833" s="7" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E833" s="6" t="s">
         <v>5998</v>
       </c>
-      <c r="D833" s="7" t="s">
+      <c r="F833" s="6" t="s">
         <v>6000</v>
-      </c>
-      <c r="E833" s="6" t="s">
-        <v>5999</v>
-      </c>
-      <c r="F833" s="6" t="s">
-        <v>6001</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -38927,16 +38933,16 @@
         <v>OccO_512040</v>
       </c>
       <c r="C834" s="5" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D834" s="7" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E834" s="6" t="s">
         <v>6002</v>
       </c>
-      <c r="D834" s="7" t="s">
+      <c r="F834" s="6" t="s">
         <v>6004</v>
-      </c>
-      <c r="E834" s="6" t="s">
-        <v>6003</v>
-      </c>
-      <c r="F834" s="6" t="s">
-        <v>6005</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38949,16 +38955,16 @@
         <v>OccO_512050</v>
       </c>
       <c r="C835" s="5" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D835" s="7" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E835" s="6" t="s">
         <v>6006</v>
       </c>
-      <c r="D835" s="7" t="s">
+      <c r="F835" s="6" t="s">
         <v>6008</v>
-      </c>
-      <c r="E835" s="6" t="s">
-        <v>6007</v>
-      </c>
-      <c r="F835" s="6" t="s">
-        <v>6009</v>
       </c>
     </row>
     <row r="836" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38971,16 +38977,16 @@
         <v>OccO_512060</v>
       </c>
       <c r="C836" s="5" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D836" s="7" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E836" s="6" t="s">
         <v>6010</v>
       </c>
-      <c r="D836" s="7" t="s">
+      <c r="F836" s="6" t="s">
         <v>6012</v>
-      </c>
-      <c r="E836" s="6" t="s">
-        <v>6011</v>
-      </c>
-      <c r="F836" s="6" t="s">
-        <v>6013</v>
       </c>
     </row>
     <row r="837" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -38993,16 +38999,16 @@
         <v>OccO_512090</v>
       </c>
       <c r="C837" s="5" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="D837" s="7" t="s">
         <v>952</v>
       </c>
       <c r="E837" s="6" t="s">
+        <v>6014</v>
+      </c>
+      <c r="F837" s="6" t="s">
         <v>6015</v>
-      </c>
-      <c r="F837" s="6" t="s">
-        <v>6016</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
@@ -39015,16 +39021,16 @@
         <v>OccO_512090</v>
       </c>
       <c r="C838" s="5" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D838" s="7" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E838" s="6" t="s">
         <v>6017</v>
       </c>
-      <c r="D838" s="7" t="s">
+      <c r="F838" s="6" t="s">
         <v>6019</v>
-      </c>
-      <c r="E838" s="6" t="s">
-        <v>6018</v>
-      </c>
-      <c r="F838" s="6" t="s">
-        <v>6020</v>
       </c>
     </row>
     <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39037,16 +39043,16 @@
         <v>OccO_513010</v>
       </c>
       <c r="C839" s="5" t="s">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="D839" s="7" t="s">
         <v>951</v>
       </c>
       <c r="E839" s="6" t="s">
+        <v>6021</v>
+      </c>
+      <c r="F839" s="6" t="s">
         <v>6022</v>
-      </c>
-      <c r="F839" s="6" t="s">
-        <v>6023</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
@@ -39059,16 +39065,16 @@
         <v>OccO_513020</v>
       </c>
       <c r="C840" s="5" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D840" s="7" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E840" s="6" t="s">
         <v>6024</v>
       </c>
-      <c r="D840" s="7" t="s">
+      <c r="F840" s="6" t="s">
         <v>6026</v>
-      </c>
-      <c r="E840" s="6" t="s">
-        <v>6025</v>
-      </c>
-      <c r="F840" s="6" t="s">
-        <v>6027</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -39081,16 +39087,16 @@
         <v>OccO_513020</v>
       </c>
       <c r="C841" s="5" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D841" s="7" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E841" s="6" t="s">
         <v>6028</v>
       </c>
-      <c r="D841" s="7" t="s">
+      <c r="F841" s="6" t="s">
         <v>6030</v>
-      </c>
-      <c r="E841" s="6" t="s">
-        <v>6029</v>
-      </c>
-      <c r="F841" s="6" t="s">
-        <v>6031</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -39103,16 +39109,16 @@
         <v>OccO_513020</v>
       </c>
       <c r="C842" s="5" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D842" s="7" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E842" s="6" t="s">
         <v>6032</v>
       </c>
-      <c r="D842" s="7" t="s">
+      <c r="F842" s="6" t="s">
         <v>6034</v>
-      </c>
-      <c r="E842" s="6" t="s">
-        <v>6033</v>
-      </c>
-      <c r="F842" s="6" t="s">
-        <v>6035</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39125,16 +39131,16 @@
         <v>OccO_513090</v>
       </c>
       <c r="C843" s="5" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D843" s="7" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E843" s="6" t="s">
         <v>6036</v>
       </c>
-      <c r="D843" s="7" t="s">
+      <c r="F843" s="6" t="s">
         <v>6038</v>
-      </c>
-      <c r="E843" s="6" t="s">
-        <v>6037</v>
-      </c>
-      <c r="F843" s="6" t="s">
-        <v>6039</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39147,16 +39153,16 @@
         <v>OccO_513090</v>
       </c>
       <c r="C844" s="5" t="s">
-        <v>6040</v>
+        <v>6039</v>
       </c>
       <c r="D844" s="7" t="s">
         <v>947</v>
       </c>
       <c r="E844" s="6" t="s">
+        <v>6040</v>
+      </c>
+      <c r="F844" s="6" t="s">
         <v>6041</v>
-      </c>
-      <c r="F844" s="6" t="s">
-        <v>6042</v>
       </c>
     </row>
     <row r="845" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39169,16 +39175,16 @@
         <v>OccO_513090</v>
       </c>
       <c r="C845" s="5" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D845" s="7" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E845" s="6" t="s">
         <v>6043</v>
       </c>
-      <c r="D845" s="7" t="s">
+      <c r="F845" s="6" t="s">
         <v>6045</v>
-      </c>
-      <c r="E845" s="6" t="s">
-        <v>6044</v>
-      </c>
-      <c r="F845" s="6" t="s">
-        <v>6046</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
@@ -39191,16 +39197,16 @@
         <v>OccO_513090</v>
       </c>
       <c r="C846" s="5" t="s">
-        <v>6047</v>
+        <v>6046</v>
       </c>
       <c r="D846" s="7" t="s">
         <v>1463</v>
       </c>
       <c r="E846" s="6" t="s">
+        <v>6047</v>
+      </c>
+      <c r="F846" s="6" t="s">
         <v>6048</v>
-      </c>
-      <c r="F846" s="6" t="s">
-        <v>6049</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39213,16 +39219,16 @@
         <v>OccO_514020</v>
       </c>
       <c r="C847" s="5" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D847" s="7" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E847" s="6" t="s">
         <v>6050</v>
       </c>
-      <c r="D847" s="7" t="s">
+      <c r="F847" s="6" t="s">
         <v>6052</v>
-      </c>
-      <c r="E847" s="6" t="s">
-        <v>6051</v>
-      </c>
-      <c r="F847" s="6" t="s">
-        <v>6053</v>
       </c>
     </row>
     <row r="848" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39235,16 +39241,16 @@
         <v>OccO_514020</v>
       </c>
       <c r="C848" s="5" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D848" s="7" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E848" s="6" t="s">
         <v>6054</v>
       </c>
-      <c r="D848" s="7" t="s">
+      <c r="F848" s="6" t="s">
         <v>6056</v>
-      </c>
-      <c r="E848" s="6" t="s">
-        <v>6055</v>
-      </c>
-      <c r="F848" s="6" t="s">
-        <v>6057</v>
       </c>
     </row>
     <row r="849" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39257,16 +39263,16 @@
         <v>OccO_514020</v>
       </c>
       <c r="C849" s="5" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D849" s="7" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E849" s="6" t="s">
         <v>6058</v>
       </c>
-      <c r="D849" s="7" t="s">
+      <c r="F849" s="6" t="s">
         <v>6060</v>
-      </c>
-      <c r="E849" s="6" t="s">
-        <v>6059</v>
-      </c>
-      <c r="F849" s="6" t="s">
-        <v>6061</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39279,16 +39285,16 @@
         <v>OccO_514030</v>
       </c>
       <c r="C850" s="5" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D850" s="7" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E850" s="6" t="s">
         <v>6062</v>
       </c>
-      <c r="D850" s="7" t="s">
+      <c r="F850" s="6" t="s">
         <v>6064</v>
-      </c>
-      <c r="E850" s="6" t="s">
-        <v>6063</v>
-      </c>
-      <c r="F850" s="6" t="s">
-        <v>6065</v>
       </c>
     </row>
     <row r="851" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39301,16 +39307,16 @@
         <v>OccO_514030</v>
       </c>
       <c r="C851" s="5" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D851" s="7" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E851" s="6" t="s">
         <v>6066</v>
       </c>
-      <c r="D851" s="7" t="s">
+      <c r="F851" s="6" t="s">
         <v>6068</v>
-      </c>
-      <c r="E851" s="6" t="s">
-        <v>6067</v>
-      </c>
-      <c r="F851" s="6" t="s">
-        <v>6069</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39323,16 +39329,16 @@
         <v>OccO_514030</v>
       </c>
       <c r="C852" s="5" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D852" s="7" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E852" s="6" t="s">
         <v>6070</v>
       </c>
-      <c r="D852" s="7" t="s">
+      <c r="F852" s="6" t="s">
         <v>6072</v>
-      </c>
-      <c r="E852" s="6" t="s">
-        <v>6071</v>
-      </c>
-      <c r="F852" s="6" t="s">
-        <v>6073</v>
       </c>
     </row>
     <row r="853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39345,16 +39351,16 @@
         <v>OccO_514030</v>
       </c>
       <c r="C853" s="5" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D853" s="7" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E853" s="6" t="s">
         <v>6074</v>
       </c>
-      <c r="D853" s="7" t="s">
+      <c r="F853" s="6" t="s">
         <v>6076</v>
-      </c>
-      <c r="E853" s="6" t="s">
-        <v>6075</v>
-      </c>
-      <c r="F853" s="6" t="s">
-        <v>6077</v>
       </c>
     </row>
     <row r="854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39367,16 +39373,16 @@
         <v>OccO_514030</v>
       </c>
       <c r="C854" s="5" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D854" s="7" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E854" s="6" t="s">
         <v>6078</v>
       </c>
-      <c r="D854" s="7" t="s">
+      <c r="F854" s="6" t="s">
         <v>6080</v>
-      </c>
-      <c r="E854" s="6" t="s">
-        <v>6079</v>
-      </c>
-      <c r="F854" s="6" t="s">
-        <v>6081</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -39389,16 +39395,16 @@
         <v>OccO_514040</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="D855" s="7" t="s">
         <v>946</v>
       </c>
       <c r="E855" s="6" t="s">
+        <v>6082</v>
+      </c>
+      <c r="F855" s="6" t="s">
         <v>6083</v>
-      </c>
-      <c r="F855" s="6" t="s">
-        <v>6084</v>
       </c>
     </row>
     <row r="856" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39411,16 +39417,16 @@
         <v>OccO_514050</v>
       </c>
       <c r="C856" s="5" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D856" s="7" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E856" s="6" t="s">
         <v>6085</v>
       </c>
-      <c r="D856" s="7" t="s">
+      <c r="F856" s="6" t="s">
         <v>6087</v>
-      </c>
-      <c r="E856" s="6" t="s">
-        <v>6086</v>
-      </c>
-      <c r="F856" s="6" t="s">
-        <v>6088</v>
       </c>
     </row>
     <row r="857" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39433,16 +39439,16 @@
         <v>OccO_514050</v>
       </c>
       <c r="C857" s="5" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D857" s="7" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E857" s="6" t="s">
         <v>6089</v>
       </c>
-      <c r="D857" s="7" t="s">
+      <c r="F857" s="6" t="s">
         <v>6091</v>
-      </c>
-      <c r="E857" s="6" t="s">
-        <v>6090</v>
-      </c>
-      <c r="F857" s="6" t="s">
-        <v>6092</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39455,16 +39461,16 @@
         <v>OccO_514060</v>
       </c>
       <c r="C858" s="5" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D858" s="7" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E858" s="6" t="s">
         <v>6093</v>
       </c>
-      <c r="D858" s="7" t="s">
+      <c r="F858" s="6" t="s">
         <v>6095</v>
-      </c>
-      <c r="E858" s="6" t="s">
-        <v>6094</v>
-      </c>
-      <c r="F858" s="6" t="s">
-        <v>6096</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39477,16 +39483,16 @@
         <v>OccO_514060</v>
       </c>
       <c r="C859" s="5" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D859" s="7" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E859" s="6" t="s">
         <v>6097</v>
       </c>
-      <c r="D859" s="7" t="s">
+      <c r="F859" s="6" t="s">
         <v>6099</v>
-      </c>
-      <c r="E859" s="6" t="s">
-        <v>6098</v>
-      </c>
-      <c r="F859" s="6" t="s">
-        <v>6100</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -39499,16 +39505,16 @@
         <v>OccO_514070</v>
       </c>
       <c r="C860" s="5" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D860" s="7" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E860" s="6" t="s">
         <v>6101</v>
       </c>
-      <c r="D860" s="7" t="s">
+      <c r="F860" s="6" t="s">
         <v>6103</v>
-      </c>
-      <c r="E860" s="6" t="s">
-        <v>6102</v>
-      </c>
-      <c r="F860" s="6" t="s">
-        <v>6104</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39521,16 +39527,16 @@
         <v>OccO_514070</v>
       </c>
       <c r="C861" s="5" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D861" s="7" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E861" s="6" t="s">
         <v>6105</v>
       </c>
-      <c r="D861" s="7" t="s">
+      <c r="F861" s="6" t="s">
         <v>6107</v>
-      </c>
-      <c r="E861" s="6" t="s">
-        <v>6106</v>
-      </c>
-      <c r="F861" s="6" t="s">
-        <v>6108</v>
       </c>
     </row>
     <row r="862" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39543,16 +39549,16 @@
         <v>OccO_514080</v>
       </c>
       <c r="C862" s="5" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D862" s="7" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E862" s="6" t="s">
         <v>6109</v>
       </c>
-      <c r="D862" s="7" t="s">
+      <c r="F862" s="6" t="s">
         <v>6111</v>
-      </c>
-      <c r="E862" s="6" t="s">
-        <v>6110</v>
-      </c>
-      <c r="F862" s="6" t="s">
-        <v>6112</v>
       </c>
     </row>
     <row r="863" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39565,16 +39571,16 @@
         <v>OccO_514110</v>
       </c>
       <c r="C863" s="5" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D863" s="7" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E863" s="6" t="s">
         <v>6113</v>
       </c>
-      <c r="D863" s="7" t="s">
+      <c r="F863" s="6" t="s">
         <v>6115</v>
-      </c>
-      <c r="E863" s="6" t="s">
-        <v>6114</v>
-      </c>
-      <c r="F863" s="6" t="s">
-        <v>6116</v>
       </c>
     </row>
     <row r="864" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39587,16 +39593,16 @@
         <v>OccO_514120</v>
       </c>
       <c r="C864" s="5" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D864" s="7" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E864" s="6" t="s">
         <v>6117</v>
       </c>
-      <c r="D864" s="7" t="s">
+      <c r="F864" s="6" t="s">
         <v>6119</v>
-      </c>
-      <c r="E864" s="6" t="s">
-        <v>6118</v>
-      </c>
-      <c r="F864" s="6" t="s">
-        <v>6120</v>
       </c>
     </row>
     <row r="865" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39609,16 +39615,16 @@
         <v>OccO_514120</v>
       </c>
       <c r="C865" s="5" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D865" s="7" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E865" s="6" t="s">
         <v>6121</v>
       </c>
-      <c r="D865" s="7" t="s">
+      <c r="F865" s="6" t="s">
         <v>6123</v>
-      </c>
-      <c r="E865" s="6" t="s">
-        <v>6122</v>
-      </c>
-      <c r="F865" s="6" t="s">
-        <v>6124</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39631,16 +39637,16 @@
         <v>OccO_514190</v>
       </c>
       <c r="C866" s="5" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D866" s="7" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E866" s="6" t="s">
         <v>6125</v>
       </c>
-      <c r="D866" s="7" t="s">
+      <c r="F866" s="6" t="s">
         <v>6127</v>
-      </c>
-      <c r="E866" s="6" t="s">
-        <v>6126</v>
-      </c>
-      <c r="F866" s="6" t="s">
-        <v>6128</v>
       </c>
     </row>
     <row r="867" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39653,16 +39659,16 @@
         <v>OccO_514190</v>
       </c>
       <c r="C867" s="5" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D867" s="7" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E867" s="6" t="s">
         <v>6129</v>
       </c>
-      <c r="D867" s="7" t="s">
+      <c r="F867" s="6" t="s">
         <v>6131</v>
-      </c>
-      <c r="E867" s="6" t="s">
-        <v>6130</v>
-      </c>
-      <c r="F867" s="6" t="s">
-        <v>6132</v>
       </c>
     </row>
     <row r="868" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39675,16 +39681,16 @@
         <v>OccO_514190</v>
       </c>
       <c r="C868" s="5" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D868" s="7" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E868" s="6" t="s">
         <v>6133</v>
       </c>
-      <c r="D868" s="7" t="s">
+      <c r="F868" s="6" t="s">
         <v>6135</v>
-      </c>
-      <c r="E868" s="6" t="s">
-        <v>6134</v>
-      </c>
-      <c r="F868" s="6" t="s">
-        <v>6136</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
@@ -39697,16 +39703,16 @@
         <v>OccO_514190</v>
       </c>
       <c r="C869" s="5" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D869" s="7" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E869" s="6" t="s">
         <v>6137</v>
       </c>
-      <c r="D869" s="7" t="s">
+      <c r="F869" s="6" t="s">
         <v>6139</v>
-      </c>
-      <c r="E869" s="6" t="s">
-        <v>6138</v>
-      </c>
-      <c r="F869" s="6" t="s">
-        <v>6140</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
@@ -39719,16 +39725,16 @@
         <v>OccO_514190</v>
       </c>
       <c r="C870" s="5" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D870" s="7" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E870" s="6" t="s">
         <v>6141</v>
       </c>
-      <c r="D870" s="7" t="s">
+      <c r="F870" s="6" t="s">
         <v>6143</v>
-      </c>
-      <c r="E870" s="6" t="s">
-        <v>6142</v>
-      </c>
-      <c r="F870" s="6" t="s">
-        <v>6144</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39741,16 +39747,16 @@
         <v>OccO_515110</v>
       </c>
       <c r="C871" s="5" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D871" s="7" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E871" s="6" t="s">
         <v>6145</v>
       </c>
-      <c r="D871" s="7" t="s">
+      <c r="F871" s="6" t="s">
         <v>6147</v>
-      </c>
-      <c r="E871" s="6" t="s">
-        <v>6146</v>
-      </c>
-      <c r="F871" s="6" t="s">
-        <v>6148</v>
       </c>
     </row>
     <row r="872" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39763,16 +39769,16 @@
         <v>OccO_515110</v>
       </c>
       <c r="C872" s="5" t="s">
-        <v>6149</v>
+        <v>6148</v>
       </c>
       <c r="D872" s="7" t="s">
         <v>942</v>
       </c>
       <c r="E872" s="6" t="s">
+        <v>6149</v>
+      </c>
+      <c r="F872" s="6" t="s">
         <v>6150</v>
-      </c>
-      <c r="F872" s="6" t="s">
-        <v>6151</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39785,16 +39791,16 @@
         <v>OccO_515110</v>
       </c>
       <c r="C873" s="5" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D873" s="7" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E873" s="6" t="s">
         <v>6152</v>
       </c>
-      <c r="D873" s="7" t="s">
+      <c r="F873" s="6" t="s">
         <v>6154</v>
-      </c>
-      <c r="E873" s="6" t="s">
-        <v>6153</v>
-      </c>
-      <c r="F873" s="6" t="s">
-        <v>6155</v>
       </c>
     </row>
     <row r="874" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -39807,16 +39813,16 @@
         <v>OccO_516010</v>
       </c>
       <c r="C874" s="5" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D874" s="7" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E874" s="6" t="s">
         <v>6156</v>
       </c>
-      <c r="D874" s="7" t="s">
+      <c r="F874" s="6" t="s">
         <v>6158</v>
-      </c>
-      <c r="E874" s="6" t="s">
-        <v>6157</v>
-      </c>
-      <c r="F874" s="6" t="s">
-        <v>6159</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
@@ -39829,16 +39835,16 @@
         <v>OccO_516020</v>
       </c>
       <c r="C875" s="5" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D875" s="7" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E875" s="6" t="s">
         <v>6160</v>
       </c>
-      <c r="D875" s="7" t="s">
+      <c r="F875" s="6" t="s">
         <v>6162</v>
-      </c>
-      <c r="E875" s="6" t="s">
-        <v>6161</v>
-      </c>
-      <c r="F875" s="6" t="s">
-        <v>6163</v>
       </c>
     </row>
     <row r="876" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39851,16 +39857,16 @@
         <v>OccO_516030</v>
       </c>
       <c r="C876" s="5" t="s">
-        <v>6164</v>
+        <v>6163</v>
       </c>
       <c r="D876" s="7" t="s">
         <v>939</v>
       </c>
       <c r="E876" s="6" t="s">
+        <v>6164</v>
+      </c>
+      <c r="F876" s="6" t="s">
         <v>6165</v>
-      </c>
-      <c r="F876" s="6" t="s">
-        <v>6166</v>
       </c>
     </row>
     <row r="877" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39873,16 +39879,16 @@
         <v>OccO_516040</v>
       </c>
       <c r="C877" s="5" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D877" s="7" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E877" s="6" t="s">
         <v>6167</v>
       </c>
-      <c r="D877" s="7" t="s">
+      <c r="F877" s="6" t="s">
         <v>6169</v>
-      </c>
-      <c r="E877" s="6" t="s">
-        <v>6168</v>
-      </c>
-      <c r="F877" s="6" t="s">
-        <v>6170</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
@@ -39895,16 +39901,16 @@
         <v>OccO_516040</v>
       </c>
       <c r="C878" s="5" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D878" s="7" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E878" s="6" t="s">
         <v>6171</v>
       </c>
-      <c r="D878" s="7" t="s">
+      <c r="F878" s="6" t="s">
         <v>6173</v>
-      </c>
-      <c r="E878" s="6" t="s">
-        <v>6172</v>
-      </c>
-      <c r="F878" s="6" t="s">
-        <v>6174</v>
       </c>
     </row>
     <row r="879" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39917,16 +39923,16 @@
         <v>OccO_516050</v>
       </c>
       <c r="C879" s="5" t="s">
-        <v>6175</v>
+        <v>6174</v>
       </c>
       <c r="D879" s="7" t="s">
         <v>1690</v>
       </c>
       <c r="E879" s="6" t="s">
+        <v>6175</v>
+      </c>
+      <c r="F879" s="6" t="s">
         <v>6176</v>
-      </c>
-      <c r="F879" s="6" t="s">
-        <v>6177</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
@@ -39939,16 +39945,16 @@
         <v>OccO_516050</v>
       </c>
       <c r="C880" s="5" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D880" s="7" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E880" s="6" t="s">
         <v>6178</v>
       </c>
-      <c r="D880" s="7" t="s">
+      <c r="F880" s="6" t="s">
         <v>6180</v>
-      </c>
-      <c r="E880" s="6" t="s">
-        <v>6179</v>
-      </c>
-      <c r="F880" s="6" t="s">
-        <v>6181</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39961,16 +39967,16 @@
         <v>OccO_516060</v>
       </c>
       <c r="C881" s="5" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D881" s="7" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E881" s="6" t="s">
         <v>6182</v>
       </c>
-      <c r="D881" s="7" t="s">
+      <c r="F881" s="6" t="s">
         <v>6184</v>
-      </c>
-      <c r="E881" s="6" t="s">
-        <v>6183</v>
-      </c>
-      <c r="F881" s="6" t="s">
-        <v>6185</v>
       </c>
     </row>
     <row r="882" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -39983,16 +39989,16 @@
         <v>OccO_516060</v>
       </c>
       <c r="C882" s="5" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D882" s="7" t="s">
+        <v>6187</v>
+      </c>
+      <c r="E882" s="6" t="s">
         <v>6186</v>
       </c>
-      <c r="D882" s="7" t="s">
+      <c r="F882" s="6" t="s">
         <v>6188</v>
-      </c>
-      <c r="E882" s="6" t="s">
-        <v>6187</v>
-      </c>
-      <c r="F882" s="6" t="s">
-        <v>6189</v>
       </c>
     </row>
     <row r="883" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40005,16 +40011,16 @@
         <v>OccO_516060</v>
       </c>
       <c r="C883" s="5" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D883" s="7" t="s">
+        <v>6191</v>
+      </c>
+      <c r="E883" s="6" t="s">
         <v>6190</v>
       </c>
-      <c r="D883" s="7" t="s">
+      <c r="F883" s="6" t="s">
         <v>6192</v>
-      </c>
-      <c r="E883" s="6" t="s">
-        <v>6191</v>
-      </c>
-      <c r="F883" s="6" t="s">
-        <v>6193</v>
       </c>
     </row>
     <row r="884" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40027,16 +40033,16 @@
         <v>OccO_516060</v>
       </c>
       <c r="C884" s="5" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D884" s="7" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E884" s="6" t="s">
         <v>6194</v>
       </c>
-      <c r="D884" s="7" t="s">
+      <c r="F884" s="6" t="s">
         <v>6196</v>
-      </c>
-      <c r="E884" s="6" t="s">
-        <v>6195</v>
-      </c>
-      <c r="F884" s="6" t="s">
-        <v>6197</v>
       </c>
     </row>
     <row r="885" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40049,16 +40055,16 @@
         <v>OccO_516090</v>
       </c>
       <c r="C885" s="5" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D885" s="7" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E885" s="6" t="s">
         <v>6198</v>
       </c>
-      <c r="D885" s="7" t="s">
+      <c r="F885" s="6" t="s">
         <v>6200</v>
-      </c>
-      <c r="E885" s="6" t="s">
-        <v>6199</v>
-      </c>
-      <c r="F885" s="6" t="s">
-        <v>6201</v>
       </c>
     </row>
     <row r="886" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40071,16 +40077,16 @@
         <v>OccO_516090</v>
       </c>
       <c r="C886" s="5" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D886" s="7" t="s">
+        <v>6203</v>
+      </c>
+      <c r="E886" s="6" t="s">
         <v>6202</v>
       </c>
-      <c r="D886" s="7" t="s">
+      <c r="F886" s="6" t="s">
         <v>6204</v>
-      </c>
-      <c r="E886" s="6" t="s">
-        <v>6203</v>
-      </c>
-      <c r="F886" s="6" t="s">
-        <v>6205</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
@@ -40093,16 +40099,16 @@
         <v>OccO_516090</v>
       </c>
       <c r="C887" s="5" t="s">
-        <v>6206</v>
+        <v>6205</v>
       </c>
       <c r="D887" s="7" t="s">
         <v>937</v>
       </c>
       <c r="E887" s="6" t="s">
+        <v>6206</v>
+      </c>
+      <c r="F887" s="6" t="s">
         <v>6207</v>
-      </c>
-      <c r="F887" s="6" t="s">
-        <v>6208</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
@@ -40115,16 +40121,16 @@
         <v>OccO_516090</v>
       </c>
       <c r="C888" s="5" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D888" s="7" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E888" s="6" t="s">
         <v>6209</v>
       </c>
-      <c r="D888" s="7" t="s">
+      <c r="F888" s="6" t="s">
         <v>6211</v>
-      </c>
-      <c r="E888" s="6" t="s">
-        <v>6210</v>
-      </c>
-      <c r="F888" s="6" t="s">
-        <v>6212</v>
       </c>
     </row>
     <row r="889" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40137,16 +40143,16 @@
         <v>OccO_517010</v>
       </c>
       <c r="C889" s="5" t="s">
+        <v>6212</v>
+      </c>
+      <c r="D889" s="7" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E889" s="6" t="s">
         <v>6213</v>
       </c>
-      <c r="D889" s="7" t="s">
+      <c r="F889" s="6" t="s">
         <v>6215</v>
-      </c>
-      <c r="E889" s="6" t="s">
-        <v>6214</v>
-      </c>
-      <c r="F889" s="6" t="s">
-        <v>6216</v>
       </c>
     </row>
     <row r="890" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40159,16 +40165,16 @@
         <v>OccO_517020</v>
       </c>
       <c r="C890" s="5" t="s">
-        <v>6217</v>
+        <v>6216</v>
       </c>
       <c r="D890" s="7" t="s">
         <v>935</v>
       </c>
       <c r="E890" s="6" t="s">
+        <v>6217</v>
+      </c>
+      <c r="F890" s="6" t="s">
         <v>6218</v>
-      </c>
-      <c r="F890" s="6" t="s">
-        <v>6219</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40181,16 +40187,16 @@
         <v>OccO_517030</v>
       </c>
       <c r="C891" s="5" t="s">
-        <v>6220</v>
+        <v>6219</v>
       </c>
       <c r="D891" s="7" t="s">
         <v>1687</v>
       </c>
       <c r="E891" s="6" t="s">
+        <v>6220</v>
+      </c>
+      <c r="F891" s="6" t="s">
         <v>6221</v>
-      </c>
-      <c r="F891" s="6" t="s">
-        <v>6222</v>
       </c>
     </row>
     <row r="892" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40203,16 +40209,16 @@
         <v>OccO_517030</v>
       </c>
       <c r="C892" s="5" t="s">
-        <v>6223</v>
+        <v>6222</v>
       </c>
       <c r="D892" s="7" t="s">
         <v>1686</v>
       </c>
       <c r="E892" s="6" t="s">
+        <v>6223</v>
+      </c>
+      <c r="F892" s="6" t="s">
         <v>6224</v>
-      </c>
-      <c r="F892" s="6" t="s">
-        <v>6225</v>
       </c>
     </row>
     <row r="893" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40225,16 +40231,16 @@
         <v>OccO_517040</v>
       </c>
       <c r="C893" s="5" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D893" s="7" t="s">
+        <v>6227</v>
+      </c>
+      <c r="E893" s="6" t="s">
         <v>6226</v>
       </c>
-      <c r="D893" s="7" t="s">
+      <c r="F893" s="6" t="s">
         <v>6228</v>
-      </c>
-      <c r="E893" s="6" t="s">
-        <v>6227</v>
-      </c>
-      <c r="F893" s="6" t="s">
-        <v>6229</v>
       </c>
     </row>
     <row r="894" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40247,16 +40253,16 @@
         <v>OccO_517040</v>
       </c>
       <c r="C894" s="5" t="s">
+        <v>6229</v>
+      </c>
+      <c r="D894" s="7" t="s">
+        <v>6231</v>
+      </c>
+      <c r="E894" s="6" t="s">
         <v>6230</v>
       </c>
-      <c r="D894" s="7" t="s">
+      <c r="F894" s="6" t="s">
         <v>6232</v>
-      </c>
-      <c r="E894" s="6" t="s">
-        <v>6231</v>
-      </c>
-      <c r="F894" s="6" t="s">
-        <v>6233</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -40269,16 +40275,16 @@
         <v>OccO_517090</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
       <c r="D895" s="7" t="s">
         <v>1458</v>
       </c>
       <c r="E895" s="6" t="s">
+        <v>6234</v>
+      </c>
+      <c r="F895" s="6" t="s">
         <v>6235</v>
-      </c>
-      <c r="F895" s="6" t="s">
-        <v>6236</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40291,16 +40297,16 @@
         <v>OccO_518010</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="D896" s="7" t="s">
         <v>934</v>
       </c>
       <c r="E896" s="6" t="s">
+        <v>6237</v>
+      </c>
+      <c r="F896" s="6" t="s">
         <v>6238</v>
-      </c>
-      <c r="F896" s="6" t="s">
-        <v>6239</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
@@ -40313,16 +40319,16 @@
         <v>OccO_518010</v>
       </c>
       <c r="C897" s="5" t="s">
+        <v>6239</v>
+      </c>
+      <c r="D897" s="7" t="s">
+        <v>6241</v>
+      </c>
+      <c r="E897" s="6" t="s">
         <v>6240</v>
       </c>
-      <c r="D897" s="7" t="s">
+      <c r="F897" s="6" t="s">
         <v>6242</v>
-      </c>
-      <c r="E897" s="6" t="s">
-        <v>6241</v>
-      </c>
-      <c r="F897" s="6" t="s">
-        <v>6243</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40335,16 +40341,16 @@
         <v>OccO_518010</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>6244</v>
+        <v>6243</v>
       </c>
       <c r="D898" s="7" t="s">
         <v>932</v>
       </c>
       <c r="E898" s="6" t="s">
+        <v>6244</v>
+      </c>
+      <c r="F898" s="6" t="s">
         <v>6245</v>
-      </c>
-      <c r="F898" s="6" t="s">
-        <v>6246</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
@@ -40357,16 +40363,16 @@
         <v>OccO_518010</v>
       </c>
       <c r="C899" s="5" t="s">
+        <v>6246</v>
+      </c>
+      <c r="D899" s="7" t="s">
+        <v>6248</v>
+      </c>
+      <c r="E899" s="6" t="s">
         <v>6247</v>
       </c>
-      <c r="D899" s="7" t="s">
+      <c r="F899" s="6" t="s">
         <v>6249</v>
-      </c>
-      <c r="E899" s="6" t="s">
-        <v>6248</v>
-      </c>
-      <c r="F899" s="6" t="s">
-        <v>6250</v>
       </c>
     </row>
     <row r="900" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -40379,16 +40385,16 @@
         <v>OccO_518010</v>
       </c>
       <c r="C900" s="5" t="s">
+        <v>6250</v>
+      </c>
+      <c r="D900" s="7" t="s">
+        <v>6252</v>
+      </c>
+      <c r="E900" s="6" t="s">
         <v>6251</v>
       </c>
-      <c r="D900" s="7" t="s">
+      <c r="F900" s="6" t="s">
         <v>6253</v>
-      </c>
-      <c r="E900" s="6" t="s">
-        <v>6252</v>
-      </c>
-      <c r="F900" s="6" t="s">
-        <v>6254</v>
       </c>
     </row>
     <row r="901" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40401,16 +40407,16 @@
         <v>OccO_518020</v>
       </c>
       <c r="C901" s="5" t="s">
+        <v>6254</v>
+      </c>
+      <c r="D901" s="7" t="s">
+        <v>6256</v>
+      </c>
+      <c r="E901" s="6" t="s">
         <v>6255</v>
       </c>
-      <c r="D901" s="7" t="s">
+      <c r="F901" s="6" t="s">
         <v>6257</v>
-      </c>
-      <c r="E901" s="6" t="s">
-        <v>6256</v>
-      </c>
-      <c r="F901" s="6" t="s">
-        <v>6258</v>
       </c>
     </row>
     <row r="902" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40423,16 +40429,16 @@
         <v>OccO_518030</v>
       </c>
       <c r="C902" s="5" t="s">
+        <v>6258</v>
+      </c>
+      <c r="D902" s="7" t="s">
+        <v>6260</v>
+      </c>
+      <c r="E902" s="6" t="s">
         <v>6259</v>
       </c>
-      <c r="D902" s="7" t="s">
+      <c r="F902" s="6" t="s">
         <v>6261</v>
-      </c>
-      <c r="E902" s="6" t="s">
-        <v>6260</v>
-      </c>
-      <c r="F902" s="6" t="s">
-        <v>6262</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
@@ -40445,16 +40451,16 @@
         <v>OccO_518090</v>
       </c>
       <c r="C903" s="5" t="s">
+        <v>6262</v>
+      </c>
+      <c r="D903" s="7" t="s">
+        <v>6264</v>
+      </c>
+      <c r="E903" s="6" t="s">
         <v>6263</v>
       </c>
-      <c r="D903" s="7" t="s">
+      <c r="F903" s="6" t="s">
         <v>6265</v>
-      </c>
-      <c r="E903" s="6" t="s">
-        <v>6264</v>
-      </c>
-      <c r="F903" s="6" t="s">
-        <v>6266</v>
       </c>
     </row>
     <row r="904" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40467,16 +40473,16 @@
         <v>OccO_518090</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>6267</v>
+        <v>6266</v>
       </c>
       <c r="D904" s="7" t="s">
         <v>928</v>
       </c>
       <c r="E904" s="6" t="s">
+        <v>6267</v>
+      </c>
+      <c r="F904" s="6" t="s">
         <v>6268</v>
-      </c>
-      <c r="F904" s="6" t="s">
-        <v>6269</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40489,16 +40495,16 @@
         <v>OccO_518090</v>
       </c>
       <c r="C905" s="5" t="s">
+        <v>6269</v>
+      </c>
+      <c r="D905" s="7" t="s">
+        <v>6271</v>
+      </c>
+      <c r="E905" s="6" t="s">
         <v>6270</v>
       </c>
-      <c r="D905" s="7" t="s">
+      <c r="F905" s="6" t="s">
         <v>6272</v>
-      </c>
-      <c r="E905" s="6" t="s">
-        <v>6271</v>
-      </c>
-      <c r="F905" s="6" t="s">
-        <v>6273</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
@@ -40511,16 +40517,16 @@
         <v>OccO_518090</v>
       </c>
       <c r="C906" s="5" t="s">
+        <v>6273</v>
+      </c>
+      <c r="D906" s="7" t="s">
+        <v>6275</v>
+      </c>
+      <c r="E906" s="6" t="s">
         <v>6274</v>
       </c>
-      <c r="D906" s="7" t="s">
+      <c r="F906" s="6" t="s">
         <v>6276</v>
-      </c>
-      <c r="E906" s="6" t="s">
-        <v>6275</v>
-      </c>
-      <c r="F906" s="6" t="s">
-        <v>6277</v>
       </c>
     </row>
     <row r="907" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40533,16 +40539,16 @@
         <v>OccO_518090</v>
       </c>
       <c r="C907" s="5" t="s">
+        <v>6277</v>
+      </c>
+      <c r="D907" s="7" t="s">
+        <v>6279</v>
+      </c>
+      <c r="E907" s="6" t="s">
         <v>6278</v>
       </c>
-      <c r="D907" s="7" t="s">
+      <c r="F907" s="6" t="s">
         <v>6280</v>
-      </c>
-      <c r="E907" s="6" t="s">
-        <v>6279</v>
-      </c>
-      <c r="F907" s="6" t="s">
-        <v>6281</v>
       </c>
     </row>
     <row r="908" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40555,16 +40561,16 @@
         <v>OccO_519010</v>
       </c>
       <c r="C908" s="5" t="s">
+        <v>6281</v>
+      </c>
+      <c r="D908" s="7" t="s">
+        <v>6283</v>
+      </c>
+      <c r="E908" s="6" t="s">
         <v>6282</v>
       </c>
-      <c r="D908" s="7" t="s">
+      <c r="F908" s="6" t="s">
         <v>6284</v>
-      </c>
-      <c r="E908" s="6" t="s">
-        <v>6283</v>
-      </c>
-      <c r="F908" s="6" t="s">
-        <v>6285</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -40577,16 +40583,16 @@
         <v>OccO_519010</v>
       </c>
       <c r="C909" s="5" t="s">
+        <v>6285</v>
+      </c>
+      <c r="D909" s="7" t="s">
+        <v>6287</v>
+      </c>
+      <c r="E909" s="6" t="s">
         <v>6286</v>
       </c>
-      <c r="D909" s="7" t="s">
+      <c r="F909" s="6" t="s">
         <v>6288</v>
-      </c>
-      <c r="E909" s="6" t="s">
-        <v>6287</v>
-      </c>
-      <c r="F909" s="6" t="s">
-        <v>6289</v>
       </c>
     </row>
     <row r="910" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40599,16 +40605,16 @@
         <v>OccO_519020</v>
       </c>
       <c r="C910" s="5" t="s">
+        <v>6289</v>
+      </c>
+      <c r="D910" s="7" t="s">
+        <v>6291</v>
+      </c>
+      <c r="E910" s="6" t="s">
         <v>6290</v>
       </c>
-      <c r="D910" s="7" t="s">
+      <c r="F910" s="6" t="s">
         <v>6292</v>
-      </c>
-      <c r="E910" s="6" t="s">
-        <v>6291</v>
-      </c>
-      <c r="F910" s="6" t="s">
-        <v>6293</v>
       </c>
     </row>
     <row r="911" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40621,16 +40627,16 @@
         <v>OccO_519020</v>
       </c>
       <c r="C911" s="5" t="s">
+        <v>6293</v>
+      </c>
+      <c r="D911" s="7" t="s">
+        <v>6295</v>
+      </c>
+      <c r="E911" s="6" t="s">
         <v>6294</v>
       </c>
-      <c r="D911" s="7" t="s">
+      <c r="F911" s="6" t="s">
         <v>6296</v>
-      </c>
-      <c r="E911" s="6" t="s">
-        <v>6295</v>
-      </c>
-      <c r="F911" s="6" t="s">
-        <v>6297</v>
       </c>
     </row>
     <row r="912" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40643,16 +40649,16 @@
         <v>OccO_519020</v>
       </c>
       <c r="C912" s="5" t="s">
+        <v>6297</v>
+      </c>
+      <c r="D912" s="7" t="s">
+        <v>6299</v>
+      </c>
+      <c r="E912" s="6" t="s">
         <v>6298</v>
       </c>
-      <c r="D912" s="7" t="s">
+      <c r="F912" s="6" t="s">
         <v>6300</v>
-      </c>
-      <c r="E912" s="6" t="s">
-        <v>6299</v>
-      </c>
-      <c r="F912" s="6" t="s">
-        <v>6301</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40665,16 +40671,16 @@
         <v>OccO_519030</v>
       </c>
       <c r="C913" s="5" t="s">
+        <v>6301</v>
+      </c>
+      <c r="D913" s="7" t="s">
+        <v>6303</v>
+      </c>
+      <c r="E913" s="6" t="s">
         <v>6302</v>
       </c>
-      <c r="D913" s="7" t="s">
+      <c r="F913" s="6" t="s">
         <v>6304</v>
-      </c>
-      <c r="E913" s="6" t="s">
-        <v>6303</v>
-      </c>
-      <c r="F913" s="6" t="s">
-        <v>6305</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40687,16 +40693,16 @@
         <v>OccO_519030</v>
       </c>
       <c r="C914" s="5" t="s">
+        <v>6305</v>
+      </c>
+      <c r="D914" s="7" t="s">
+        <v>6307</v>
+      </c>
+      <c r="E914" s="6" t="s">
         <v>6306</v>
       </c>
-      <c r="D914" s="7" t="s">
+      <c r="F914" s="6" t="s">
         <v>6308</v>
-      </c>
-      <c r="E914" s="6" t="s">
-        <v>6307</v>
-      </c>
-      <c r="F914" s="6" t="s">
-        <v>6309</v>
       </c>
     </row>
     <row r="915" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40709,16 +40715,16 @@
         <v>OccO_519040</v>
       </c>
       <c r="C915" s="5" t="s">
+        <v>6309</v>
+      </c>
+      <c r="D915" s="7" t="s">
+        <v>6311</v>
+      </c>
+      <c r="E915" s="6" t="s">
         <v>6310</v>
       </c>
-      <c r="D915" s="7" t="s">
+      <c r="F915" s="6" t="s">
         <v>6312</v>
-      </c>
-      <c r="E915" s="6" t="s">
-        <v>6311</v>
-      </c>
-      <c r="F915" s="6" t="s">
-        <v>6313</v>
       </c>
     </row>
     <row r="916" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40731,16 +40737,16 @@
         <v>OccO_519050</v>
       </c>
       <c r="C916" s="5" t="s">
+        <v>6313</v>
+      </c>
+      <c r="D916" s="7" t="s">
+        <v>6315</v>
+      </c>
+      <c r="E916" s="6" t="s">
         <v>6314</v>
       </c>
-      <c r="D916" s="7" t="s">
+      <c r="F916" s="6" t="s">
         <v>6316</v>
-      </c>
-      <c r="E916" s="6" t="s">
-        <v>6315</v>
-      </c>
-      <c r="F916" s="6" t="s">
-        <v>6317</v>
       </c>
     </row>
     <row r="917" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40753,16 +40759,16 @@
         <v>OccO_519060</v>
       </c>
       <c r="C917" s="5" t="s">
+        <v>6317</v>
+      </c>
+      <c r="D917" s="7" t="s">
+        <v>6319</v>
+      </c>
+      <c r="E917" s="6" t="s">
         <v>6318</v>
       </c>
-      <c r="D917" s="7" t="s">
+      <c r="F917" s="6" t="s">
         <v>6320</v>
-      </c>
-      <c r="E917" s="6" t="s">
-        <v>6319</v>
-      </c>
-      <c r="F917" s="6" t="s">
-        <v>6321</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -40775,16 +40781,16 @@
         <v>OccO_519070</v>
       </c>
       <c r="C918" s="5" t="s">
+        <v>6321</v>
+      </c>
+      <c r="D918" s="7" t="s">
+        <v>6323</v>
+      </c>
+      <c r="E918" s="6" t="s">
         <v>6322</v>
       </c>
-      <c r="D918" s="7" t="s">
+      <c r="F918" s="6" t="s">
         <v>6324</v>
-      </c>
-      <c r="E918" s="6" t="s">
-        <v>6323</v>
-      </c>
-      <c r="F918" s="6" t="s">
-        <v>6325</v>
       </c>
     </row>
     <row r="919" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40797,16 +40803,16 @@
         <v>OccO_519070</v>
       </c>
       <c r="C919" s="5" t="s">
+        <v>6325</v>
+      </c>
+      <c r="D919" s="7" t="s">
+        <v>6327</v>
+      </c>
+      <c r="E919" s="6" t="s">
         <v>6326</v>
       </c>
-      <c r="D919" s="7" t="s">
+      <c r="F919" s="6" t="s">
         <v>6328</v>
-      </c>
-      <c r="E919" s="6" t="s">
-        <v>6327</v>
-      </c>
-      <c r="F919" s="6" t="s">
-        <v>6329</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
@@ -40819,16 +40825,16 @@
         <v>OccO_519080</v>
       </c>
       <c r="C920" s="5" t="s">
-        <v>6330</v>
+        <v>6329</v>
       </c>
       <c r="D920" s="7" t="s">
         <v>926</v>
       </c>
       <c r="E920" s="6" t="s">
+        <v>6330</v>
+      </c>
+      <c r="F920" s="6" t="s">
         <v>6331</v>
-      </c>
-      <c r="F920" s="6" t="s">
-        <v>6332</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40841,16 +40847,16 @@
         <v>OccO_519080</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>6333</v>
+        <v>6332</v>
       </c>
       <c r="D921" s="7" t="s">
         <v>925</v>
       </c>
       <c r="E921" s="6" t="s">
+        <v>6333</v>
+      </c>
+      <c r="F921" s="6" t="s">
         <v>6334</v>
-      </c>
-      <c r="F921" s="6" t="s">
-        <v>6335</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40863,16 +40869,16 @@
         <v>OccO_519080</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>6336</v>
+        <v>6335</v>
       </c>
       <c r="D922" s="7" t="s">
         <v>924</v>
       </c>
       <c r="E922" s="6" t="s">
+        <v>6336</v>
+      </c>
+      <c r="F922" s="6" t="s">
         <v>6337</v>
-      </c>
-      <c r="F922" s="6" t="s">
-        <v>6338</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40885,16 +40891,16 @@
         <v>OccO_519110</v>
       </c>
       <c r="C923" s="5" t="s">
+        <v>6338</v>
+      </c>
+      <c r="D923" s="7" t="s">
+        <v>6340</v>
+      </c>
+      <c r="E923" s="6" t="s">
         <v>6339</v>
       </c>
-      <c r="D923" s="7" t="s">
+      <c r="F923" s="6" t="s">
         <v>6341</v>
-      </c>
-      <c r="E923" s="6" t="s">
-        <v>6340</v>
-      </c>
-      <c r="F923" s="6" t="s">
-        <v>6342</v>
       </c>
     </row>
     <row r="924" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40907,16 +40913,16 @@
         <v>OccO_519120</v>
       </c>
       <c r="C924" s="5" t="s">
+        <v>6342</v>
+      </c>
+      <c r="D924" s="7" t="s">
+        <v>6344</v>
+      </c>
+      <c r="E924" s="6" t="s">
         <v>6343</v>
       </c>
-      <c r="D924" s="7" t="s">
+      <c r="F924" s="6" t="s">
         <v>6345</v>
-      </c>
-      <c r="E924" s="6" t="s">
-        <v>6344</v>
-      </c>
-      <c r="F924" s="6" t="s">
-        <v>6346</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -40929,16 +40935,16 @@
         <v>OccO_519120</v>
       </c>
       <c r="C925" s="5" t="s">
+        <v>6346</v>
+      </c>
+      <c r="D925" s="7" t="s">
+        <v>6348</v>
+      </c>
+      <c r="E925" s="6" t="s">
         <v>6347</v>
       </c>
-      <c r="D925" s="7" t="s">
+      <c r="F925" s="6" t="s">
         <v>6349</v>
-      </c>
-      <c r="E925" s="6" t="s">
-        <v>6348</v>
-      </c>
-      <c r="F925" s="6" t="s">
-        <v>6350</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -40951,16 +40957,16 @@
         <v>OccO_519140</v>
       </c>
       <c r="C926" s="5" t="s">
-        <v>6351</v>
+        <v>6350</v>
       </c>
       <c r="D926" s="7" t="s">
         <v>922</v>
       </c>
       <c r="E926" s="6" t="s">
+        <v>6351</v>
+      </c>
+      <c r="F926" s="6" t="s">
         <v>6352</v>
-      </c>
-      <c r="F926" s="6" t="s">
-        <v>6353</v>
       </c>
     </row>
     <row r="927" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40973,16 +40979,16 @@
         <v>OccO_519150</v>
       </c>
       <c r="C927" s="5" t="s">
+        <v>6353</v>
+      </c>
+      <c r="D927" s="7" t="s">
+        <v>6355</v>
+      </c>
+      <c r="E927" s="6" t="s">
         <v>6354</v>
       </c>
-      <c r="D927" s="7" t="s">
+      <c r="F927" s="6" t="s">
         <v>6356</v>
-      </c>
-      <c r="E927" s="6" t="s">
-        <v>6355</v>
-      </c>
-      <c r="F927" s="6" t="s">
-        <v>6357</v>
       </c>
     </row>
     <row r="928" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -40995,16 +41001,16 @@
         <v>OccO_519160</v>
       </c>
       <c r="C928" s="5" t="s">
-        <v>6358</v>
+        <v>6357</v>
       </c>
       <c r="D928" s="7" t="s">
         <v>921</v>
       </c>
       <c r="E928" s="6" t="s">
+        <v>6358</v>
+      </c>
+      <c r="F928" s="6" t="s">
         <v>6359</v>
-      </c>
-      <c r="F928" s="6" t="s">
-        <v>6360</v>
       </c>
     </row>
     <row r="929" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41017,16 +41023,16 @@
         <v>OccO_519160</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>6361</v>
+        <v>6360</v>
       </c>
       <c r="D929" s="7" t="s">
         <v>920</v>
       </c>
       <c r="E929" s="6" t="s">
+        <v>6361</v>
+      </c>
+      <c r="F929" s="6" t="s">
         <v>6362</v>
-      </c>
-      <c r="F929" s="6" t="s">
-        <v>6363</v>
       </c>
     </row>
     <row r="930" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -41039,16 +41045,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C930" s="5" t="s">
+        <v>6363</v>
+      </c>
+      <c r="D930" s="7" t="s">
+        <v>6365</v>
+      </c>
+      <c r="E930" s="6" t="s">
         <v>6364</v>
       </c>
-      <c r="D930" s="7" t="s">
+      <c r="F930" s="6" t="s">
         <v>6366</v>
-      </c>
-      <c r="E930" s="6" t="s">
-        <v>6365</v>
-      </c>
-      <c r="F930" s="6" t="s">
-        <v>6367</v>
       </c>
     </row>
     <row r="931" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41061,16 +41067,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C931" s="5" t="s">
+        <v>6367</v>
+      </c>
+      <c r="D931" s="7" t="s">
+        <v>6369</v>
+      </c>
+      <c r="E931" s="6" t="s">
         <v>6368</v>
       </c>
-      <c r="D931" s="7" t="s">
+      <c r="F931" s="6" t="s">
         <v>6370</v>
-      </c>
-      <c r="E931" s="6" t="s">
-        <v>6369</v>
-      </c>
-      <c r="F931" s="6" t="s">
-        <v>6371</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41083,16 +41089,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C932" s="5" t="s">
+        <v>6371</v>
+      </c>
+      <c r="D932" s="7" t="s">
+        <v>6373</v>
+      </c>
+      <c r="E932" s="6" t="s">
         <v>6372</v>
       </c>
-      <c r="D932" s="7" t="s">
+      <c r="F932" s="6" t="s">
         <v>6374</v>
-      </c>
-      <c r="E932" s="6" t="s">
-        <v>6373</v>
-      </c>
-      <c r="F932" s="6" t="s">
-        <v>6375</v>
       </c>
     </row>
     <row r="933" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41105,16 +41111,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C933" s="5" t="s">
+        <v>6375</v>
+      </c>
+      <c r="D933" s="7" t="s">
+        <v>6377</v>
+      </c>
+      <c r="E933" s="6" t="s">
         <v>6376</v>
       </c>
-      <c r="D933" s="7" t="s">
+      <c r="F933" s="6" t="s">
         <v>6378</v>
-      </c>
-      <c r="E933" s="6" t="s">
-        <v>6377</v>
-      </c>
-      <c r="F933" s="6" t="s">
-        <v>6379</v>
       </c>
     </row>
     <row r="934" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41127,16 +41133,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C934" s="5" t="s">
+        <v>6379</v>
+      </c>
+      <c r="D934" s="7" t="s">
+        <v>6381</v>
+      </c>
+      <c r="E934" s="6" t="s">
         <v>6380</v>
       </c>
-      <c r="D934" s="7" t="s">
+      <c r="F934" s="6" t="s">
         <v>6382</v>
-      </c>
-      <c r="E934" s="6" t="s">
-        <v>6381</v>
-      </c>
-      <c r="F934" s="6" t="s">
-        <v>6383</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
@@ -41149,16 +41155,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C935" s="5" t="s">
+        <v>6383</v>
+      </c>
+      <c r="D935" s="7" t="s">
+        <v>6385</v>
+      </c>
+      <c r="E935" s="6" t="s">
         <v>6384</v>
       </c>
-      <c r="D935" s="7" t="s">
+      <c r="F935" s="6" t="s">
         <v>6386</v>
-      </c>
-      <c r="E935" s="6" t="s">
-        <v>6385</v>
-      </c>
-      <c r="F935" s="6" t="s">
-        <v>6387</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.25">
@@ -41171,16 +41177,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C936" s="5" t="s">
+        <v>6387</v>
+      </c>
+      <c r="D936" s="7" t="s">
+        <v>6389</v>
+      </c>
+      <c r="E936" s="6" t="s">
         <v>6388</v>
       </c>
-      <c r="D936" s="7" t="s">
+      <c r="F936" s="6" t="s">
         <v>6390</v>
-      </c>
-      <c r="E936" s="6" t="s">
-        <v>6389</v>
-      </c>
-      <c r="F936" s="6" t="s">
-        <v>6391</v>
       </c>
     </row>
     <row r="937" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41193,16 +41199,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C937" s="5" t="s">
+        <v>6391</v>
+      </c>
+      <c r="D937" s="7" t="s">
+        <v>6393</v>
+      </c>
+      <c r="E937" s="6" t="s">
         <v>6392</v>
       </c>
-      <c r="D937" s="7" t="s">
+      <c r="F937" s="6" t="s">
         <v>6394</v>
-      </c>
-      <c r="E937" s="6" t="s">
-        <v>6393</v>
-      </c>
-      <c r="F937" s="6" t="s">
-        <v>6395</v>
       </c>
     </row>
     <row r="938" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -41215,16 +41221,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C938" s="5" t="s">
+        <v>6395</v>
+      </c>
+      <c r="D938" s="7" t="s">
+        <v>6397</v>
+      </c>
+      <c r="E938" s="6" t="s">
         <v>6396</v>
       </c>
-      <c r="D938" s="7" t="s">
+      <c r="F938" s="6" t="s">
         <v>6398</v>
-      </c>
-      <c r="E938" s="6" t="s">
-        <v>6397</v>
-      </c>
-      <c r="F938" s="6" t="s">
-        <v>6399</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.25">
@@ -41237,16 +41243,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C939" s="5" t="s">
-        <v>6400</v>
+        <v>6399</v>
       </c>
       <c r="D939" s="7" t="s">
         <v>919</v>
       </c>
       <c r="E939" s="6" t="s">
+        <v>6400</v>
+      </c>
+      <c r="F939" s="6" t="s">
         <v>6401</v>
-      </c>
-      <c r="F939" s="6" t="s">
-        <v>6402</v>
       </c>
     </row>
     <row r="940" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41259,16 +41265,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C940" s="5" t="s">
-        <v>6403</v>
+        <v>6402</v>
       </c>
       <c r="D940" s="7" t="s">
         <v>918</v>
       </c>
       <c r="E940" s="6" t="s">
+        <v>6403</v>
+      </c>
+      <c r="F940" s="6" t="s">
         <v>6404</v>
-      </c>
-      <c r="F940" s="6" t="s">
-        <v>6405</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.25">
@@ -41281,16 +41287,16 @@
         <v>OccO_519190</v>
       </c>
       <c r="C941" s="5" t="s">
-        <v>6406</v>
+        <v>6405</v>
       </c>
       <c r="D941" s="7" t="s">
         <v>1455</v>
       </c>
       <c r="E941" s="6" t="s">
+        <v>6406</v>
+      </c>
+      <c r="F941" s="6" t="s">
         <v>6407</v>
-      </c>
-      <c r="F941" s="6" t="s">
-        <v>6408</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -41303,16 +41309,16 @@
         <v>OccO_531040</v>
       </c>
       <c r="C942" s="5" t="s">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="D942" s="7" t="s">
         <v>917</v>
       </c>
       <c r="E942" s="6" t="s">
+        <v>6409</v>
+      </c>
+      <c r="F942" s="6" t="s">
         <v>6410</v>
-      </c>
-      <c r="F942" s="6" t="s">
-        <v>6411</v>
       </c>
     </row>
     <row r="943" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41325,16 +41331,16 @@
         <v>OccO_531040</v>
       </c>
       <c r="C943" s="5" t="s">
+        <v>6411</v>
+      </c>
+      <c r="D943" s="7" t="s">
+        <v>6413</v>
+      </c>
+      <c r="E943" s="6" t="s">
         <v>6412</v>
       </c>
-      <c r="D943" s="7" t="s">
+      <c r="F943" s="6" t="s">
         <v>6414</v>
-      </c>
-      <c r="E943" s="6" t="s">
-        <v>6413</v>
-      </c>
-      <c r="F943" s="6" t="s">
-        <v>6415</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.25">
@@ -41347,16 +41353,16 @@
         <v>OccO_531040</v>
       </c>
       <c r="C944" s="5" t="s">
+        <v>6415</v>
+      </c>
+      <c r="D944" s="7" t="s">
+        <v>6417</v>
+      </c>
+      <c r="E944" s="6" t="s">
         <v>6416</v>
       </c>
-      <c r="D944" s="7" t="s">
+      <c r="F944" s="6" t="s">
         <v>6418</v>
-      </c>
-      <c r="E944" s="6" t="s">
-        <v>6417</v>
-      </c>
-      <c r="F944" s="6" t="s">
-        <v>6419</v>
       </c>
     </row>
     <row r="945" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41369,16 +41375,16 @@
         <v>OccO_531040</v>
       </c>
       <c r="C945" s="5" t="s">
+        <v>6419</v>
+      </c>
+      <c r="D945" s="7" t="s">
+        <v>6421</v>
+      </c>
+      <c r="E945" s="6" t="s">
         <v>6420</v>
       </c>
-      <c r="D945" s="7" t="s">
+      <c r="F945" s="6" t="s">
         <v>6422</v>
-      </c>
-      <c r="E945" s="6" t="s">
-        <v>6421</v>
-      </c>
-      <c r="F945" s="6" t="s">
-        <v>6423</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.25">
@@ -41391,16 +41397,16 @@
         <v>OccO_531040</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="D946" s="7" t="s">
         <v>1431</v>
       </c>
       <c r="E946" s="6" t="s">
+        <v>6424</v>
+      </c>
+      <c r="F946" s="6" t="s">
         <v>6425</v>
-      </c>
-      <c r="F946" s="6" t="s">
-        <v>6426</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41413,16 +41419,16 @@
         <v>OccO_531040</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="D947" s="7" t="s">
         <v>1454</v>
       </c>
       <c r="E947" s="6" t="s">
+        <v>6427</v>
+      </c>
+      <c r="F947" s="6" t="s">
         <v>6428</v>
-      </c>
-      <c r="F947" s="6" t="s">
-        <v>6429</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -41435,16 +41441,16 @@
         <v>OccO_532010</v>
       </c>
       <c r="C948" s="5" t="s">
+        <v>6429</v>
+      </c>
+      <c r="D948" s="7" t="s">
+        <v>6431</v>
+      </c>
+      <c r="E948" s="6" t="s">
         <v>6430</v>
       </c>
-      <c r="D948" s="7" t="s">
+      <c r="F948" s="6" t="s">
         <v>6432</v>
-      </c>
-      <c r="E948" s="6" t="s">
-        <v>6431</v>
-      </c>
-      <c r="F948" s="6" t="s">
-        <v>6433</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -41457,16 +41463,16 @@
         <v>OccO_532010</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="D949" s="7" t="s">
         <v>916</v>
       </c>
       <c r="E949" s="6" t="s">
+        <v>6434</v>
+      </c>
+      <c r="F949" s="6" t="s">
         <v>6435</v>
-      </c>
-      <c r="F949" s="6" t="s">
-        <v>6436</v>
       </c>
     </row>
     <row r="950" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -41479,16 +41485,16 @@
         <v>OccO_532020</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="D950" s="7" t="s">
         <v>915</v>
       </c>
       <c r="E950" s="6" t="s">
+        <v>6437</v>
+      </c>
+      <c r="F950" s="6" t="s">
         <v>6438</v>
-      </c>
-      <c r="F950" s="6" t="s">
-        <v>6439</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -41501,16 +41507,16 @@
         <v>OccO_532020</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>6440</v>
+        <v>6439</v>
       </c>
       <c r="D951" s="7" t="s">
         <v>914</v>
       </c>
       <c r="E951" s="6" t="s">
+        <v>6440</v>
+      </c>
+      <c r="F951" s="6" t="s">
         <v>6441</v>
-      </c>
-      <c r="F951" s="6" t="s">
-        <v>6442</v>
       </c>
     </row>
     <row r="952" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41523,16 +41529,16 @@
         <v>OccO_532030</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="D952" s="7" t="s">
         <v>913</v>
       </c>
       <c r="E952" s="6" t="s">
+        <v>6443</v>
+      </c>
+      <c r="F952" s="6" t="s">
         <v>6444</v>
-      </c>
-      <c r="F952" s="6" t="s">
-        <v>6445</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41545,16 +41551,16 @@
         <v>OccO_533010</v>
       </c>
       <c r="C953" s="5" t="s">
+        <v>6445</v>
+      </c>
+      <c r="D953" s="7" t="s">
+        <v>6447</v>
+      </c>
+      <c r="E953" s="6" t="s">
         <v>6446</v>
       </c>
-      <c r="D953" s="7" t="s">
+      <c r="F953" s="6" t="s">
         <v>6448</v>
-      </c>
-      <c r="E953" s="6" t="s">
-        <v>6447</v>
-      </c>
-      <c r="F953" s="6" t="s">
-        <v>6449</v>
       </c>
     </row>
     <row r="954" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -41567,16 +41573,16 @@
         <v>OccO_533030</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D954" s="7" t="s">
         <v>912</v>
       </c>
       <c r="E954" s="6" t="s">
+        <v>6450</v>
+      </c>
+      <c r="F954" s="6" t="s">
         <v>6451</v>
-      </c>
-      <c r="F954" s="6" t="s">
-        <v>6452</v>
       </c>
     </row>
     <row r="955" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -41589,16 +41595,16 @@
         <v>OccO_533030</v>
       </c>
       <c r="C955" s="5" t="s">
+        <v>6452</v>
+      </c>
+      <c r="D955" s="7" t="s">
+        <v>6454</v>
+      </c>
+      <c r="E955" s="6" t="s">
         <v>6453</v>
       </c>
-      <c r="D955" s="7" t="s">
+      <c r="F955" s="6" t="s">
         <v>6455</v>
-      </c>
-      <c r="E955" s="6" t="s">
-        <v>6454</v>
-      </c>
-      <c r="F955" s="6" t="s">
-        <v>6456</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -41611,16 +41617,16 @@
         <v>OccO_533030</v>
       </c>
       <c r="C956" s="5" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="D956" s="7" t="s">
         <v>910</v>
       </c>
       <c r="E956" s="6" t="s">
+        <v>6457</v>
+      </c>
+      <c r="F956" s="6" t="s">
         <v>6458</v>
-      </c>
-      <c r="F956" s="6" t="s">
-        <v>6459</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41633,16 +41639,16 @@
         <v>OccO_533050</v>
       </c>
       <c r="C957" s="5" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="D957" s="7" t="s">
         <v>1426</v>
       </c>
       <c r="E957" s="6" t="s">
+        <v>6460</v>
+      </c>
+      <c r="F957" s="6" t="s">
         <v>6461</v>
-      </c>
-      <c r="F957" s="6" t="s">
-        <v>6462</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41655,16 +41661,16 @@
         <v>OccO_533050</v>
       </c>
       <c r="C958" s="5" t="s">
+        <v>6462</v>
+      </c>
+      <c r="D958" s="7" t="s">
+        <v>6464</v>
+      </c>
+      <c r="E958" s="6" t="s">
         <v>6463</v>
       </c>
-      <c r="D958" s="7" t="s">
+      <c r="F958" s="6" t="s">
         <v>6465</v>
-      </c>
-      <c r="E958" s="6" t="s">
-        <v>6464</v>
-      </c>
-      <c r="F958" s="6" t="s">
-        <v>6466</v>
       </c>
     </row>
     <row r="959" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41677,16 +41683,16 @@
         <v>OccO_533050</v>
       </c>
       <c r="C959" s="5" t="s">
+        <v>6466</v>
+      </c>
+      <c r="D959" s="7" t="s">
+        <v>6468</v>
+      </c>
+      <c r="E959" s="6" t="s">
         <v>6467</v>
       </c>
-      <c r="D959" s="7" t="s">
+      <c r="F959" s="6" t="s">
         <v>6469</v>
-      </c>
-      <c r="E959" s="6" t="s">
-        <v>6468</v>
-      </c>
-      <c r="F959" s="6" t="s">
-        <v>6470</v>
       </c>
     </row>
     <row r="960" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41699,16 +41705,16 @@
         <v>OccO_533050</v>
       </c>
       <c r="C960" s="5" t="s">
-        <v>6471</v>
+        <v>6470</v>
       </c>
       <c r="D960" s="7" t="s">
         <v>909</v>
       </c>
       <c r="E960" s="6" t="s">
+        <v>6471</v>
+      </c>
+      <c r="F960" s="6" t="s">
         <v>6472</v>
-      </c>
-      <c r="F960" s="6" t="s">
-        <v>6473</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.25">
@@ -41721,16 +41727,16 @@
         <v>OccO_533090</v>
       </c>
       <c r="C961" s="5" t="s">
-        <v>6474</v>
+        <v>6473</v>
       </c>
       <c r="D961" s="7" t="s">
         <v>1399</v>
       </c>
       <c r="E961" s="6" t="s">
+        <v>6474</v>
+      </c>
+      <c r="F961" s="6" t="s">
         <v>6475</v>
-      </c>
-      <c r="F961" s="6" t="s">
-        <v>6476</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41743,16 +41749,16 @@
         <v>OccO_534010</v>
       </c>
       <c r="C962" s="5" t="s">
-        <v>6477</v>
+        <v>6476</v>
       </c>
       <c r="D962" s="7" t="s">
         <v>908</v>
       </c>
       <c r="E962" s="6" t="s">
+        <v>6477</v>
+      </c>
+      <c r="F962" s="6" t="s">
         <v>6478</v>
-      </c>
-      <c r="F962" s="6" t="s">
-        <v>6479</v>
       </c>
     </row>
     <row r="963" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41765,16 +41771,16 @@
         <v>OccO_534010</v>
       </c>
       <c r="C963" s="5" t="s">
+        <v>6479</v>
+      </c>
+      <c r="D963" s="7" t="s">
+        <v>6481</v>
+      </c>
+      <c r="E963" s="6" t="s">
         <v>6480</v>
       </c>
-      <c r="D963" s="7" t="s">
+      <c r="F963" s="6" t="s">
         <v>6482</v>
-      </c>
-      <c r="E963" s="6" t="s">
-        <v>6481</v>
-      </c>
-      <c r="F963" s="6" t="s">
-        <v>6483</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -41787,16 +41793,16 @@
         <v>OccO_534020</v>
       </c>
       <c r="C964" s="5" t="s">
+        <v>6483</v>
+      </c>
+      <c r="D964" s="7" t="s">
+        <v>6485</v>
+      </c>
+      <c r="E964" s="6" t="s">
         <v>6484</v>
       </c>
-      <c r="D964" s="7" t="s">
+      <c r="F964" s="6" t="s">
         <v>6486</v>
-      </c>
-      <c r="E964" s="6" t="s">
-        <v>6485</v>
-      </c>
-      <c r="F964" s="6" t="s">
-        <v>6487</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -41809,16 +41815,16 @@
         <v>OccO_534030</v>
       </c>
       <c r="C965" s="5" t="s">
+        <v>6487</v>
+      </c>
+      <c r="D965" s="7" t="s">
+        <v>6489</v>
+      </c>
+      <c r="E965" s="6" t="s">
         <v>6488</v>
       </c>
-      <c r="D965" s="7" t="s">
+      <c r="F965" s="6" t="s">
         <v>6490</v>
-      </c>
-      <c r="E965" s="6" t="s">
-        <v>6489</v>
-      </c>
-      <c r="F965" s="6" t="s">
-        <v>6491</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41831,16 +41837,16 @@
         <v>OccO_534040</v>
       </c>
       <c r="C966" s="5" t="s">
+        <v>6491</v>
+      </c>
+      <c r="D966" s="7" t="s">
+        <v>6493</v>
+      </c>
+      <c r="E966" s="6" t="s">
         <v>6492</v>
       </c>
-      <c r="D966" s="7" t="s">
+      <c r="F966" s="6" t="s">
         <v>6494</v>
-      </c>
-      <c r="E966" s="6" t="s">
-        <v>6493</v>
-      </c>
-      <c r="F966" s="6" t="s">
-        <v>6495</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
@@ -41853,16 +41859,16 @@
         <v>OccO_534090</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>6496</v>
+        <v>6495</v>
       </c>
       <c r="D967" s="7" t="s">
         <v>1453</v>
       </c>
       <c r="E967" s="6" t="s">
+        <v>6496</v>
+      </c>
+      <c r="F967" s="6" t="s">
         <v>6497</v>
-      </c>
-      <c r="F967" s="6" t="s">
-        <v>6498</v>
       </c>
     </row>
     <row r="968" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -41875,16 +41881,16 @@
         <v>OccO_535010</v>
       </c>
       <c r="C968" s="5" t="s">
+        <v>6498</v>
+      </c>
+      <c r="D968" s="7" t="s">
+        <v>6500</v>
+      </c>
+      <c r="E968" s="6" t="s">
         <v>6499</v>
       </c>
-      <c r="D968" s="7" t="s">
+      <c r="F968" s="6" t="s">
         <v>6501</v>
-      </c>
-      <c r="E968" s="6" t="s">
-        <v>6500</v>
-      </c>
-      <c r="F968" s="6" t="s">
-        <v>6502</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41897,16 +41903,16 @@
         <v>OccO_535020</v>
       </c>
       <c r="C969" s="5" t="s">
+        <v>6502</v>
+      </c>
+      <c r="D969" s="7" t="s">
+        <v>6504</v>
+      </c>
+      <c r="E969" s="6" t="s">
         <v>6503</v>
       </c>
-      <c r="D969" s="7" t="s">
+      <c r="F969" s="6" t="s">
         <v>6505</v>
-      </c>
-      <c r="E969" s="6" t="s">
-        <v>6504</v>
-      </c>
-      <c r="F969" s="6" t="s">
-        <v>6506</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
@@ -41919,16 +41925,16 @@
         <v>OccO_535020</v>
       </c>
       <c r="C970" s="5" t="s">
-        <v>6507</v>
+        <v>6506</v>
       </c>
       <c r="D970" s="7" t="s">
         <v>904</v>
       </c>
       <c r="E970" s="6" t="s">
+        <v>6507</v>
+      </c>
+      <c r="F970" s="6" t="s">
         <v>6508</v>
-      </c>
-      <c r="F970" s="6" t="s">
-        <v>6509</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41941,16 +41947,16 @@
         <v>OccO_535030</v>
       </c>
       <c r="C971" s="5" t="s">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="D971" s="7" t="s">
         <v>903</v>
       </c>
       <c r="E971" s="6" t="s">
+        <v>6510</v>
+      </c>
+      <c r="F971" s="6" t="s">
         <v>6511</v>
-      </c>
-      <c r="F971" s="6" t="s">
-        <v>6512</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -41963,16 +41969,16 @@
         <v>OccO_536010</v>
       </c>
       <c r="C972" s="5" t="s">
+        <v>6512</v>
+      </c>
+      <c r="D972" s="7" t="s">
+        <v>6514</v>
+      </c>
+      <c r="E972" s="6" t="s">
         <v>6513</v>
       </c>
-      <c r="D972" s="7" t="s">
+      <c r="F972" s="6" t="s">
         <v>6515</v>
-      </c>
-      <c r="E972" s="6" t="s">
-        <v>6514</v>
-      </c>
-      <c r="F972" s="6" t="s">
-        <v>6516</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -41985,16 +41991,16 @@
         <v>OccO_536020</v>
       </c>
       <c r="C973" s="5" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="D973" s="7" t="s">
         <v>901</v>
       </c>
       <c r="E973" s="6" t="s">
+        <v>6517</v>
+      </c>
+      <c r="F973" s="6" t="s">
         <v>6518</v>
-      </c>
-      <c r="F973" s="6" t="s">
-        <v>6519</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -42007,16 +42013,16 @@
         <v>OccO_536030</v>
       </c>
       <c r="C974" s="5" t="s">
+        <v>6519</v>
+      </c>
+      <c r="D974" s="7" t="s">
+        <v>6521</v>
+      </c>
+      <c r="E974" s="6" t="s">
         <v>6520</v>
       </c>
-      <c r="D974" s="7" t="s">
+      <c r="F974" s="6" t="s">
         <v>6522</v>
-      </c>
-      <c r="E974" s="6" t="s">
-        <v>6521</v>
-      </c>
-      <c r="F974" s="6" t="s">
-        <v>6523</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42029,16 +42035,16 @@
         <v>OccO_536030</v>
       </c>
       <c r="C975" s="5" t="s">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="D975" s="7" t="s">
         <v>899</v>
       </c>
       <c r="E975" s="6" t="s">
+        <v>6524</v>
+      </c>
+      <c r="F975" s="6" t="s">
         <v>6525</v>
-      </c>
-      <c r="F975" s="6" t="s">
-        <v>6526</v>
       </c>
     </row>
     <row r="976" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42051,16 +42057,16 @@
         <v>OccO_536040</v>
       </c>
       <c r="C976" s="5" t="s">
-        <v>6527</v>
+        <v>6526</v>
       </c>
       <c r="D976" s="7" t="s">
         <v>898</v>
       </c>
       <c r="E976" s="6" t="s">
+        <v>6527</v>
+      </c>
+      <c r="F976" s="6" t="s">
         <v>6528</v>
-      </c>
-      <c r="F976" s="6" t="s">
-        <v>6529</v>
       </c>
     </row>
     <row r="977" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42073,16 +42079,16 @@
         <v>OccO_536050</v>
       </c>
       <c r="C977" s="5" t="s">
-        <v>6530</v>
+        <v>6529</v>
       </c>
       <c r="D977" s="7" t="s">
         <v>897</v>
       </c>
       <c r="E977" s="6" t="s">
+        <v>6530</v>
+      </c>
+      <c r="F977" s="6" t="s">
         <v>6531</v>
-      </c>
-      <c r="F977" s="6" t="s">
-        <v>6532</v>
       </c>
     </row>
     <row r="978" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42095,16 +42101,16 @@
         <v>OccO_536050</v>
       </c>
       <c r="C978" s="5" t="s">
+        <v>6532</v>
+      </c>
+      <c r="D978" s="7" t="s">
+        <v>6534</v>
+      </c>
+      <c r="E978" s="6" t="s">
         <v>6533</v>
       </c>
-      <c r="D978" s="7" t="s">
+      <c r="F978" s="6" t="s">
         <v>6535</v>
-      </c>
-      <c r="E978" s="6" t="s">
-        <v>6534</v>
-      </c>
-      <c r="F978" s="6" t="s">
-        <v>6536</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42117,16 +42123,16 @@
         <v>OccO_536050</v>
       </c>
       <c r="C979" s="5" t="s">
+        <v>6536</v>
+      </c>
+      <c r="D979" s="7" t="s">
+        <v>6538</v>
+      </c>
+      <c r="E979" s="6" t="s">
         <v>6537</v>
       </c>
-      <c r="D979" s="7" t="s">
+      <c r="F979" s="6" t="s">
         <v>6539</v>
-      </c>
-      <c r="E979" s="6" t="s">
-        <v>6538</v>
-      </c>
-      <c r="F979" s="6" t="s">
-        <v>6540</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42139,16 +42145,16 @@
         <v>OccO_536060</v>
       </c>
       <c r="C980" s="5" t="s">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="D980" s="7" t="s">
         <v>896</v>
       </c>
       <c r="E980" s="6" t="s">
+        <v>6541</v>
+      </c>
+      <c r="F980" s="6" t="s">
         <v>6542</v>
-      </c>
-      <c r="F980" s="6" t="s">
-        <v>6543</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
@@ -42161,16 +42167,16 @@
         <v>OccO_536090</v>
       </c>
       <c r="C981" s="5" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
       <c r="D981" s="7" t="s">
         <v>1452</v>
       </c>
       <c r="E981" s="6" t="s">
+        <v>6544</v>
+      </c>
+      <c r="F981" s="6" t="s">
         <v>6545</v>
-      </c>
-      <c r="F981" s="6" t="s">
-        <v>6546</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42183,16 +42189,16 @@
         <v>OccO_537010</v>
       </c>
       <c r="C982" s="5" t="s">
+        <v>6546</v>
+      </c>
+      <c r="D982" s="7" t="s">
+        <v>6548</v>
+      </c>
+      <c r="E982" s="6" t="s">
         <v>6547</v>
       </c>
-      <c r="D982" s="7" t="s">
+      <c r="F982" s="6" t="s">
         <v>6549</v>
-      </c>
-      <c r="E982" s="6" t="s">
-        <v>6548</v>
-      </c>
-      <c r="F982" s="6" t="s">
-        <v>6550</v>
       </c>
     </row>
     <row r="983" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42205,16 +42211,16 @@
         <v>OccO_537020</v>
       </c>
       <c r="C983" s="5" t="s">
+        <v>6550</v>
+      </c>
+      <c r="D983" s="7" t="s">
+        <v>6552</v>
+      </c>
+      <c r="E983" s="6" t="s">
         <v>6551</v>
       </c>
-      <c r="D983" s="7" t="s">
+      <c r="F983" s="6" t="s">
         <v>6553</v>
-      </c>
-      <c r="E983" s="6" t="s">
-        <v>6552</v>
-      </c>
-      <c r="F983" s="6" t="s">
-        <v>6554</v>
       </c>
     </row>
     <row r="984" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42227,16 +42233,16 @@
         <v>OccO_537030</v>
       </c>
       <c r="C984" s="5" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="D984" s="7" t="s">
         <v>894</v>
       </c>
       <c r="E984" s="6" t="s">
+        <v>6555</v>
+      </c>
+      <c r="F984" s="6" t="s">
         <v>6556</v>
-      </c>
-      <c r="F984" s="6" t="s">
-        <v>6557</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
@@ -42249,16 +42255,16 @@
         <v>OccO_537040</v>
       </c>
       <c r="C985" s="5" t="s">
+        <v>6557</v>
+      </c>
+      <c r="D985" s="7" t="s">
+        <v>6559</v>
+      </c>
+      <c r="E985" s="6" t="s">
         <v>6558</v>
       </c>
-      <c r="D985" s="7" t="s">
+      <c r="F985" s="6" t="s">
         <v>6560</v>
-      </c>
-      <c r="E985" s="6" t="s">
-        <v>6559</v>
-      </c>
-      <c r="F985" s="6" t="s">
-        <v>6561</v>
       </c>
     </row>
     <row r="986" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42271,16 +42277,16 @@
         <v>OccO_537050</v>
       </c>
       <c r="C986" s="5" t="s">
+        <v>6561</v>
+      </c>
+      <c r="D986" s="7" t="s">
+        <v>6563</v>
+      </c>
+      <c r="E986" s="6" t="s">
         <v>6562</v>
       </c>
-      <c r="D986" s="7" t="s">
+      <c r="F986" s="6" t="s">
         <v>6564</v>
-      </c>
-      <c r="E986" s="6" t="s">
-        <v>6563</v>
-      </c>
-      <c r="F986" s="6" t="s">
-        <v>6565</v>
       </c>
     </row>
     <row r="987" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42293,16 +42299,16 @@
         <v>OccO_537060</v>
       </c>
       <c r="C987" s="5" t="s">
+        <v>6565</v>
+      </c>
+      <c r="D987" s="7" t="s">
+        <v>6567</v>
+      </c>
+      <c r="E987" s="6" t="s">
         <v>6566</v>
       </c>
-      <c r="D987" s="7" t="s">
+      <c r="F987" s="6" t="s">
         <v>6568</v>
-      </c>
-      <c r="E987" s="6" t="s">
-        <v>6567</v>
-      </c>
-      <c r="F987" s="6" t="s">
-        <v>6569</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42315,16 +42321,16 @@
         <v>OccO_537060</v>
       </c>
       <c r="C988" s="5" t="s">
+        <v>6569</v>
+      </c>
+      <c r="D988" s="7" t="s">
+        <v>6571</v>
+      </c>
+      <c r="E988" s="6" t="s">
         <v>6570</v>
       </c>
-      <c r="D988" s="7" t="s">
+      <c r="F988" s="6" t="s">
         <v>6572</v>
-      </c>
-      <c r="E988" s="6" t="s">
-        <v>6571</v>
-      </c>
-      <c r="F988" s="6" t="s">
-        <v>6573</v>
       </c>
     </row>
     <row r="989" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42337,16 +42343,16 @@
         <v>OccO_537060</v>
       </c>
       <c r="C989" s="5" t="s">
+        <v>6573</v>
+      </c>
+      <c r="D989" s="7" t="s">
+        <v>6575</v>
+      </c>
+      <c r="E989" s="6" t="s">
         <v>6574</v>
       </c>
-      <c r="D989" s="7" t="s">
+      <c r="F989" s="6" t="s">
         <v>6576</v>
-      </c>
-      <c r="E989" s="6" t="s">
-        <v>6575</v>
-      </c>
-      <c r="F989" s="6" t="s">
-        <v>6577</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42359,16 +42365,16 @@
         <v>OccO_537060</v>
       </c>
       <c r="C990" s="5" t="s">
+        <v>6577</v>
+      </c>
+      <c r="D990" s="7" t="s">
+        <v>6579</v>
+      </c>
+      <c r="E990" s="6" t="s">
         <v>6578</v>
       </c>
-      <c r="D990" s="7" t="s">
+      <c r="F990" s="6" t="s">
         <v>6580</v>
-      </c>
-      <c r="E990" s="6" t="s">
-        <v>6579</v>
-      </c>
-      <c r="F990" s="6" t="s">
-        <v>6581</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
@@ -42381,16 +42387,16 @@
         <v>OccO_537060</v>
       </c>
       <c r="C991" s="5" t="s">
+        <v>6581</v>
+      </c>
+      <c r="D991" s="7" t="s">
+        <v>6583</v>
+      </c>
+      <c r="E991" s="6" t="s">
         <v>6582</v>
       </c>
-      <c r="D991" s="7" t="s">
+      <c r="F991" s="6" t="s">
         <v>6584</v>
-      </c>
-      <c r="E991" s="6" t="s">
-        <v>6583</v>
-      </c>
-      <c r="F991" s="6" t="s">
-        <v>6585</v>
       </c>
     </row>
     <row r="992" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42403,16 +42409,16 @@
         <v>OccO_537060</v>
       </c>
       <c r="C992" s="5" t="s">
+        <v>6585</v>
+      </c>
+      <c r="D992" s="7" t="s">
+        <v>6587</v>
+      </c>
+      <c r="E992" s="6" t="s">
         <v>6586</v>
       </c>
-      <c r="D992" s="7" t="s">
+      <c r="F992" s="6" t="s">
         <v>6588</v>
-      </c>
-      <c r="E992" s="6" t="s">
-        <v>6587</v>
-      </c>
-      <c r="F992" s="6" t="s">
-        <v>6589</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42425,16 +42431,16 @@
         <v>OccO_537070</v>
       </c>
       <c r="C993" s="5" t="s">
+        <v>6589</v>
+      </c>
+      <c r="D993" s="7" t="s">
+        <v>6591</v>
+      </c>
+      <c r="E993" s="6" t="s">
         <v>6590</v>
       </c>
-      <c r="D993" s="7" t="s">
+      <c r="F993" s="6" t="s">
         <v>6592</v>
-      </c>
-      <c r="E993" s="6" t="s">
-        <v>6591</v>
-      </c>
-      <c r="F993" s="6" t="s">
-        <v>6593</v>
       </c>
     </row>
     <row r="994" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42447,16 +42453,16 @@
         <v>OccO_537070</v>
       </c>
       <c r="C994" s="5" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
       <c r="D994" s="7" t="s">
         <v>1396</v>
       </c>
       <c r="E994" s="6" t="s">
+        <v>6594</v>
+      </c>
+      <c r="F994" s="6" t="s">
         <v>6595</v>
-      </c>
-      <c r="F994" s="6" t="s">
-        <v>6596</v>
       </c>
     </row>
     <row r="995" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42469,16 +42475,16 @@
         <v>OccO_537070</v>
       </c>
       <c r="C995" s="5" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
       <c r="D995" s="7" t="s">
         <v>887</v>
       </c>
       <c r="E995" s="6" t="s">
+        <v>6597</v>
+      </c>
+      <c r="F995" s="6" t="s">
         <v>6598</v>
-      </c>
-      <c r="F995" s="6" t="s">
-        <v>6599</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
@@ -42491,16 +42497,16 @@
         <v>OccO_537080</v>
       </c>
       <c r="C996" s="5" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D996" s="7" t="s">
+        <v>6601</v>
+      </c>
+      <c r="E996" s="6" t="s">
         <v>6600</v>
       </c>
-      <c r="D996" s="7" t="s">
+      <c r="F996" s="6" t="s">
         <v>6602</v>
-      </c>
-      <c r="E996" s="6" t="s">
-        <v>6601</v>
-      </c>
-      <c r="F996" s="6" t="s">
-        <v>6603</v>
       </c>
     </row>
     <row r="997" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42513,16 +42519,16 @@
         <v>OccO_537120</v>
       </c>
       <c r="C997" s="5" t="s">
+        <v>6603</v>
+      </c>
+      <c r="D997" s="7" t="s">
+        <v>6605</v>
+      </c>
+      <c r="E997" s="6" t="s">
         <v>6604</v>
       </c>
-      <c r="D997" s="7" t="s">
+      <c r="F997" s="6" t="s">
         <v>6606</v>
-      </c>
-      <c r="E997" s="6" t="s">
-        <v>6605</v>
-      </c>
-      <c r="F997" s="6" t="s">
-        <v>6607</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
@@ -42535,16 +42541,16 @@
         <v>OccO_537190</v>
       </c>
       <c r="C998" s="5" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
       <c r="D998" s="7" t="s">
         <v>1451</v>
       </c>
       <c r="E998" s="6" t="s">
+        <v>6608</v>
+      </c>
+      <c r="F998" s="6" t="s">
         <v>6609</v>
-      </c>
-      <c r="F998" s="6" t="s">
-        <v>6610</v>
       </c>
     </row>
     <row r="999" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -42557,16 +42563,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C999" s="5" t="s">
-        <v>6611</v>
+        <v>6610</v>
       </c>
       <c r="D999" s="7" t="s">
         <v>884</v>
       </c>
       <c r="E999" s="6" t="s">
+        <v>6611</v>
+      </c>
+      <c r="F999" s="6" t="s">
         <v>6612</v>
-      </c>
-      <c r="F999" s="6" t="s">
-        <v>6613</v>
       </c>
     </row>
     <row r="1000" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -42579,16 +42585,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1000" s="5" t="s">
+        <v>6613</v>
+      </c>
+      <c r="D1000" s="7" t="s">
+        <v>6615</v>
+      </c>
+      <c r="E1000" s="6" t="s">
         <v>6614</v>
       </c>
-      <c r="D1000" s="7" t="s">
+      <c r="F1000" s="6" t="s">
         <v>6616</v>
-      </c>
-      <c r="E1000" s="6" t="s">
-        <v>6615</v>
-      </c>
-      <c r="F1000" s="6" t="s">
-        <v>6617</v>
       </c>
     </row>
     <row r="1001" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -42601,16 +42607,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1001" s="5" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
       <c r="D1001" s="7" t="s">
         <v>882</v>
       </c>
       <c r="E1001" s="6" t="s">
+        <v>6618</v>
+      </c>
+      <c r="F1001" s="6" t="s">
         <v>6619</v>
-      </c>
-      <c r="F1001" s="6" t="s">
-        <v>6620</v>
       </c>
     </row>
     <row r="1002" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -42623,16 +42629,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1002" s="5" t="s">
+        <v>6620</v>
+      </c>
+      <c r="D1002" s="7" t="s">
+        <v>6622</v>
+      </c>
+      <c r="E1002" s="6" t="s">
         <v>6621</v>
       </c>
-      <c r="D1002" s="7" t="s">
+      <c r="F1002" s="6" t="s">
         <v>6623</v>
-      </c>
-      <c r="E1002" s="6" t="s">
-        <v>6622</v>
-      </c>
-      <c r="F1002" s="6" t="s">
-        <v>6624</v>
       </c>
     </row>
     <row r="1003" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -42645,16 +42651,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1003" s="5" t="s">
+        <v>6624</v>
+      </c>
+      <c r="D1003" s="7" t="s">
+        <v>6626</v>
+      </c>
+      <c r="E1003" s="6" t="s">
         <v>6625</v>
       </c>
-      <c r="D1003" s="7" t="s">
+      <c r="F1003" s="6" t="s">
         <v>6627</v>
-      </c>
-      <c r="E1003" s="6" t="s">
-        <v>6626</v>
-      </c>
-      <c r="F1003" s="6" t="s">
-        <v>6628</v>
       </c>
     </row>
     <row r="1004" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -42667,16 +42673,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
       <c r="D1004" s="7" t="s">
         <v>879</v>
       </c>
       <c r="E1004" s="6" t="s">
+        <v>6629</v>
+      </c>
+      <c r="F1004" s="6" t="s">
         <v>6630</v>
-      </c>
-      <c r="F1004" s="6" t="s">
-        <v>6631</v>
       </c>
     </row>
     <row r="1005" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -42689,16 +42695,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1005" s="5" t="s">
+        <v>6631</v>
+      </c>
+      <c r="D1005" s="7" t="s">
+        <v>6633</v>
+      </c>
+      <c r="E1005" s="6" t="s">
         <v>6632</v>
       </c>
-      <c r="D1005" s="7" t="s">
+      <c r="F1005" s="6" t="s">
         <v>6634</v>
-      </c>
-      <c r="E1005" s="6" t="s">
-        <v>6633</v>
-      </c>
-      <c r="F1005" s="6" t="s">
-        <v>6635</v>
       </c>
     </row>
     <row r="1006" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42711,16 +42717,16 @@
         <v>OccO_551010</v>
       </c>
       <c r="C1006" s="5" t="s">
+        <v>6635</v>
+      </c>
+      <c r="D1006" s="7" t="s">
+        <v>6637</v>
+      </c>
+      <c r="E1006" s="6" t="s">
         <v>6636</v>
       </c>
-      <c r="D1006" s="7" t="s">
+      <c r="F1006" s="6" t="s">
         <v>6638</v>
-      </c>
-      <c r="E1006" s="6" t="s">
-        <v>6637</v>
-      </c>
-      <c r="F1006" s="6" t="s">
-        <v>6639</v>
       </c>
     </row>
     <row r="1007" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42733,16 +42739,16 @@
         <v>OccO_552010</v>
       </c>
       <c r="C1007" s="5" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="D1007" s="7" t="s">
         <v>1430</v>
       </c>
       <c r="E1007" s="6" t="s">
+        <v>6640</v>
+      </c>
+      <c r="F1007" s="6" t="s">
         <v>6641</v>
-      </c>
-      <c r="F1007" s="6" t="s">
-        <v>6642</v>
       </c>
     </row>
     <row r="1008" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -42755,16 +42761,16 @@
         <v>OccO_552010</v>
       </c>
       <c r="C1008" s="5" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="D1008" s="7" t="s">
         <v>1429</v>
       </c>
       <c r="E1008" s="6" t="s">
+        <v>6643</v>
+      </c>
+      <c r="F1008" s="6" t="s">
         <v>6644</v>
-      </c>
-      <c r="F1008" s="6" t="s">
-        <v>6645</v>
       </c>
     </row>
     <row r="1009" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42777,16 +42783,16 @@
         <v>OccO_552010</v>
       </c>
       <c r="C1009" s="5" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="D1009" s="7" t="s">
         <v>1428</v>
       </c>
       <c r="E1009" s="6" t="s">
+        <v>6646</v>
+      </c>
+      <c r="F1009" s="6" t="s">
         <v>6647</v>
-      </c>
-      <c r="F1009" s="6" t="s">
-        <v>6648</v>
       </c>
     </row>
     <row r="1010" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -42799,16 +42805,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
       <c r="D1010" s="7" t="s">
         <v>877</v>
       </c>
       <c r="E1010" s="6" t="s">
+        <v>6649</v>
+      </c>
+      <c r="F1010" s="6" t="s">
         <v>6650</v>
-      </c>
-      <c r="F1010" s="6" t="s">
-        <v>6651</v>
       </c>
     </row>
     <row r="1011" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -42821,16 +42827,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1011" s="5" t="s">
+        <v>6651</v>
+      </c>
+      <c r="D1011" s="7" t="s">
+        <v>6653</v>
+      </c>
+      <c r="E1011" s="6" t="s">
         <v>6652</v>
       </c>
-      <c r="D1011" s="7" t="s">
+      <c r="F1011" s="6" t="s">
         <v>6654</v>
-      </c>
-      <c r="E1011" s="6" t="s">
-        <v>6653</v>
-      </c>
-      <c r="F1011" s="6" t="s">
-        <v>6655</v>
       </c>
     </row>
     <row r="1012" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -42843,16 +42849,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="D1012" s="7" t="s">
         <v>875</v>
       </c>
       <c r="E1012" s="6" t="s">
+        <v>6656</v>
+      </c>
+      <c r="F1012" s="6" t="s">
         <v>6657</v>
-      </c>
-      <c r="F1012" s="6" t="s">
-        <v>6658</v>
       </c>
     </row>
     <row r="1013" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -42865,16 +42871,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1013" s="5" t="s">
+        <v>6658</v>
+      </c>
+      <c r="D1013" s="7" t="s">
+        <v>6660</v>
+      </c>
+      <c r="E1013" s="6" t="s">
         <v>6659</v>
       </c>
-      <c r="D1013" s="7" t="s">
+      <c r="F1013" s="6" t="s">
         <v>6661</v>
-      </c>
-      <c r="E1013" s="6" t="s">
-        <v>6660</v>
-      </c>
-      <c r="F1013" s="6" t="s">
-        <v>6662</v>
       </c>
     </row>
     <row r="1014" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -42887,16 +42893,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1014" s="5" t="s">
+        <v>6662</v>
+      </c>
+      <c r="D1014" s="7" t="s">
+        <v>6664</v>
+      </c>
+      <c r="E1014" s="6" t="s">
         <v>6663</v>
       </c>
-      <c r="D1014" s="7" t="s">
+      <c r="F1014" s="6" t="s">
         <v>6665</v>
-      </c>
-      <c r="E1014" s="6" t="s">
-        <v>6664</v>
-      </c>
-      <c r="F1014" s="6" t="s">
-        <v>6666</v>
       </c>
     </row>
     <row r="1015" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -42909,16 +42915,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
       <c r="D1015" s="7" t="s">
         <v>872</v>
       </c>
       <c r="E1015" s="6" t="s">
+        <v>6667</v>
+      </c>
+      <c r="F1015" s="6" t="s">
         <v>6668</v>
-      </c>
-      <c r="F1015" s="6" t="s">
-        <v>6669</v>
       </c>
     </row>
     <row r="1016" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -42931,16 +42937,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1016" s="5" t="s">
+        <v>6669</v>
+      </c>
+      <c r="D1016" s="7" t="s">
+        <v>6671</v>
+      </c>
+      <c r="E1016" s="6" t="s">
         <v>6670</v>
       </c>
-      <c r="D1016" s="7" t="s">
+      <c r="F1016" s="6" t="s">
         <v>6672</v>
-      </c>
-      <c r="E1016" s="6" t="s">
-        <v>6671</v>
-      </c>
-      <c r="F1016" s="6" t="s">
-        <v>6673</v>
       </c>
     </row>
     <row r="1017" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -42953,16 +42959,16 @@
         <v>OccO_553010</v>
       </c>
       <c r="C1017" s="5" t="s">
+        <v>6673</v>
+      </c>
+      <c r="D1017" s="7" t="s">
+        <v>6675</v>
+      </c>
+      <c r="E1017" s="6" t="s">
         <v>6674</v>
       </c>
-      <c r="D1017" s="7" t="s">
+      <c r="F1017" s="6" t="s">
         <v>6676</v>
-      </c>
-      <c r="E1017" s="6" t="s">
-        <v>6675</v>
-      </c>
-      <c r="F1017" s="6" t="s">
-        <v>6677</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
@@ -43018,50 +43024,50 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C15" t="s">
         <v>6683</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6684</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
     </row>
   </sheetData>
